--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F0D630-B07A-4AA1-8103-4B1BA1A6D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5F7B3-297B-47CA-901E-1333D38DABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10590" yWindow="90" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -163,9 +163,6 @@
     <t>詳細設計書</t>
   </si>
   <si>
-    <t>0,8</t>
-  </si>
-  <si>
     <t>製造</t>
   </si>
   <si>
@@ -215,6 +212,13 @@
   </si>
   <si>
     <t>gitの勉強を行う</t>
+  </si>
+  <si>
+    <t>作業中</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1017,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BF7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BO7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1141,7 @@
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="24">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
@@ -3010,13 +3014,11 @@
       </c>
       <c r="AB14" s="46"/>
       <c r="AC14" s="46"/>
-      <c r="AD14" s="46">
-        <v>44518</v>
-      </c>
+      <c r="AD14" s="46"/>
       <c r="AE14" s="46"/>
       <c r="AF14" s="46"/>
       <c r="AG14" s="47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AH14" s="47"/>
       <c r="AI14" s="47">
@@ -3024,11 +3026,11 @@
       </c>
       <c r="AJ14" s="47"/>
       <c r="AK14" s="48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AL14" s="48"/>
       <c r="AM14" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN14" s="45"/>
       <c r="AO14" s="45"/>
@@ -3059,7 +3061,7 @@
       <c r="BN14" s="15"/>
       <c r="BO14" s="20"/>
       <c r="BP14" s="15"/>
-      <c r="BQ14" s="16"/>
+      <c r="BQ14" s="20"/>
       <c r="BR14" s="16"/>
       <c r="BS14" s="16"/>
       <c r="BT14" s="15"/>
@@ -3262,25 +3264,23 @@
       </c>
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
-      <c r="AD16" s="46">
-        <v>44501</v>
-      </c>
+      <c r="AD16" s="46"/>
       <c r="AE16" s="46"/>
       <c r="AF16" s="46"/>
       <c r="AG16" s="47">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AH16" s="47"/>
       <c r="AI16" s="47">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AJ16" s="47"/>
       <c r="AK16" s="48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AL16" s="48"/>
       <c r="AM16" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN16" s="45"/>
       <c r="AO16" s="45"/>
@@ -3311,7 +3311,7 @@
       <c r="BN16" s="15"/>
       <c r="BO16" s="20"/>
       <c r="BP16" s="15"/>
-      <c r="BQ16" s="16"/>
+      <c r="BQ16" s="20"/>
       <c r="BR16" s="16"/>
       <c r="BS16" s="16"/>
       <c r="BT16" s="15"/>
@@ -3518,19 +3518,19 @@
       <c r="AE18" s="39"/>
       <c r="AF18" s="39"/>
       <c r="AG18" s="47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="47"/>
       <c r="AI18" s="47">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AJ18" s="47"/>
       <c r="AK18" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL18" s="48"/>
       <c r="AM18" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN18" s="45"/>
       <c r="AO18" s="45"/>
@@ -3561,7 +3561,7 @@
       <c r="BN18" s="15"/>
       <c r="BO18" s="20"/>
       <c r="BP18" s="15"/>
-      <c r="BQ18" s="16"/>
+      <c r="BQ18" s="20"/>
       <c r="BR18" s="16"/>
       <c r="BS18" s="16"/>
       <c r="BT18" s="15"/>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="AH27" s="47"/>
-      <c r="AI27" s="47" t="s">
-        <v>43</v>
+      <c r="AI27" s="47">
+        <v>1</v>
       </c>
       <c r="AJ27" s="47"/>
       <c r="AK27" s="48">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AL27" s="48"/>
       <c r="AM27" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN27" s="45"/>
       <c r="AO27" s="45"/>
@@ -4703,7 +4703,7 @@
       <c r="BN27" s="15"/>
       <c r="BO27" s="16"/>
       <c r="BP27" s="15"/>
-      <c r="BQ27" s="16"/>
+      <c r="BQ27" s="20"/>
       <c r="BR27" s="16"/>
       <c r="BS27" s="16"/>
       <c r="BT27" s="15"/>
@@ -5492,7 +5492,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -5731,7 +5731,7 @@
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
       <c r="J36" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
@@ -5857,7 +5857,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
       <c r="J37" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
@@ -5983,7 +5983,7 @@
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
       <c r="J38" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
@@ -6109,7 +6109,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
       <c r="J39" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
@@ -6235,7 +6235,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -6361,7 +6361,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
@@ -6588,7 +6588,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -7699,7 +7699,7 @@
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
       <c r="J52" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
@@ -7825,7 +7825,7 @@
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53" s="40"/>
       <c r="L53" s="40"/>
@@ -7951,7 +7951,7 @@
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
       <c r="J54" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54" s="40"/>
       <c r="L54" s="40"/>
@@ -8077,7 +8077,7 @@
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
       <c r="J55" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" s="40"/>
       <c r="L55" s="40"/>
@@ -8203,7 +8203,7 @@
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
       <c r="J56" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
@@ -8329,7 +8329,7 @@
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
       <c r="J57" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="40"/>
       <c r="L57" s="40"/>
@@ -8556,7 +8556,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -8793,7 +8793,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
       <c r="J61" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -9033,7 +9033,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
       <c r="J63" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
@@ -9260,7 +9260,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -9501,7 +9501,7 @@
       <c r="H67" s="39"/>
       <c r="I67" s="39"/>
       <c r="J67" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
@@ -10601,7 +10601,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.19645669291338602" right="0.19645669291338602" top="0.59015748031496107" bottom="0.59015748031496107" header="0.19645669291338602" footer="0.19645669291338602"/>
-  <pageSetup paperSize="0" scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5F7B3-297B-47CA-901E-1333D38DABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6B3E3B-C790-45F1-8DBD-F9A3487BA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="90" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="780" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BO7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BK10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12:AC12"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1141,7 @@
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="24">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
@@ -2884,11 +2884,11 @@
       <c r="AE13" s="46"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AH13" s="47"/>
       <c r="AI13" s="47">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="47"/>
       <c r="AK13" s="48">
@@ -3018,11 +3018,11 @@
       <c r="AE14" s="46"/>
       <c r="AF14" s="46"/>
       <c r="AG14" s="47">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="AH14" s="47"/>
       <c r="AI14" s="47">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AJ14" s="47"/>
       <c r="AK14" s="48">
@@ -3062,7 +3062,7 @@
       <c r="BO14" s="20"/>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="20"/>
-      <c r="BR14" s="16"/>
+      <c r="BR14" s="20"/>
       <c r="BS14" s="16"/>
       <c r="BT14" s="15"/>
       <c r="BU14" s="15"/>
@@ -3268,11 +3268,11 @@
       <c r="AE16" s="46"/>
       <c r="AF16" s="46"/>
       <c r="AG16" s="47">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH16" s="47"/>
       <c r="AI16" s="47">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ16" s="47"/>
       <c r="AK16" s="48">
@@ -3312,7 +3312,7 @@
       <c r="BO16" s="20"/>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="20"/>
-      <c r="BR16" s="16"/>
+      <c r="BR16" s="20"/>
       <c r="BS16" s="16"/>
       <c r="BT16" s="15"/>
       <c r="BU16" s="15"/>
@@ -3518,11 +3518,11 @@
       <c r="AE18" s="39"/>
       <c r="AF18" s="39"/>
       <c r="AG18" s="47">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AH18" s="47"/>
       <c r="AI18" s="47">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AJ18" s="47"/>
       <c r="AK18" s="48">
@@ -3562,7 +3562,7 @@
       <c r="BO18" s="20"/>
       <c r="BP18" s="15"/>
       <c r="BQ18" s="20"/>
-      <c r="BR18" s="16"/>
+      <c r="BR18" s="20"/>
       <c r="BS18" s="16"/>
       <c r="BT18" s="15"/>
       <c r="BU18" s="15"/>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="AJ19" s="47"/>
       <c r="AK19" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL19" s="48"/>
       <c r="AM19" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN19" s="45"/>
       <c r="AO19" s="45"/>
@@ -3696,7 +3696,7 @@
       <c r="BO19" s="16"/>
       <c r="BP19" s="15"/>
       <c r="BQ19" s="16"/>
-      <c r="BR19" s="16"/>
+      <c r="BR19" s="20"/>
       <c r="BS19" s="16"/>
       <c r="BT19" s="15"/>
       <c r="BU19" s="15"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="AJ20" s="47"/>
       <c r="AK20" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL20" s="48"/>
       <c r="AM20" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN20" s="45"/>
       <c r="AO20" s="45"/>
@@ -3830,7 +3830,7 @@
       <c r="BO20" s="16"/>
       <c r="BP20" s="15"/>
       <c r="BQ20" s="16"/>
-      <c r="BR20" s="16"/>
+      <c r="BR20" s="20"/>
       <c r="BS20" s="16"/>
       <c r="BT20" s="15"/>
       <c r="BU20" s="15"/>
@@ -3928,11 +3928,11 @@
       </c>
       <c r="AJ21" s="47"/>
       <c r="AK21" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL21" s="48"/>
       <c r="AM21" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN21" s="45"/>
       <c r="AO21" s="45"/>
@@ -3964,7 +3964,7 @@
       <c r="BO21" s="16"/>
       <c r="BP21" s="15"/>
       <c r="BQ21" s="16"/>
-      <c r="BR21" s="16"/>
+      <c r="BR21" s="20"/>
       <c r="BS21" s="16"/>
       <c r="BT21" s="15"/>
       <c r="BU21" s="15"/>
@@ -4058,15 +4058,15 @@
       </c>
       <c r="AH22" s="47"/>
       <c r="AI22" s="47">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AJ22" s="47"/>
       <c r="AK22" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL22" s="48"/>
       <c r="AM22" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN22" s="45"/>
       <c r="AO22" s="45"/>
@@ -4098,7 +4098,7 @@
       <c r="BO22" s="16"/>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="16"/>
-      <c r="BR22" s="16"/>
+      <c r="BR22" s="20"/>
       <c r="BS22" s="16"/>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
@@ -4192,15 +4192,15 @@
       </c>
       <c r="AH23" s="47"/>
       <c r="AI23" s="47">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AJ23" s="47"/>
       <c r="AK23" s="48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL23" s="48"/>
       <c r="AM23" s="45" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN23" s="45"/>
       <c r="AO23" s="45"/>
@@ -4232,7 +4232,7 @@
       <c r="BO23" s="16"/>
       <c r="BP23" s="15"/>
       <c r="BQ23" s="16"/>
-      <c r="BR23" s="16"/>
+      <c r="BR23" s="20"/>
       <c r="BS23" s="16"/>
       <c r="BT23" s="15"/>
       <c r="BU23" s="15"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6B3E3B-C790-45F1-8DBD-F9A3487BA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87012AE1-7D29-4160-A0E6-74DDFEB6E404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="780" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -568,6 +568,66 @@
     <xf numFmtId="177" fontId="5" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,66 +651,6 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BK10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="AQ10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:I6"/>
+      <selection pane="bottomRight" activeCell="AI17" sqref="AI17:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,221 +1038,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="22" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="24">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="44">
         <v>44498</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="22" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="25">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="45">
         <v>44498</v>
       </c>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BD1" s="27" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BD1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="24">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="44">
         <v>44525</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BD2" s="29" t="s">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BD2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="32" t="s">
+      <c r="BD3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31" t="s">
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="34" t="s">
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="30" t="s">
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
       <c r="AQ4" s="3">
         <f>AU1</f>
         <v>44498</v>
@@ -1513,60 +1513,60 @@
       <c r="DD4" s="7"/>
     </row>
     <row r="5" spans="1:108" s="10" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31" t="s">
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31" t="s">
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31" t="s">
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31" t="s">
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
       <c r="AQ5" s="8">
         <f>AU1</f>
         <v>44498</v>
@@ -1825,48 +1825,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
       <c r="AQ6" s="11" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2133,46 +2133,46 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
@@ -2249,46 +2249,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="15"/>
@@ -2367,64 +2367,64 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="33">
         <v>44498</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42">
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33">
         <v>44498</v>
       </c>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42">
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33">
         <v>44498</v>
       </c>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>44498</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="43">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="34">
         <v>1</v>
       </c>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43">
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34">
         <v>1</v>
       </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="44">
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="35">
         <v>1</v>
       </c>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="45" t="s">
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
@@ -2497,44 +2497,44 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="15"/>
       <c r="AS10" s="15"/>
@@ -2609,46 +2609,46 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
@@ -2725,46 +2725,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
@@ -2843,64 +2843,64 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="45" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="31">
         <v>44501</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46">
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31">
         <v>44501</v>
       </c>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46">
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31">
         <v>44501</v>
       </c>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46">
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31">
         <v>44518</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="47">
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47">
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23">
         <v>2</v>
       </c>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="32">
         <v>1</v>
       </c>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="45" t="s">
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
@@ -2979,62 +2979,62 @@
       <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="45" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="46">
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="31">
         <v>44501</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46">
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31">
         <v>44501</v>
       </c>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46">
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31">
         <v>44501</v>
       </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="47">
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48">
-        <v>0.95</v>
-      </c>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23">
+        <v>4.7</v>
+      </c>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="15"/>
@@ -3111,46 +3111,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
@@ -3229,62 +3229,62 @@
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="45" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="46">
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="31">
         <v>44502</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46">
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31">
         <v>44502</v>
       </c>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46">
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31">
         <v>44501</v>
       </c>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="47">
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47">
-        <v>7.5</v>
-      </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48">
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23">
+        <v>8</v>
+      </c>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="32">
         <v>0.9</v>
       </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="45" t="s">
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
       <c r="AQ16" s="16"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="15"/>
@@ -3361,46 +3361,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
       <c r="AQ17" s="16"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
@@ -3479,62 +3479,62 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="45" t="s">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="46">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="31">
         <v>44501</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46">
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31">
         <v>44504</v>
       </c>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46">
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31">
         <v>44504</v>
       </c>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="47">
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48">
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="45" t="s">
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
@@ -3613,62 +3613,62 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="45" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46">
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="31">
         <v>44504</v>
       </c>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31">
         <v>44504</v>
       </c>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46">
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31">
         <v>44504</v>
       </c>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="47">
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48">
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="45" t="s">
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -3747,62 +3747,62 @@
       <c r="D20" s="19">
         <v>3</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="45" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46">
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="31">
         <v>44504</v>
       </c>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46">
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31">
         <v>44505</v>
       </c>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46">
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31">
         <v>44505</v>
       </c>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="47">
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48">
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="45" t="s">
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
       <c r="AQ20" s="16"/>
       <c r="AR20" s="15"/>
       <c r="AS20" s="15"/>
@@ -3881,62 +3881,62 @@
       <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="45" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="46">
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="31">
         <v>44504</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46">
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31">
         <v>44505</v>
       </c>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31">
         <v>44505</v>
       </c>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="47">
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47">
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23">
         <v>0.4</v>
       </c>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48">
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="45" t="s">
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
@@ -4015,62 +4015,62 @@
       <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="45" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46">
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="31">
         <v>44504</v>
       </c>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46">
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31">
         <v>44505</v>
       </c>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46">
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31">
         <v>44505</v>
       </c>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="47">
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47">
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="48">
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="45" t="s">
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
       <c r="AQ22" s="16"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
@@ -4149,62 +4149,62 @@
       <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="45" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="46">
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="31">
         <v>44504</v>
       </c>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46">
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31">
         <v>44504</v>
       </c>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46">
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31">
         <v>44504</v>
       </c>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="47">
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47">
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23">
         <v>0.1</v>
       </c>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48">
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="32">
         <v>0.8</v>
       </c>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="45" t="s">
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
       <c r="AQ23" s="16"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
@@ -4277,44 +4277,44 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
       <c r="AQ24" s="16"/>
       <c r="AR24" s="15"/>
       <c r="AS24" s="15"/>
@@ -4389,46 +4389,46 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
@@ -4505,46 +4505,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
@@ -4623,60 +4623,60 @@
       <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="45" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46">
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="31">
         <v>44505</v>
       </c>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46">
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31">
         <v>44505</v>
       </c>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="47">
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="23">
         <v>1</v>
       </c>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47">
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23">
         <v>1</v>
       </c>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="48">
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="32">
         <v>0.2</v>
       </c>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="45" t="s">
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
@@ -4755,54 +4755,54 @@
       <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="45" t="s">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="46">
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="31">
         <v>44505</v>
       </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46">
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31">
         <v>44505</v>
       </c>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="47">
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
       <c r="AQ28" s="16"/>
       <c r="AR28" s="15"/>
       <c r="AS28" s="15"/>
@@ -4881,54 +4881,54 @@
       <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="45" t="s">
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="46">
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="31">
         <v>44508</v>
       </c>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46">
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31">
         <v>44508</v>
       </c>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="47">
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
       <c r="AQ29" s="16"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -5007,54 +5007,54 @@
       <c r="D30" s="19">
         <v>4</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="45" t="s">
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="46">
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="31">
         <v>44508</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46">
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31">
         <v>44508</v>
       </c>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="47">
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="15"/>
       <c r="AS30" s="15"/>
@@ -5133,54 +5133,54 @@
       <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="45" t="s">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="46">
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="31">
         <v>44509</v>
       </c>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46">
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31">
         <v>44509</v>
       </c>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="47">
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
       <c r="AQ31" s="16"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
@@ -5259,54 +5259,54 @@
       <c r="D32" s="19">
         <v>6</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="45" t="s">
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="46">
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="31">
         <v>44509</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46">
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31">
         <v>44509</v>
       </c>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="47">
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
       <c r="AQ32" s="16"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -5379,44 +5379,44 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
       <c r="AQ33" s="16"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
@@ -5491,46 +5491,46 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
       <c r="AQ34" s="16"/>
       <c r="AR34" s="15"/>
       <c r="AS34" s="15"/>
@@ -5607,46 +5607,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
       <c r="AQ35" s="16"/>
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
@@ -5725,54 +5725,54 @@
       <c r="D36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="45" t="s">
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46">
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="31">
         <v>44510</v>
       </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46">
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31">
         <v>44510</v>
       </c>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="47">
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="23">
         <v>1</v>
       </c>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
       <c r="AQ36" s="16"/>
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
@@ -5851,54 +5851,54 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40" t="s">
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="45" t="s">
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="46">
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="31">
         <v>44511</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46">
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31">
         <v>44511</v>
       </c>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="47">
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="15"/>
       <c r="AS37" s="15"/>
@@ -5977,54 +5977,54 @@
       <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="45" t="s">
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="46">
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="31">
         <v>44511</v>
       </c>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46">
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31">
         <v>44512</v>
       </c>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="47">
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="23">
         <v>1</v>
       </c>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="39"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="39"/>
-      <c r="AP38" s="39"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
       <c r="AQ38" s="16"/>
       <c r="AR38" s="15"/>
       <c r="AS38" s="15"/>
@@ -6103,54 +6103,54 @@
       <c r="D39" s="19">
         <v>4</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="45" t="s">
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="46">
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="31">
         <v>44512</v>
       </c>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46">
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31">
         <v>44515</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="47">
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="23">
         <v>1</v>
       </c>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39"/>
-      <c r="AP39" s="39"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="15"/>
       <c r="AS39" s="15"/>
@@ -6229,54 +6229,54 @@
       <c r="D40" s="19">
         <v>5</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="45" t="s">
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="46">
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="31">
         <v>44515</v>
       </c>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46">
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31">
         <v>44516</v>
       </c>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="47">
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="23">
         <v>1</v>
       </c>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="39"/>
-      <c r="AM40" s="39"/>
-      <c r="AN40" s="39"/>
-      <c r="AO40" s="39"/>
-      <c r="AP40" s="39"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
@@ -6355,54 +6355,54 @@
       <c r="D41" s="19">
         <v>6</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="45" t="s">
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="46">
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="31">
         <v>44516</v>
       </c>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46">
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31">
         <v>44517</v>
       </c>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="47">
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="23">
         <v>1</v>
       </c>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
       <c r="AQ41" s="16"/>
       <c r="AR41" s="15"/>
       <c r="AS41" s="15"/>
@@ -6475,44 +6475,44 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
       <c r="AQ42" s="16"/>
       <c r="AR42" s="15"/>
       <c r="AS42" s="15"/>
@@ -6587,46 +6587,46 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="15"/>
       <c r="AS43" s="15"/>
@@ -6703,46 +6703,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="36"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="15"/>
       <c r="AS44" s="15"/>
@@ -6821,54 +6821,54 @@
       <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="45" t="s">
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="46">
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="31">
         <v>44517</v>
       </c>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46">
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31">
         <v>44517</v>
       </c>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="47">
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="47"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="39"/>
-      <c r="AM45" s="39"/>
-      <c r="AN45" s="39"/>
-      <c r="AO45" s="39"/>
-      <c r="AP45" s="39"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
       <c r="AQ45" s="16"/>
       <c r="AR45" s="15"/>
       <c r="AS45" s="15"/>
@@ -6947,54 +6947,54 @@
       <c r="D46" s="19">
         <v>2</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40" t="s">
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="45" t="s">
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="46">
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="31">
         <v>44517</v>
       </c>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46">
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31">
         <v>44517</v>
       </c>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="39"/>
-      <c r="AB46" s="39"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="47">
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="47"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="39"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
-      <c r="AP46" s="39"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
       <c r="AQ46" s="16"/>
       <c r="AR46" s="15"/>
       <c r="AS46" s="15"/>
@@ -7073,54 +7073,54 @@
       <c r="D47" s="19">
         <v>3</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40" t="s">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="45" t="s">
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="46">
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="31">
         <v>44517</v>
       </c>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46">
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31">
         <v>44517</v>
       </c>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="47">
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="47"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
-      <c r="AP47" s="39"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
       <c r="AQ47" s="16"/>
       <c r="AR47" s="15"/>
       <c r="AS47" s="15"/>
@@ -7199,54 +7199,54 @@
       <c r="D48" s="19">
         <v>4</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40" t="s">
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="45" t="s">
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="46">
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="31">
         <v>44518</v>
       </c>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46">
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31">
         <v>44518</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="47">
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="39"/>
-      <c r="AM48" s="39"/>
-      <c r="AN48" s="39"/>
-      <c r="AO48" s="39"/>
-      <c r="AP48" s="39"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="15"/>
       <c r="AS48" s="15"/>
@@ -7325,54 +7325,54 @@
       <c r="D49" s="19">
         <v>5</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40" t="s">
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="45" t="s">
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="46">
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="31">
         <v>44518</v>
       </c>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46">
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31">
         <v>44518</v>
       </c>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="47">
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
-      <c r="AP49" s="39"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
       <c r="AQ49" s="16"/>
       <c r="AR49" s="15"/>
       <c r="AS49" s="15"/>
@@ -7451,54 +7451,54 @@
       <c r="D50" s="19">
         <v>6</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40" t="s">
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="45" t="s">
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="46">
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="31">
         <v>44518</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46">
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31">
         <v>44518</v>
       </c>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="47">
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="47"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="22"/>
+      <c r="AK50" s="22"/>
+      <c r="AL50" s="22"/>
+      <c r="AM50" s="22"/>
+      <c r="AN50" s="22"/>
+      <c r="AO50" s="22"/>
+      <c r="AP50" s="22"/>
       <c r="AQ50" s="16"/>
       <c r="AR50" s="15"/>
       <c r="AS50" s="15"/>
@@ -7575,46 +7575,46 @@
         <v>2</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="36"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="36"/>
-      <c r="AK51" s="36"/>
-      <c r="AL51" s="36"/>
-      <c r="AM51" s="36"/>
-      <c r="AN51" s="36"/>
-      <c r="AO51" s="36"/>
-      <c r="AP51" s="36"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26"/>
       <c r="AQ51" s="16"/>
       <c r="AR51" s="15"/>
       <c r="AS51" s="15"/>
@@ -7693,54 +7693,54 @@
       <c r="D52" s="19">
         <v>1</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40" t="s">
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="45" t="s">
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="46">
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="31">
         <v>44519</v>
       </c>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46">
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31">
         <v>44519</v>
       </c>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="47">
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="23">
         <v>1</v>
       </c>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
-      <c r="AP52" s="39"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="22"/>
+      <c r="AM52" s="22"/>
+      <c r="AN52" s="22"/>
+      <c r="AO52" s="22"/>
+      <c r="AP52" s="22"/>
       <c r="AQ52" s="16"/>
       <c r="AR52" s="15"/>
       <c r="AS52" s="15"/>
@@ -7819,54 +7819,54 @@
       <c r="D53" s="19">
         <v>2</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40" t="s">
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="45" t="s">
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="46">
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="31">
         <v>44522</v>
       </c>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46">
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31">
         <v>44522</v>
       </c>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="47">
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="47"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
-      <c r="AP53" s="39"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22"/>
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="22"/>
+      <c r="AO53" s="22"/>
+      <c r="AP53" s="22"/>
       <c r="AQ53" s="16"/>
       <c r="AR53" s="15"/>
       <c r="AS53" s="15"/>
@@ -7945,54 +7945,54 @@
       <c r="D54" s="19">
         <v>3</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40" t="s">
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="45" t="s">
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="46">
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="31">
         <v>44522</v>
       </c>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46">
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31">
         <v>44524</v>
       </c>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="47">
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="23">
         <v>1</v>
       </c>
-      <c r="AH54" s="47"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="22"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="22"/>
+      <c r="AM54" s="22"/>
+      <c r="AN54" s="22"/>
+      <c r="AO54" s="22"/>
+      <c r="AP54" s="22"/>
       <c r="AQ54" s="16"/>
       <c r="AR54" s="15"/>
       <c r="AS54" s="15"/>
@@ -8071,54 +8071,54 @@
       <c r="D55" s="19">
         <v>4</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40" t="s">
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="45" t="s">
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="46">
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="31">
         <v>44524</v>
       </c>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46">
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31">
         <v>44525</v>
       </c>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="47">
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="23">
         <v>1</v>
       </c>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="39"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
       <c r="AQ55" s="16"/>
       <c r="AR55" s="15"/>
       <c r="AS55" s="15"/>
@@ -8197,54 +8197,54 @@
       <c r="D56" s="19">
         <v>5</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40" t="s">
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="45" t="s">
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="46">
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="31">
         <v>44525</v>
       </c>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46">
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31">
         <v>44526</v>
       </c>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="47">
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="23">
         <v>1</v>
       </c>
-      <c r="AH56" s="47"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
-      <c r="AP56" s="39"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
       <c r="AQ56" s="16"/>
       <c r="AR56" s="15"/>
       <c r="AS56" s="15"/>
@@ -8323,54 +8323,54 @@
       <c r="D57" s="19">
         <v>6</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40" t="s">
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="45" t="s">
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="46">
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="31">
         <v>44526</v>
       </c>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="46">
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31">
         <v>44529</v>
       </c>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="47">
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="23">
         <v>1</v>
       </c>
-      <c r="AH57" s="47"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
-      <c r="AP57" s="39"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+      <c r="AP57" s="22"/>
       <c r="AQ57" s="16"/>
       <c r="AR57" s="15"/>
       <c r="AS57" s="15"/>
@@ -8443,44 +8443,44 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="22"/>
+      <c r="AI58" s="22"/>
+      <c r="AJ58" s="22"/>
+      <c r="AK58" s="22"/>
+      <c r="AL58" s="22"/>
+      <c r="AM58" s="22"/>
+      <c r="AN58" s="22"/>
+      <c r="AO58" s="22"/>
+      <c r="AP58" s="22"/>
       <c r="AQ58" s="16"/>
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
@@ -8555,46 +8555,46 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="38"/>
-      <c r="AP59" s="38"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
       <c r="AQ59" s="16"/>
       <c r="AR59" s="15"/>
       <c r="AS59" s="15"/>
@@ -8671,46 +8671,46 @@
         <v>1</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="36"/>
-      <c r="AF60" s="36"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="36"/>
-      <c r="AJ60" s="36"/>
-      <c r="AK60" s="36"/>
-      <c r="AL60" s="36"/>
-      <c r="AM60" s="36"/>
-      <c r="AN60" s="36"/>
-      <c r="AO60" s="36"/>
-      <c r="AP60" s="36"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="26"/>
+      <c r="AI60" s="26"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="26"/>
+      <c r="AL60" s="26"/>
+      <c r="AM60" s="26"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="26"/>
+      <c r="AP60" s="26"/>
       <c r="AQ60" s="16"/>
       <c r="AR60" s="15"/>
       <c r="AS60" s="15"/>
@@ -8787,54 +8787,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40" t="s">
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="45" t="s">
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="46">
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="31">
         <v>44539</v>
       </c>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46">
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31">
         <v>44540</v>
       </c>
-      <c r="Y61" s="46"/>
-      <c r="Z61" s="46"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="47">
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="47"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
-      <c r="AP61" s="39"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
       <c r="AQ61" s="16"/>
       <c r="AR61" s="15"/>
       <c r="AS61" s="15"/>
@@ -8911,46 +8911,46 @@
         <v>2</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
-      <c r="AF62" s="36"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="36"/>
-      <c r="AJ62" s="36"/>
-      <c r="AK62" s="36"/>
-      <c r="AL62" s="36"/>
-      <c r="AM62" s="36"/>
-      <c r="AN62" s="36"/>
-      <c r="AO62" s="36"/>
-      <c r="AP62" s="36"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="26"/>
+      <c r="AP62" s="26"/>
       <c r="AQ62" s="16"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
@@ -9027,54 +9027,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40" t="s">
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="45" t="s">
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="46">
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="31">
         <v>44543</v>
       </c>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="46">
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31">
         <v>44543</v>
       </c>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="47">
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="23">
         <v>1</v>
       </c>
-      <c r="AH63" s="47"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
       <c r="AQ63" s="16"/>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
@@ -9147,44 +9147,44 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="39"/>
-      <c r="AP64" s="39"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="22"/>
+      <c r="AF64" s="22"/>
+      <c r="AG64" s="22"/>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="22"/>
+      <c r="AJ64" s="22"/>
+      <c r="AK64" s="22"/>
+      <c r="AL64" s="22"/>
+      <c r="AM64" s="22"/>
+      <c r="AN64" s="22"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="22"/>
       <c r="AQ64" s="16"/>
       <c r="AR64" s="15"/>
       <c r="AS64" s="15"/>
@@ -9259,46 +9259,46 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="38"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="27"/>
+      <c r="AH65" s="27"/>
+      <c r="AI65" s="27"/>
+      <c r="AJ65" s="27"/>
+      <c r="AK65" s="27"/>
+      <c r="AL65" s="27"/>
+      <c r="AM65" s="27"/>
+      <c r="AN65" s="27"/>
+      <c r="AO65" s="27"/>
+      <c r="AP65" s="27"/>
       <c r="AQ65" s="16"/>
       <c r="AR65" s="15"/>
       <c r="AS65" s="15"/>
@@ -9375,48 +9375,48 @@
         <v>1</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="49" t="s">
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="36"/>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="36"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="26"/>
+      <c r="W66" s="26"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="26"/>
+      <c r="AP66" s="26"/>
       <c r="AQ66" s="16"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
@@ -9495,50 +9495,50 @@
       <c r="D67" s="19">
         <v>1</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40" t="s">
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="45" t="s">
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="39"/>
-      <c r="AI67" s="47">
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="23">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="39"/>
-      <c r="AM67" s="39"/>
-      <c r="AN67" s="39"/>
-      <c r="AO67" s="39"/>
-      <c r="AP67" s="39"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="22"/>
+      <c r="AO67" s="22"/>
+      <c r="AP67" s="22"/>
       <c r="AQ67" s="16"/>
       <c r="AR67" s="15"/>
       <c r="AS67" s="15"/>
@@ -9611,44 +9611,44 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
-      <c r="AP68" s="39"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
       <c r="AQ68" s="16"/>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
@@ -9721,44 +9721,44 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
-      <c r="AP69" s="39"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
       <c r="AQ69" s="16"/>
       <c r="AR69" s="15"/>
       <c r="AS69" s="15"/>
@@ -9847,699 +9847,22 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -10557,22 +9880,699 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87012AE1-7D29-4160-A0E6-74DDFEB6E404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44602796-1199-4057-AA72-9D4B46EB6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="AQ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BO7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI17" sqref="AI17:AJ17"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1141,7 @@
       <c r="W2" s="42"/>
       <c r="X2" s="42"/>
       <c r="Y2" s="44">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="Z2" s="44"/>
       <c r="AA2" s="44"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="AH16" s="23"/>
       <c r="AI16" s="23">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="32">
@@ -3313,10 +3313,10 @@
       <c r="BP16" s="15"/>
       <c r="BQ16" s="20"/>
       <c r="BR16" s="20"/>
-      <c r="BS16" s="16"/>
+      <c r="BS16" s="20"/>
       <c r="BT16" s="15"/>
       <c r="BU16" s="15"/>
-      <c r="BV16" s="16"/>
+      <c r="BV16" s="20"/>
       <c r="BW16" s="16"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="16"/>
@@ -3526,11 +3526,11 @@
       </c>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="32"/>
       <c r="AM18" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="25"/>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="32"/>
       <c r="AM19" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN19" s="25"/>
       <c r="AO19" s="25"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="AJ20" s="23"/>
       <c r="AK20" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="32"/>
       <c r="AM20" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="25"/>
@@ -3924,15 +3924,15 @@
       </c>
       <c r="AH21" s="23"/>
       <c r="AI21" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ21" s="23"/>
       <c r="AK21" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN21" s="25"/>
       <c r="AO21" s="25"/>
@@ -3965,7 +3965,7 @@
       <c r="BP21" s="15"/>
       <c r="BQ21" s="16"/>
       <c r="BR21" s="20"/>
-      <c r="BS21" s="16"/>
+      <c r="BS21" s="20"/>
       <c r="BT21" s="15"/>
       <c r="BU21" s="15"/>
       <c r="BV21" s="16"/>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="AJ22" s="23"/>
       <c r="AK22" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="32"/>
       <c r="AM22" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN22" s="25"/>
       <c r="AO22" s="25"/>
@@ -4099,7 +4099,7 @@
       <c r="BP22" s="15"/>
       <c r="BQ22" s="16"/>
       <c r="BR22" s="20"/>
-      <c r="BS22" s="16"/>
+      <c r="BS22" s="20"/>
       <c r="BT22" s="15"/>
       <c r="BU22" s="15"/>
       <c r="BV22" s="16"/>
@@ -4192,15 +4192,15 @@
       </c>
       <c r="AH23" s="23"/>
       <c r="AI23" s="23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ23" s="23"/>
       <c r="AK23" s="32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="32"/>
       <c r="AM23" s="25" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN23" s="25"/>
       <c r="AO23" s="25"/>
@@ -4233,10 +4233,10 @@
       <c r="BP23" s="15"/>
       <c r="BQ23" s="16"/>
       <c r="BR23" s="20"/>
-      <c r="BS23" s="16"/>
+      <c r="BS23" s="20"/>
       <c r="BT23" s="15"/>
       <c r="BU23" s="15"/>
-      <c r="BV23" s="16"/>
+      <c r="BV23" s="20"/>
       <c r="BW23" s="16"/>
       <c r="BX23" s="16"/>
       <c r="BY23" s="16"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44602796-1199-4057-AA72-9D4B46EB6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D96AA0F-7016-44E2-9100-28154C06593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,66 +568,6 @@
     <xf numFmtId="177" fontId="5" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +591,66 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1038,221 +1038,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="42" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="44">
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="24">
         <v>44498</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="42" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="45" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="46" t="s">
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="45">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="25">
         <v>44498</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BD1" s="47" t="s">
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BD1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="44">
-        <v>44529</v>
-      </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="42" t="s">
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="24">
+        <v>44530</v>
+      </c>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="45" t="s">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BD2" s="49" t="s">
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BD2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="39" t="s">
+      <c r="BD3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="38" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38" t="s">
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="37" t="s">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="41" t="s">
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="37" t="s">
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
       <c r="AQ4" s="3">
         <f>AU1</f>
         <v>44498</v>
@@ -1513,60 +1513,60 @@
       <c r="DD4" s="7"/>
     </row>
     <row r="5" spans="1:108" s="10" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38" t="s">
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38" t="s">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38" t="s">
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38" t="s">
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
       <c r="AQ5" s="8">
         <f>AU1</f>
         <v>44498</v>
@@ -1825,48 +1825,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
       <c r="AQ6" s="11" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2133,46 +2133,46 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
@@ -2249,46 +2249,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="15"/>
@@ -2367,64 +2367,64 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="36" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="33">
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42">
         <v>44498</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33">
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42">
         <v>44498</v>
       </c>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33">
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42">
         <v>44498</v>
       </c>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>44498</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="34">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="43">
         <v>1</v>
       </c>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43">
         <v>1</v>
       </c>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="35">
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="44">
         <v>1</v>
       </c>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="25" t="s">
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
@@ -2497,44 +2497,44 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="15"/>
       <c r="AS10" s="15"/>
@@ -2609,46 +2609,46 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
@@ -2725,46 +2725,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
@@ -2843,64 +2843,64 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="31">
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46">
         <v>44501</v>
       </c>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31">
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46">
         <v>44501</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31">
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46">
         <v>44501</v>
       </c>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31">
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46">
         <v>44518</v>
       </c>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="23">
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23">
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47">
         <v>2</v>
       </c>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="32">
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="48">
         <v>1</v>
       </c>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="25" t="s">
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
@@ -2979,62 +2979,62 @@
       <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="24" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="31">
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="46">
         <v>44501</v>
       </c>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31">
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46">
         <v>44501</v>
       </c>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31">
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46">
         <v>44501</v>
       </c>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="23">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23">
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="32">
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48">
         <v>1</v>
       </c>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="25" t="s">
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="15"/>
@@ -3111,46 +3111,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
@@ -3229,62 +3229,62 @@
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="24" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="31">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46">
         <v>44502</v>
       </c>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31">
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46">
         <v>44502</v>
       </c>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31">
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46">
         <v>44501</v>
       </c>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="23">
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="32">
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47">
+        <v>10.6</v>
+      </c>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="48">
         <v>0.9</v>
       </c>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="25" t="s">
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
       <c r="AQ16" s="16"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="15"/>
@@ -3317,7 +3317,7 @@
       <c r="BT16" s="15"/>
       <c r="BU16" s="15"/>
       <c r="BV16" s="20"/>
-      <c r="BW16" s="16"/>
+      <c r="BW16" s="20"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="16"/>
       <c r="BZ16" s="16"/>
@@ -3361,46 +3361,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
       <c r="AQ17" s="16"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
@@ -3479,62 +3479,62 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="31">
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46">
         <v>44501</v>
       </c>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31">
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46">
         <v>44504</v>
       </c>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31">
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46">
         <v>44504</v>
       </c>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="23">
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23">
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="32">
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="48">
         <v>1</v>
       </c>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="25" t="s">
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
@@ -3613,62 +3613,62 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="24" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="31">
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46">
         <v>44504</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31">
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46">
         <v>44504</v>
       </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31">
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46">
         <v>44504</v>
       </c>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="23">
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23">
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="32">
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="48">
         <v>1</v>
       </c>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="25" t="s">
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -3747,62 +3747,62 @@
       <c r="D20" s="19">
         <v>3</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="24" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25" t="s">
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="31">
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46">
         <v>44504</v>
       </c>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31">
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46">
         <v>44505</v>
       </c>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31">
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46">
         <v>44505</v>
       </c>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="23">
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23">
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="32">
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48">
         <v>1</v>
       </c>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="25" t="s">
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
       <c r="AQ20" s="16"/>
       <c r="AR20" s="15"/>
       <c r="AS20" s="15"/>
@@ -3881,62 +3881,62 @@
       <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="24" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25" t="s">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="31">
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="46">
         <v>44504</v>
       </c>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31">
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46">
         <v>44505</v>
       </c>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31">
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46">
         <v>44505</v>
       </c>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="23">
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23">
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="32">
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="48">
         <v>1</v>
       </c>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="25" t="s">
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
@@ -4015,62 +4015,62 @@
       <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="31">
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="46">
         <v>44504</v>
       </c>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31">
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46">
         <v>44505</v>
       </c>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31">
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46">
         <v>44505</v>
       </c>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="23">
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23">
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="32">
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="48">
         <v>1</v>
       </c>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="25" t="s">
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
       <c r="AQ22" s="16"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
@@ -4149,62 +4149,62 @@
       <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="24" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="31">
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46">
         <v>44504</v>
       </c>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31">
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46">
         <v>44504</v>
       </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31">
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46">
         <v>44504</v>
       </c>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="23">
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23">
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="32">
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48">
         <v>1</v>
       </c>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="25" t="s">
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
       <c r="AQ23" s="16"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
@@ -4277,44 +4277,44 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
       <c r="AQ24" s="16"/>
       <c r="AR24" s="15"/>
       <c r="AS24" s="15"/>
@@ -4389,46 +4389,46 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
@@ -4505,46 +4505,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
@@ -4623,60 +4623,60 @@
       <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="24" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25" t="s">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="31">
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46">
         <v>44505</v>
       </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31">
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46">
         <v>44505</v>
       </c>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="23">
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="47">
         <v>1</v>
       </c>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23">
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47">
         <v>1</v>
       </c>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="32">
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="48">
         <v>0.2</v>
       </c>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="25" t="s">
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
@@ -4755,54 +4755,54 @@
       <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="24" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25" t="s">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="31">
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="46">
         <v>44505</v>
       </c>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31">
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46">
         <v>44505</v>
       </c>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="23">
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
       <c r="AQ28" s="16"/>
       <c r="AR28" s="15"/>
       <c r="AS28" s="15"/>
@@ -4881,54 +4881,54 @@
       <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="24" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25" t="s">
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="31">
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="46">
         <v>44508</v>
       </c>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31">
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46">
         <v>44508</v>
       </c>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="23">
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
       <c r="AQ29" s="16"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -5007,54 +5007,54 @@
       <c r="D30" s="19">
         <v>4</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="24" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25" t="s">
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="31">
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46">
         <v>44508</v>
       </c>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46">
         <v>44508</v>
       </c>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="23">
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-      <c r="AP30" s="22"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="15"/>
       <c r="AS30" s="15"/>
@@ -5133,54 +5133,54 @@
       <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="24" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="25" t="s">
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="31">
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="46">
         <v>44509</v>
       </c>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31">
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46">
         <v>44509</v>
       </c>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="23">
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
       <c r="AQ31" s="16"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
@@ -5259,54 +5259,54 @@
       <c r="D32" s="19">
         <v>6</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="24" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="25" t="s">
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="31">
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="46">
         <v>44509</v>
       </c>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31">
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46">
         <v>44509</v>
       </c>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="23">
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
       <c r="AQ32" s="16"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -5379,44 +5379,44 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
       <c r="AQ33" s="16"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
@@ -5491,46 +5491,46 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
       <c r="AQ34" s="16"/>
       <c r="AR34" s="15"/>
       <c r="AS34" s="15"/>
@@ -5607,46 +5607,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
       <c r="AQ35" s="16"/>
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
@@ -5725,54 +5725,54 @@
       <c r="D36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="24" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="25" t="s">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="31">
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="46">
         <v>44510</v>
       </c>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31">
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46">
         <v>44510</v>
       </c>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="23">
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="47">
         <v>1</v>
       </c>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
       <c r="AQ36" s="16"/>
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
@@ -5851,54 +5851,54 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="24" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25" t="s">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="31">
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="46">
         <v>44511</v>
       </c>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31">
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46">
         <v>44511</v>
       </c>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="23">
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="15"/>
       <c r="AS37" s="15"/>
@@ -5977,54 +5977,54 @@
       <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="24" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25" t="s">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="31">
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="46">
         <v>44511</v>
       </c>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31">
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46">
         <v>44512</v>
       </c>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="23">
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="47">
         <v>1</v>
       </c>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
       <c r="AQ38" s="16"/>
       <c r="AR38" s="15"/>
       <c r="AS38" s="15"/>
@@ -6103,54 +6103,54 @@
       <c r="D39" s="19">
         <v>4</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="24" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="25" t="s">
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="31">
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="46">
         <v>44512</v>
       </c>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31">
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46">
         <v>44515</v>
       </c>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="23">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="47">
         <v>1</v>
       </c>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="15"/>
       <c r="AS39" s="15"/>
@@ -6229,54 +6229,54 @@
       <c r="D40" s="19">
         <v>5</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="24" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="25" t="s">
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="31">
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="46">
         <v>44515</v>
       </c>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31">
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46">
         <v>44516</v>
       </c>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="23">
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="47">
         <v>1</v>
       </c>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
@@ -6355,54 +6355,54 @@
       <c r="D41" s="19">
         <v>6</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="24" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="25" t="s">
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="31">
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="46">
         <v>44516</v>
       </c>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31">
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46">
         <v>44517</v>
       </c>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="23">
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="47">
         <v>1</v>
       </c>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
       <c r="AQ41" s="16"/>
       <c r="AR41" s="15"/>
       <c r="AS41" s="15"/>
@@ -6475,44 +6475,44 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="22"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
+      <c r="AM42" s="39"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
       <c r="AQ42" s="16"/>
       <c r="AR42" s="15"/>
       <c r="AS42" s="15"/>
@@ -6587,46 +6587,46 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="15"/>
       <c r="AS43" s="15"/>
@@ -6703,46 +6703,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="15"/>
       <c r="AS44" s="15"/>
@@ -6821,54 +6821,54 @@
       <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="24" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="25" t="s">
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="31">
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="46">
         <v>44517</v>
       </c>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31">
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46">
         <v>44517</v>
       </c>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="23">
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
       <c r="AQ45" s="16"/>
       <c r="AR45" s="15"/>
       <c r="AS45" s="15"/>
@@ -6947,54 +6947,54 @@
       <c r="D46" s="19">
         <v>2</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="24" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="25" t="s">
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="31">
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="46">
         <v>44517</v>
       </c>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31">
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46">
         <v>44517</v>
       </c>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="23">
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="22"/>
-      <c r="AM46" s="22"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="22"/>
-      <c r="AP46" s="22"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="39"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
       <c r="AQ46" s="16"/>
       <c r="AR46" s="15"/>
       <c r="AS46" s="15"/>
@@ -7073,54 +7073,54 @@
       <c r="D47" s="19">
         <v>3</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="24" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="25" t="s">
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="31">
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="46">
         <v>44517</v>
       </c>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31">
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46">
         <v>44517</v>
       </c>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="23">
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
       <c r="AQ47" s="16"/>
       <c r="AR47" s="15"/>
       <c r="AS47" s="15"/>
@@ -7199,54 +7199,54 @@
       <c r="D48" s="19">
         <v>4</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="24" t="s">
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="25" t="s">
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="31">
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="46">
         <v>44518</v>
       </c>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31">
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46">
         <v>44518</v>
       </c>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="23">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="15"/>
       <c r="AS48" s="15"/>
@@ -7325,54 +7325,54 @@
       <c r="D49" s="19">
         <v>5</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="24" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="25" t="s">
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="31">
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="46">
         <v>44518</v>
       </c>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31">
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46">
         <v>44518</v>
       </c>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="23">
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
       <c r="AQ49" s="16"/>
       <c r="AR49" s="15"/>
       <c r="AS49" s="15"/>
@@ -7451,54 +7451,54 @@
       <c r="D50" s="19">
         <v>6</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="24" t="s">
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="25" t="s">
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="31">
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="46">
         <v>44518</v>
       </c>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31">
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46">
         <v>44518</v>
       </c>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="23">
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="23"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39"/>
       <c r="AQ50" s="16"/>
       <c r="AR50" s="15"/>
       <c r="AS50" s="15"/>
@@ -7575,46 +7575,46 @@
         <v>2</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26"/>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="36"/>
+      <c r="AK51" s="36"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="36"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
       <c r="AQ51" s="16"/>
       <c r="AR51" s="15"/>
       <c r="AS51" s="15"/>
@@ -7693,54 +7693,54 @@
       <c r="D52" s="19">
         <v>1</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="24" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="25" t="s">
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="31">
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="46">
         <v>44519</v>
       </c>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31">
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46">
         <v>44519</v>
       </c>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="23">
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="47">
         <v>1</v>
       </c>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="39"/>
+      <c r="AO52" s="39"/>
+      <c r="AP52" s="39"/>
       <c r="AQ52" s="16"/>
       <c r="AR52" s="15"/>
       <c r="AS52" s="15"/>
@@ -7819,54 +7819,54 @@
       <c r="D53" s="19">
         <v>2</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="24" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="25" t="s">
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="31">
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="46">
         <v>44522</v>
       </c>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31">
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46">
         <v>44522</v>
       </c>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="23">
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39"/>
+      <c r="AP53" s="39"/>
       <c r="AQ53" s="16"/>
       <c r="AR53" s="15"/>
       <c r="AS53" s="15"/>
@@ -7945,54 +7945,54 @@
       <c r="D54" s="19">
         <v>3</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="24" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="25" t="s">
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="31">
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="46">
         <v>44522</v>
       </c>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31">
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46">
         <v>44524</v>
       </c>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
-      <c r="AG54" s="23">
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="47">
         <v>1</v>
       </c>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="22"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="22"/>
-      <c r="AM54" s="22"/>
-      <c r="AN54" s="22"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="22"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="39"/>
+      <c r="AP54" s="39"/>
       <c r="AQ54" s="16"/>
       <c r="AR54" s="15"/>
       <c r="AS54" s="15"/>
@@ -8071,54 +8071,54 @@
       <c r="D55" s="19">
         <v>4</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="24" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="25" t="s">
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="31">
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="46">
         <v>44524</v>
       </c>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31">
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46">
         <v>44525</v>
       </c>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="23">
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="47">
         <v>1</v>
       </c>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22"/>
-      <c r="AM55" s="22"/>
-      <c r="AN55" s="22"/>
-      <c r="AO55" s="22"/>
-      <c r="AP55" s="22"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39"/>
+      <c r="AP55" s="39"/>
       <c r="AQ55" s="16"/>
       <c r="AR55" s="15"/>
       <c r="AS55" s="15"/>
@@ -8197,54 +8197,54 @@
       <c r="D56" s="19">
         <v>5</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="24" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="25" t="s">
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="31">
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="46">
         <v>44525</v>
       </c>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31">
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46">
         <v>44526</v>
       </c>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="23">
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="47">
         <v>1</v>
       </c>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="39"/>
+      <c r="AP56" s="39"/>
       <c r="AQ56" s="16"/>
       <c r="AR56" s="15"/>
       <c r="AS56" s="15"/>
@@ -8323,54 +8323,54 @@
       <c r="D57" s="19">
         <v>6</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="24" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="25" t="s">
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="31">
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="46">
         <v>44526</v>
       </c>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31">
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46">
         <v>44529</v>
       </c>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="23">
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="47">
         <v>1</v>
       </c>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="22"/>
-      <c r="AO57" s="22"/>
-      <c r="AP57" s="22"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="39"/>
+      <c r="AN57" s="39"/>
+      <c r="AO57" s="39"/>
+      <c r="AP57" s="39"/>
       <c r="AQ57" s="16"/>
       <c r="AR57" s="15"/>
       <c r="AS57" s="15"/>
@@ -8443,44 +8443,44 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="22"/>
-      <c r="AM58" s="22"/>
-      <c r="AN58" s="22"/>
-      <c r="AO58" s="22"/>
-      <c r="AP58" s="22"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="39"/>
+      <c r="AO58" s="39"/>
+      <c r="AP58" s="39"/>
       <c r="AQ58" s="16"/>
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
@@ -8555,46 +8555,46 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="38"/>
+      <c r="AF59" s="38"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38"/>
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="38"/>
       <c r="AQ59" s="16"/>
       <c r="AR59" s="15"/>
       <c r="AS59" s="15"/>
@@ -8671,46 +8671,46 @@
         <v>1</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26"/>
-      <c r="AJ60" s="26"/>
-      <c r="AK60" s="26"/>
-      <c r="AL60" s="26"/>
-      <c r="AM60" s="26"/>
-      <c r="AN60" s="26"/>
-      <c r="AO60" s="26"/>
-      <c r="AP60" s="26"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="36"/>
+      <c r="AK60" s="36"/>
+      <c r="AL60" s="36"/>
+      <c r="AM60" s="36"/>
+      <c r="AN60" s="36"/>
+      <c r="AO60" s="36"/>
+      <c r="AP60" s="36"/>
       <c r="AQ60" s="16"/>
       <c r="AR60" s="15"/>
       <c r="AS60" s="15"/>
@@ -8787,54 +8787,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="24" t="s">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="25" t="s">
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="31">
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="46">
         <v>44539</v>
       </c>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31">
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46">
         <v>44540</v>
       </c>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="23">
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="23"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="39"/>
+      <c r="AJ61" s="39"/>
+      <c r="AK61" s="39"/>
+      <c r="AL61" s="39"/>
+      <c r="AM61" s="39"/>
+      <c r="AN61" s="39"/>
+      <c r="AO61" s="39"/>
+      <c r="AP61" s="39"/>
       <c r="AQ61" s="16"/>
       <c r="AR61" s="15"/>
       <c r="AS61" s="15"/>
@@ -8911,46 +8911,46 @@
         <v>2</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-      <c r="AJ62" s="26"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="26"/>
-      <c r="AM62" s="26"/>
-      <c r="AN62" s="26"/>
-      <c r="AO62" s="26"/>
-      <c r="AP62" s="26"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="36"/>
+      <c r="AK62" s="36"/>
+      <c r="AL62" s="36"/>
+      <c r="AM62" s="36"/>
+      <c r="AN62" s="36"/>
+      <c r="AO62" s="36"/>
+      <c r="AP62" s="36"/>
       <c r="AQ62" s="16"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
@@ -9027,54 +9027,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="24" t="s">
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="25" t="s">
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="31">
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="46">
         <v>44543</v>
       </c>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31">
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46">
         <v>44543</v>
       </c>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="23">
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="47">
         <v>1</v>
       </c>
-      <c r="AH63" s="23"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="22"/>
-      <c r="AP63" s="22"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="39"/>
+      <c r="AJ63" s="39"/>
+      <c r="AK63" s="39"/>
+      <c r="AL63" s="39"/>
+      <c r="AM63" s="39"/>
+      <c r="AN63" s="39"/>
+      <c r="AO63" s="39"/>
+      <c r="AP63" s="39"/>
       <c r="AQ63" s="16"/>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
@@ -9147,44 +9147,44 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="39"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="39"/>
+      <c r="AO64" s="39"/>
+      <c r="AP64" s="39"/>
       <c r="AQ64" s="16"/>
       <c r="AR64" s="15"/>
       <c r="AS64" s="15"/>
@@ -9259,46 +9259,46 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AH65" s="27"/>
-      <c r="AI65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="27"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="27"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="38"/>
       <c r="AQ65" s="16"/>
       <c r="AR65" s="15"/>
       <c r="AS65" s="15"/>
@@ -9375,48 +9375,48 @@
         <v>1</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="29" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="26"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="26"/>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="26"/>
-      <c r="AP66" s="26"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="36"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="36"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
+      <c r="AP66" s="36"/>
       <c r="AQ66" s="16"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
@@ -9495,50 +9495,50 @@
       <c r="D67" s="19">
         <v>1</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="24" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="25" t="s">
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="23">
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="47">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="23"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="39"/>
+      <c r="AN67" s="39"/>
+      <c r="AO67" s="39"/>
+      <c r="AP67" s="39"/>
       <c r="AQ67" s="16"/>
       <c r="AR67" s="15"/>
       <c r="AS67" s="15"/>
@@ -9611,44 +9611,44 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
+      <c r="AP68" s="39"/>
       <c r="AQ68" s="16"/>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
@@ -9721,44 +9721,44 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="39"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="39"/>
+      <c r="AO69" s="39"/>
+      <c r="AP69" s="39"/>
       <c r="AQ69" s="16"/>
       <c r="AR69" s="15"/>
       <c r="AS69" s="15"/>
@@ -9847,22 +9847,699 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -9880,699 +10557,22 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D96AA0F-7016-44E2-9100-28154C06593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D1F7C-78D3-4B61-BD2C-43355C44BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BO7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BL7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomRight" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3272,15 +3272,15 @@
       </c>
       <c r="AH16" s="47"/>
       <c r="AI16" s="47">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="AJ16" s="47"/>
       <c r="AK16" s="48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="48"/>
       <c r="AM16" s="45" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AN16" s="45"/>
       <c r="AO16" s="45"/>
@@ -3318,7 +3318,7 @@
       <c r="BU16" s="15"/>
       <c r="BV16" s="20"/>
       <c r="BW16" s="20"/>
-      <c r="BX16" s="16"/>
+      <c r="BX16" s="20"/>
       <c r="BY16" s="16"/>
       <c r="BZ16" s="16"/>
       <c r="CA16" s="15"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AH27" s="47"/>
       <c r="AI27" s="47">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AJ27" s="47"/>
       <c r="AK27" s="48">
@@ -4710,7 +4710,7 @@
       <c r="BU27" s="15"/>
       <c r="BV27" s="16"/>
       <c r="BW27" s="16"/>
-      <c r="BX27" s="16"/>
+      <c r="BX27" s="20"/>
       <c r="BY27" s="16"/>
       <c r="BZ27" s="16"/>
       <c r="CA27" s="15"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D1F7C-78D3-4B61-BD2C-43355C44BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97E508-9918-447F-AAF5-6DCB92674EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,6 +568,66 @@
     <xf numFmtId="177" fontId="5" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,66 +651,6 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BL7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BL16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23:AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,221 +1038,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="22" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="24">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="44">
         <v>44498</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="22" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="25">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="45">
         <v>44498</v>
       </c>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BD1" s="27" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BD1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="24">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="44">
         <v>44530</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BD2" s="29" t="s">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BD2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="32" t="s">
+      <c r="BD3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31" t="s">
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="34" t="s">
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="30" t="s">
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
       <c r="AQ4" s="3">
         <f>AU1</f>
         <v>44498</v>
@@ -1513,60 +1513,60 @@
       <c r="DD4" s="7"/>
     </row>
     <row r="5" spans="1:108" s="10" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31" t="s">
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31" t="s">
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31" t="s">
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31" t="s">
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
       <c r="AQ5" s="8">
         <f>AU1</f>
         <v>44498</v>
@@ -1825,48 +1825,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
       <c r="AQ6" s="11" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2133,46 +2133,46 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
@@ -2249,46 +2249,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="15"/>
@@ -2367,64 +2367,64 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="42">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="33">
         <v>44498</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42">
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33">
         <v>44498</v>
       </c>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42">
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33">
         <v>44498</v>
       </c>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>44498</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="43">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="34">
         <v>1</v>
       </c>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43">
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34">
         <v>1</v>
       </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="44">
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="35">
         <v>1</v>
       </c>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="45" t="s">
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
@@ -2497,44 +2497,44 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="15"/>
       <c r="AS10" s="15"/>
@@ -2609,46 +2609,46 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
@@ -2725,46 +2725,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
@@ -2843,64 +2843,64 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="45" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="31">
         <v>44501</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46">
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31">
         <v>44501</v>
       </c>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46">
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31">
         <v>44501</v>
       </c>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46">
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31">
         <v>44518</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="47">
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47">
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23">
         <v>2</v>
       </c>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="32">
         <v>1</v>
       </c>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="45" t="s">
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
@@ -2979,62 +2979,62 @@
       <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="45" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="46">
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="31">
         <v>44501</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46">
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31">
         <v>44501</v>
       </c>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46">
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31">
         <v>44501</v>
       </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="47">
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47">
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48">
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="32">
         <v>1</v>
       </c>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="45" t="s">
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="15"/>
@@ -3111,46 +3111,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
@@ -3229,62 +3229,62 @@
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="45" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="46">
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="31">
         <v>44502</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46">
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31">
         <v>44502</v>
       </c>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46">
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31">
         <v>44501</v>
       </c>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="47">
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47">
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23">
         <v>11.1</v>
       </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48">
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="32">
         <v>1</v>
       </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="45" t="s">
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
       <c r="AQ16" s="16"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="15"/>
@@ -3361,46 +3361,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
       <c r="AQ17" s="16"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
@@ -3479,62 +3479,62 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="45" t="s">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="46">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="31">
         <v>44501</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46">
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31">
         <v>44504</v>
       </c>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46">
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31">
         <v>44504</v>
       </c>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="47">
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47">
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48">
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="32">
         <v>1</v>
       </c>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="45" t="s">
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
@@ -3613,62 +3613,62 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="45" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46">
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="31">
         <v>44504</v>
       </c>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31">
         <v>44504</v>
       </c>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46">
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31">
         <v>44504</v>
       </c>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="47">
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47">
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48">
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="32">
         <v>1</v>
       </c>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="45" t="s">
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -3747,62 +3747,62 @@
       <c r="D20" s="19">
         <v>3</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="45" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46">
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="31">
         <v>44504</v>
       </c>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46">
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31">
         <v>44505</v>
       </c>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46">
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31">
         <v>44505</v>
       </c>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="47">
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47">
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48">
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="32">
         <v>1</v>
       </c>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="45" t="s">
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
       <c r="AQ20" s="16"/>
       <c r="AR20" s="15"/>
       <c r="AS20" s="15"/>
@@ -3881,62 +3881,62 @@
       <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="45" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="46">
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="31">
         <v>44504</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46">
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31">
         <v>44505</v>
       </c>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31">
         <v>44505</v>
       </c>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="47">
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47">
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48">
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="32">
         <v>1</v>
       </c>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="45" t="s">
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
@@ -4015,62 +4015,62 @@
       <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="45" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46">
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="31">
         <v>44504</v>
       </c>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46">
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31">
         <v>44505</v>
       </c>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46">
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31">
         <v>44505</v>
       </c>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="47">
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47">
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="48">
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="32">
         <v>1</v>
       </c>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="45" t="s">
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
       <c r="AQ22" s="16"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
@@ -4149,62 +4149,62 @@
       <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="45" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="46">
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="31">
         <v>44504</v>
       </c>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46">
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31">
         <v>44504</v>
       </c>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46">
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31">
         <v>44504</v>
       </c>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="47">
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="23">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47">
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48">
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="32">
         <v>1</v>
       </c>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="45" t="s">
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
       <c r="AQ23" s="16"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
@@ -4277,44 +4277,44 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
       <c r="AQ24" s="16"/>
       <c r="AR24" s="15"/>
       <c r="AS24" s="15"/>
@@ -4389,46 +4389,46 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
@@ -4505,46 +4505,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
@@ -4623,60 +4623,60 @@
       <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="45" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46">
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="31">
         <v>44505</v>
       </c>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46">
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31">
         <v>44505</v>
       </c>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="47">
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="23">
         <v>1</v>
       </c>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47">
-        <v>1.3</v>
-      </c>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="45" t="s">
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
@@ -4711,7 +4711,7 @@
       <c r="BV27" s="16"/>
       <c r="BW27" s="16"/>
       <c r="BX27" s="20"/>
-      <c r="BY27" s="16"/>
+      <c r="BY27" s="20"/>
       <c r="BZ27" s="16"/>
       <c r="CA27" s="15"/>
       <c r="CB27" s="15"/>
@@ -4755,54 +4755,54 @@
       <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="45" t="s">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="46">
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="31">
         <v>44505</v>
       </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46">
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31">
         <v>44505</v>
       </c>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
       <c r="AQ28" s="16"/>
       <c r="AR28" s="15"/>
       <c r="AS28" s="15"/>
@@ -4881,54 +4881,54 @@
       <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="45" t="s">
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="46">
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="31">
         <v>44508</v>
       </c>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46">
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31">
         <v>44508</v>
       </c>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
       <c r="AQ29" s="16"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -5007,54 +5007,54 @@
       <c r="D30" s="19">
         <v>4</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="45" t="s">
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="46">
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="31">
         <v>44508</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46">
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31">
         <v>44508</v>
       </c>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="15"/>
       <c r="AS30" s="15"/>
@@ -5133,54 +5133,54 @@
       <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="45" t="s">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="46">
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="31">
         <v>44509</v>
       </c>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46">
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31">
         <v>44509</v>
       </c>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
       <c r="AQ31" s="16"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
@@ -5259,54 +5259,54 @@
       <c r="D32" s="19">
         <v>6</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="45" t="s">
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="46">
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="31">
         <v>44509</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46">
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31">
         <v>44509</v>
       </c>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
       <c r="AQ32" s="16"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -5379,44 +5379,44 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
       <c r="AQ33" s="16"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
@@ -5491,46 +5491,46 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
       <c r="AQ34" s="16"/>
       <c r="AR34" s="15"/>
       <c r="AS34" s="15"/>
@@ -5607,46 +5607,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
       <c r="AQ35" s="16"/>
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
@@ -5725,54 +5725,54 @@
       <c r="D36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="45" t="s">
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46">
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="31">
         <v>44510</v>
       </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46">
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31">
         <v>44510</v>
       </c>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="47">
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="23">
         <v>1</v>
       </c>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
       <c r="AQ36" s="16"/>
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
@@ -5851,54 +5851,54 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40" t="s">
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="45" t="s">
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="46">
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="31">
         <v>44511</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46">
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31">
         <v>44511</v>
       </c>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="47">
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="15"/>
       <c r="AS37" s="15"/>
@@ -5977,54 +5977,54 @@
       <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="45" t="s">
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="46">
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="31">
         <v>44511</v>
       </c>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46">
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31">
         <v>44512</v>
       </c>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="47">
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="23">
         <v>1</v>
       </c>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="39"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="39"/>
-      <c r="AP38" s="39"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
       <c r="AQ38" s="16"/>
       <c r="AR38" s="15"/>
       <c r="AS38" s="15"/>
@@ -6103,54 +6103,54 @@
       <c r="D39" s="19">
         <v>4</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="45" t="s">
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="46">
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="31">
         <v>44512</v>
       </c>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46">
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31">
         <v>44515</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="47">
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="23">
         <v>1</v>
       </c>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39"/>
-      <c r="AP39" s="39"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="15"/>
       <c r="AS39" s="15"/>
@@ -6229,54 +6229,54 @@
       <c r="D40" s="19">
         <v>5</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="45" t="s">
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="46">
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="31">
         <v>44515</v>
       </c>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46">
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31">
         <v>44516</v>
       </c>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="47">
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="23">
         <v>1</v>
       </c>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="39"/>
-      <c r="AM40" s="39"/>
-      <c r="AN40" s="39"/>
-      <c r="AO40" s="39"/>
-      <c r="AP40" s="39"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
@@ -6355,54 +6355,54 @@
       <c r="D41" s="19">
         <v>6</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="45" t="s">
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="46">
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="31">
         <v>44516</v>
       </c>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46">
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31">
         <v>44517</v>
       </c>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="47">
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="23">
         <v>1</v>
       </c>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
       <c r="AQ41" s="16"/>
       <c r="AR41" s="15"/>
       <c r="AS41" s="15"/>
@@ -6475,44 +6475,44 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
       <c r="AQ42" s="16"/>
       <c r="AR42" s="15"/>
       <c r="AS42" s="15"/>
@@ -6587,46 +6587,46 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="15"/>
       <c r="AS43" s="15"/>
@@ -6703,46 +6703,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="36"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="15"/>
       <c r="AS44" s="15"/>
@@ -6821,54 +6821,54 @@
       <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="45" t="s">
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="46">
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="31">
         <v>44517</v>
       </c>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46">
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31">
         <v>44517</v>
       </c>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="47">
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="47"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="39"/>
-      <c r="AM45" s="39"/>
-      <c r="AN45" s="39"/>
-      <c r="AO45" s="39"/>
-      <c r="AP45" s="39"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
       <c r="AQ45" s="16"/>
       <c r="AR45" s="15"/>
       <c r="AS45" s="15"/>
@@ -6947,54 +6947,54 @@
       <c r="D46" s="19">
         <v>2</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40" t="s">
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="45" t="s">
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="46">
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="31">
         <v>44517</v>
       </c>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46">
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31">
         <v>44517</v>
       </c>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="39"/>
-      <c r="AB46" s="39"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="47">
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="47"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="39"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
-      <c r="AP46" s="39"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
       <c r="AQ46" s="16"/>
       <c r="AR46" s="15"/>
       <c r="AS46" s="15"/>
@@ -7073,54 +7073,54 @@
       <c r="D47" s="19">
         <v>3</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40" t="s">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="45" t="s">
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="46">
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="31">
         <v>44517</v>
       </c>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46">
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31">
         <v>44517</v>
       </c>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="47">
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="47"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
-      <c r="AP47" s="39"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
       <c r="AQ47" s="16"/>
       <c r="AR47" s="15"/>
       <c r="AS47" s="15"/>
@@ -7199,54 +7199,54 @@
       <c r="D48" s="19">
         <v>4</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40" t="s">
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="45" t="s">
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="46">
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="31">
         <v>44518</v>
       </c>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46">
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31">
         <v>44518</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="47">
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="39"/>
-      <c r="AM48" s="39"/>
-      <c r="AN48" s="39"/>
-      <c r="AO48" s="39"/>
-      <c r="AP48" s="39"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="15"/>
       <c r="AS48" s="15"/>
@@ -7325,54 +7325,54 @@
       <c r="D49" s="19">
         <v>5</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40" t="s">
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="45" t="s">
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="46">
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="31">
         <v>44518</v>
       </c>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46">
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31">
         <v>44518</v>
       </c>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="47">
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
-      <c r="AP49" s="39"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
       <c r="AQ49" s="16"/>
       <c r="AR49" s="15"/>
       <c r="AS49" s="15"/>
@@ -7451,54 +7451,54 @@
       <c r="D50" s="19">
         <v>6</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40" t="s">
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="45" t="s">
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="46">
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="31">
         <v>44518</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46">
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31">
         <v>44518</v>
       </c>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="47">
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="23">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="47"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="22"/>
+      <c r="AK50" s="22"/>
+      <c r="AL50" s="22"/>
+      <c r="AM50" s="22"/>
+      <c r="AN50" s="22"/>
+      <c r="AO50" s="22"/>
+      <c r="AP50" s="22"/>
       <c r="AQ50" s="16"/>
       <c r="AR50" s="15"/>
       <c r="AS50" s="15"/>
@@ -7575,46 +7575,46 @@
         <v>2</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="36"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="36"/>
-      <c r="AK51" s="36"/>
-      <c r="AL51" s="36"/>
-      <c r="AM51" s="36"/>
-      <c r="AN51" s="36"/>
-      <c r="AO51" s="36"/>
-      <c r="AP51" s="36"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26"/>
       <c r="AQ51" s="16"/>
       <c r="AR51" s="15"/>
       <c r="AS51" s="15"/>
@@ -7693,54 +7693,54 @@
       <c r="D52" s="19">
         <v>1</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40" t="s">
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="45" t="s">
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="46">
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="31">
         <v>44519</v>
       </c>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46">
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31">
         <v>44519</v>
       </c>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="47">
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="23">
         <v>1</v>
       </c>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
-      <c r="AP52" s="39"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="22"/>
+      <c r="AM52" s="22"/>
+      <c r="AN52" s="22"/>
+      <c r="AO52" s="22"/>
+      <c r="AP52" s="22"/>
       <c r="AQ52" s="16"/>
       <c r="AR52" s="15"/>
       <c r="AS52" s="15"/>
@@ -7819,54 +7819,54 @@
       <c r="D53" s="19">
         <v>2</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40" t="s">
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="45" t="s">
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="46">
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="31">
         <v>44522</v>
       </c>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46">
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31">
         <v>44522</v>
       </c>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="47">
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="47"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
-      <c r="AP53" s="39"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22"/>
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="22"/>
+      <c r="AO53" s="22"/>
+      <c r="AP53" s="22"/>
       <c r="AQ53" s="16"/>
       <c r="AR53" s="15"/>
       <c r="AS53" s="15"/>
@@ -7945,54 +7945,54 @@
       <c r="D54" s="19">
         <v>3</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40" t="s">
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="45" t="s">
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="46">
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="31">
         <v>44522</v>
       </c>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46">
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31">
         <v>44524</v>
       </c>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="47">
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="AF54" s="22"/>
+      <c r="AG54" s="23">
         <v>1</v>
       </c>
-      <c r="AH54" s="47"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="22"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="22"/>
+      <c r="AM54" s="22"/>
+      <c r="AN54" s="22"/>
+      <c r="AO54" s="22"/>
+      <c r="AP54" s="22"/>
       <c r="AQ54" s="16"/>
       <c r="AR54" s="15"/>
       <c r="AS54" s="15"/>
@@ -8071,54 +8071,54 @@
       <c r="D55" s="19">
         <v>4</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40" t="s">
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="45" t="s">
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="46">
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="31">
         <v>44524</v>
       </c>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46">
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31">
         <v>44525</v>
       </c>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="47">
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="23">
         <v>1</v>
       </c>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="39"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
       <c r="AQ55" s="16"/>
       <c r="AR55" s="15"/>
       <c r="AS55" s="15"/>
@@ -8197,54 +8197,54 @@
       <c r="D56" s="19">
         <v>5</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40" t="s">
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="45" t="s">
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="46">
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="31">
         <v>44525</v>
       </c>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46">
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31">
         <v>44526</v>
       </c>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="47">
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="23">
         <v>1</v>
       </c>
-      <c r="AH56" s="47"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
-      <c r="AP56" s="39"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
       <c r="AQ56" s="16"/>
       <c r="AR56" s="15"/>
       <c r="AS56" s="15"/>
@@ -8323,54 +8323,54 @@
       <c r="D57" s="19">
         <v>6</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40" t="s">
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="45" t="s">
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="46">
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="31">
         <v>44526</v>
       </c>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="46">
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31">
         <v>44529</v>
       </c>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="47">
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="23">
         <v>1</v>
       </c>
-      <c r="AH57" s="47"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
-      <c r="AP57" s="39"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+      <c r="AP57" s="22"/>
       <c r="AQ57" s="16"/>
       <c r="AR57" s="15"/>
       <c r="AS57" s="15"/>
@@ -8443,44 +8443,44 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="22"/>
+      <c r="AI58" s="22"/>
+      <c r="AJ58" s="22"/>
+      <c r="AK58" s="22"/>
+      <c r="AL58" s="22"/>
+      <c r="AM58" s="22"/>
+      <c r="AN58" s="22"/>
+      <c r="AO58" s="22"/>
+      <c r="AP58" s="22"/>
       <c r="AQ58" s="16"/>
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
@@ -8555,46 +8555,46 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="38"/>
-      <c r="AP59" s="38"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
       <c r="AQ59" s="16"/>
       <c r="AR59" s="15"/>
       <c r="AS59" s="15"/>
@@ -8671,46 +8671,46 @@
         <v>1</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="36"/>
-      <c r="AF60" s="36"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="36"/>
-      <c r="AJ60" s="36"/>
-      <c r="AK60" s="36"/>
-      <c r="AL60" s="36"/>
-      <c r="AM60" s="36"/>
-      <c r="AN60" s="36"/>
-      <c r="AO60" s="36"/>
-      <c r="AP60" s="36"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="26"/>
+      <c r="AI60" s="26"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="26"/>
+      <c r="AL60" s="26"/>
+      <c r="AM60" s="26"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="26"/>
+      <c r="AP60" s="26"/>
       <c r="AQ60" s="16"/>
       <c r="AR60" s="15"/>
       <c r="AS60" s="15"/>
@@ -8787,54 +8787,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40" t="s">
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="45" t="s">
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="46">
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="31">
         <v>44539</v>
       </c>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46">
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31">
         <v>44540</v>
       </c>
-      <c r="Y61" s="46"/>
-      <c r="Z61" s="46"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="47">
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="23">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="47"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
-      <c r="AP61" s="39"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
       <c r="AQ61" s="16"/>
       <c r="AR61" s="15"/>
       <c r="AS61" s="15"/>
@@ -8911,46 +8911,46 @@
         <v>2</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
-      <c r="AF62" s="36"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="36"/>
-      <c r="AJ62" s="36"/>
-      <c r="AK62" s="36"/>
-      <c r="AL62" s="36"/>
-      <c r="AM62" s="36"/>
-      <c r="AN62" s="36"/>
-      <c r="AO62" s="36"/>
-      <c r="AP62" s="36"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="26"/>
+      <c r="AP62" s="26"/>
       <c r="AQ62" s="16"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
@@ -9027,54 +9027,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40" t="s">
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="45" t="s">
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="46">
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="31">
         <v>44543</v>
       </c>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="46">
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31">
         <v>44543</v>
       </c>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="47">
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="23">
         <v>1</v>
       </c>
-      <c r="AH63" s="47"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
       <c r="AQ63" s="16"/>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
@@ -9147,44 +9147,44 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="39"/>
-      <c r="AP64" s="39"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="22"/>
+      <c r="AF64" s="22"/>
+      <c r="AG64" s="22"/>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="22"/>
+      <c r="AJ64" s="22"/>
+      <c r="AK64" s="22"/>
+      <c r="AL64" s="22"/>
+      <c r="AM64" s="22"/>
+      <c r="AN64" s="22"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="22"/>
       <c r="AQ64" s="16"/>
       <c r="AR64" s="15"/>
       <c r="AS64" s="15"/>
@@ -9259,46 +9259,46 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="38"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="27"/>
+      <c r="AH65" s="27"/>
+      <c r="AI65" s="27"/>
+      <c r="AJ65" s="27"/>
+      <c r="AK65" s="27"/>
+      <c r="AL65" s="27"/>
+      <c r="AM65" s="27"/>
+      <c r="AN65" s="27"/>
+      <c r="AO65" s="27"/>
+      <c r="AP65" s="27"/>
       <c r="AQ65" s="16"/>
       <c r="AR65" s="15"/>
       <c r="AS65" s="15"/>
@@ -9375,48 +9375,48 @@
         <v>1</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="49" t="s">
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="36"/>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="36"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="26"/>
+      <c r="W66" s="26"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="26"/>
+      <c r="AP66" s="26"/>
       <c r="AQ66" s="16"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
@@ -9495,50 +9495,50 @@
       <c r="D67" s="19">
         <v>1</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40" t="s">
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="45" t="s">
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
-      <c r="AH67" s="39"/>
-      <c r="AI67" s="47">
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="23">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="39"/>
-      <c r="AL67" s="39"/>
-      <c r="AM67" s="39"/>
-      <c r="AN67" s="39"/>
-      <c r="AO67" s="39"/>
-      <c r="AP67" s="39"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="22"/>
+      <c r="AO67" s="22"/>
+      <c r="AP67" s="22"/>
       <c r="AQ67" s="16"/>
       <c r="AR67" s="15"/>
       <c r="AS67" s="15"/>
@@ -9611,44 +9611,44 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
-      <c r="AP68" s="39"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
       <c r="AQ68" s="16"/>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
@@ -9721,44 +9721,44 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
-      <c r="AP69" s="39"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
       <c r="AQ69" s="16"/>
       <c r="AR69" s="15"/>
       <c r="AS69" s="15"/>
@@ -9847,699 +9847,22 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -10557,22 +9880,699 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97E508-9918-447F-AAF5-6DCB92674EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF4428-8EA5-466E-95AA-3DAF95B50D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,66 +568,6 @@
     <xf numFmtId="177" fontId="5" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +591,66 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BL16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BS16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23:AC23"/>
+      <selection pane="bottomRight" activeCell="BY27" sqref="BY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,221 +1038,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="42" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="44">
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="24">
         <v>44498</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="42" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="45" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="46" t="s">
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="45">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="25">
         <v>44498</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BD1" s="47" t="s">
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BD1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="44">
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="24">
         <v>44530</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="42" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="45" t="s">
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BD2" s="49" t="s">
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BD2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="39" t="s">
+      <c r="BD3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="38" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38" t="s">
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="37" t="s">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="41" t="s">
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="37" t="s">
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
       <c r="AQ4" s="3">
         <f>AU1</f>
         <v>44498</v>
@@ -1513,60 +1513,60 @@
       <c r="DD4" s="7"/>
     </row>
     <row r="5" spans="1:108" s="10" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38" t="s">
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38" t="s">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38" t="s">
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38" t="s">
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
       <c r="AQ5" s="8">
         <f>AU1</f>
         <v>44498</v>
@@ -1825,48 +1825,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
       <c r="AQ6" s="11" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2133,46 +2133,46 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="15"/>
       <c r="AS7" s="15"/>
@@ -2249,46 +2249,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="15"/>
       <c r="AS8" s="15"/>
@@ -2367,64 +2367,64 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="36" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="33">
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42">
         <v>44498</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33">
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42">
         <v>44498</v>
       </c>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33">
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42">
         <v>44498</v>
       </c>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>44498</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="34">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="43">
         <v>1</v>
       </c>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43">
         <v>1</v>
       </c>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="35">
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="44">
         <v>1</v>
       </c>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="25" t="s">
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="15"/>
       <c r="AS9" s="15"/>
@@ -2497,44 +2497,44 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="15"/>
       <c r="AS10" s="15"/>
@@ -2609,46 +2609,46 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
@@ -2725,46 +2725,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
@@ -2843,64 +2843,64 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="31">
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46">
         <v>44501</v>
       </c>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31">
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46">
         <v>44501</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31">
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46">
         <v>44501</v>
       </c>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31">
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46">
         <v>44518</v>
       </c>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="23">
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23">
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47">
         <v>2</v>
       </c>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="32">
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="48">
         <v>1</v>
       </c>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="25" t="s">
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
@@ -2979,62 +2979,62 @@
       <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="24" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="31">
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="46">
         <v>44501</v>
       </c>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31">
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46">
         <v>44501</v>
       </c>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31">
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46">
         <v>44501</v>
       </c>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="23">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23">
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="32">
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48">
         <v>1</v>
       </c>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="25" t="s">
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="15"/>
@@ -3111,46 +3111,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
@@ -3229,62 +3229,62 @@
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="24" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="31">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46">
         <v>44502</v>
       </c>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31">
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46">
         <v>44502</v>
       </c>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31">
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46">
         <v>44501</v>
       </c>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="23">
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23">
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47">
         <v>11.1</v>
       </c>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="32">
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="48">
         <v>1</v>
       </c>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="25" t="s">
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
       <c r="AQ16" s="16"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="15"/>
@@ -3361,46 +3361,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
       <c r="AQ17" s="16"/>
       <c r="AR17" s="15"/>
       <c r="AS17" s="15"/>
@@ -3479,62 +3479,62 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="31">
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46">
         <v>44501</v>
       </c>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31">
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46">
         <v>44504</v>
       </c>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31">
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46">
         <v>44504</v>
       </c>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="23">
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23">
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="32">
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="48">
         <v>1</v>
       </c>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="25" t="s">
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
@@ -3613,62 +3613,62 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="24" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="31">
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46">
         <v>44504</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31">
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46">
         <v>44504</v>
       </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31">
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46">
         <v>44504</v>
       </c>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="23">
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23">
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="32">
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="48">
         <v>1</v>
       </c>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="25" t="s">
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -3747,62 +3747,62 @@
       <c r="D20" s="19">
         <v>3</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="24" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25" t="s">
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="31">
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46">
         <v>44504</v>
       </c>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31">
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46">
         <v>44505</v>
       </c>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31">
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46">
         <v>44505</v>
       </c>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="23">
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23">
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="32">
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48">
         <v>1</v>
       </c>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="25" t="s">
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
       <c r="AQ20" s="16"/>
       <c r="AR20" s="15"/>
       <c r="AS20" s="15"/>
@@ -3881,62 +3881,62 @@
       <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="24" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25" t="s">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="31">
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="46">
         <v>44504</v>
       </c>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31">
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46">
         <v>44505</v>
       </c>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31">
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46">
         <v>44505</v>
       </c>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="23">
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23">
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="32">
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="48">
         <v>1</v>
       </c>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="25" t="s">
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
@@ -4015,62 +4015,62 @@
       <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="31">
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="46">
         <v>44504</v>
       </c>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31">
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46">
         <v>44505</v>
       </c>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31">
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46">
         <v>44505</v>
       </c>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="23">
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23">
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="32">
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="48">
         <v>1</v>
       </c>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="25" t="s">
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
       <c r="AQ22" s="16"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
@@ -4149,62 +4149,62 @@
       <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="24" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="31">
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46">
         <v>44504</v>
       </c>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31">
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46">
         <v>44504</v>
       </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31">
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46">
         <v>44504</v>
       </c>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="23">
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="47">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23">
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="32">
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48">
         <v>1</v>
       </c>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="25" t="s">
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
       <c r="AQ23" s="16"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
@@ -4277,44 +4277,44 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
       <c r="AQ24" s="16"/>
       <c r="AR24" s="15"/>
       <c r="AS24" s="15"/>
@@ -4389,46 +4389,46 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
@@ -4505,46 +4505,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
       <c r="AQ26" s="16"/>
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
@@ -4623,60 +4623,60 @@
       <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="24" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25" t="s">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="31">
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46">
         <v>44505</v>
       </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31">
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46">
         <v>44505</v>
       </c>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="23">
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="47">
         <v>1</v>
       </c>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="25" t="s">
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47">
+        <v>3.3</v>
+      </c>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
@@ -4712,7 +4712,7 @@
       <c r="BW27" s="16"/>
       <c r="BX27" s="20"/>
       <c r="BY27" s="20"/>
-      <c r="BZ27" s="16"/>
+      <c r="BZ27" s="20"/>
       <c r="CA27" s="15"/>
       <c r="CB27" s="15"/>
       <c r="CC27" s="16"/>
@@ -4755,54 +4755,54 @@
       <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="24" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25" t="s">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="31">
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="46">
         <v>44505</v>
       </c>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31">
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46">
         <v>44505</v>
       </c>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="23">
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="47">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
       <c r="AQ28" s="16"/>
       <c r="AR28" s="15"/>
       <c r="AS28" s="15"/>
@@ -4881,54 +4881,54 @@
       <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="24" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25" t="s">
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="31">
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="46">
         <v>44508</v>
       </c>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31">
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46">
         <v>44508</v>
       </c>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="23">
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="47">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
       <c r="AQ29" s="16"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -5007,54 +5007,54 @@
       <c r="D30" s="19">
         <v>4</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="24" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25" t="s">
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="31">
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46">
         <v>44508</v>
       </c>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46">
         <v>44508</v>
       </c>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="23">
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="47">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-      <c r="AP30" s="22"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="15"/>
       <c r="AS30" s="15"/>
@@ -5133,54 +5133,54 @@
       <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="24" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="25" t="s">
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="31">
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="46">
         <v>44509</v>
       </c>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31">
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46">
         <v>44509</v>
       </c>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="23">
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="47">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
       <c r="AQ31" s="16"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
@@ -5259,54 +5259,54 @@
       <c r="D32" s="19">
         <v>6</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="24" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="25" t="s">
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="31">
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="46">
         <v>44509</v>
       </c>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31">
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46">
         <v>44509</v>
       </c>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="23">
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="47">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
       <c r="AQ32" s="16"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -5379,44 +5379,44 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
       <c r="AQ33" s="16"/>
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
@@ -5491,46 +5491,46 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
       <c r="AQ34" s="16"/>
       <c r="AR34" s="15"/>
       <c r="AS34" s="15"/>
@@ -5607,46 +5607,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
       <c r="AQ35" s="16"/>
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
@@ -5725,54 +5725,54 @@
       <c r="D36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="24" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="25" t="s">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="31">
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="46">
         <v>44510</v>
       </c>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31">
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46">
         <v>44510</v>
       </c>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="23">
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="47">
         <v>1</v>
       </c>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
       <c r="AQ36" s="16"/>
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
@@ -5851,54 +5851,54 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="24" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25" t="s">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="31">
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="46">
         <v>44511</v>
       </c>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31">
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46">
         <v>44511</v>
       </c>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="23">
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="15"/>
       <c r="AS37" s="15"/>
@@ -5977,54 +5977,54 @@
       <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="24" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25" t="s">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="31">
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="46">
         <v>44511</v>
       </c>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31">
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46">
         <v>44512</v>
       </c>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="23">
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="47">
         <v>1</v>
       </c>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
       <c r="AQ38" s="16"/>
       <c r="AR38" s="15"/>
       <c r="AS38" s="15"/>
@@ -6103,54 +6103,54 @@
       <c r="D39" s="19">
         <v>4</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="24" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="25" t="s">
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="31">
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="46">
         <v>44512</v>
       </c>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31">
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46">
         <v>44515</v>
       </c>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="23">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="47">
         <v>1</v>
       </c>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="15"/>
       <c r="AS39" s="15"/>
@@ -6229,54 +6229,54 @@
       <c r="D40" s="19">
         <v>5</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="24" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="25" t="s">
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="31">
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="46">
         <v>44515</v>
       </c>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31">
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46">
         <v>44516</v>
       </c>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="23">
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="47">
         <v>1</v>
       </c>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
@@ -6355,54 +6355,54 @@
       <c r="D41" s="19">
         <v>6</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="24" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="25" t="s">
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="31">
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="46">
         <v>44516</v>
       </c>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31">
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46">
         <v>44517</v>
       </c>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="23">
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="47">
         <v>1</v>
       </c>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
       <c r="AQ41" s="16"/>
       <c r="AR41" s="15"/>
       <c r="AS41" s="15"/>
@@ -6475,44 +6475,44 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="22"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
+      <c r="AM42" s="39"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
       <c r="AQ42" s="16"/>
       <c r="AR42" s="15"/>
       <c r="AS42" s="15"/>
@@ -6587,46 +6587,46 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="15"/>
       <c r="AS43" s="15"/>
@@ -6703,46 +6703,46 @@
         <v>2</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="15"/>
       <c r="AS44" s="15"/>
@@ -6821,54 +6821,54 @@
       <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="24" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="25" t="s">
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="31">
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="46">
         <v>44517</v>
       </c>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31">
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46">
         <v>44517</v>
       </c>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="23">
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
       <c r="AQ45" s="16"/>
       <c r="AR45" s="15"/>
       <c r="AS45" s="15"/>
@@ -6947,54 +6947,54 @@
       <c r="D46" s="19">
         <v>2</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="24" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="25" t="s">
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="31">
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="46">
         <v>44517</v>
       </c>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31">
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46">
         <v>44517</v>
       </c>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="23">
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="22"/>
-      <c r="AM46" s="22"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="22"/>
-      <c r="AP46" s="22"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="39"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
       <c r="AQ46" s="16"/>
       <c r="AR46" s="15"/>
       <c r="AS46" s="15"/>
@@ -7073,54 +7073,54 @@
       <c r="D47" s="19">
         <v>3</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="24" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="25" t="s">
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="31">
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="46">
         <v>44517</v>
       </c>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31">
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46">
         <v>44517</v>
       </c>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="23">
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
       <c r="AQ47" s="16"/>
       <c r="AR47" s="15"/>
       <c r="AS47" s="15"/>
@@ -7199,54 +7199,54 @@
       <c r="D48" s="19">
         <v>4</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="24" t="s">
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="25" t="s">
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="31">
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="46">
         <v>44518</v>
       </c>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31">
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46">
         <v>44518</v>
       </c>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="23">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="15"/>
       <c r="AS48" s="15"/>
@@ -7325,54 +7325,54 @@
       <c r="D49" s="19">
         <v>5</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="24" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="25" t="s">
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="31">
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="46">
         <v>44518</v>
       </c>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31">
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46">
         <v>44518</v>
       </c>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="23">
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
       <c r="AQ49" s="16"/>
       <c r="AR49" s="15"/>
       <c r="AS49" s="15"/>
@@ -7451,54 +7451,54 @@
       <c r="D50" s="19">
         <v>6</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="24" t="s">
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="25" t="s">
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="31">
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="46">
         <v>44518</v>
       </c>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31">
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46">
         <v>44518</v>
       </c>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="23">
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="23"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39"/>
       <c r="AQ50" s="16"/>
       <c r="AR50" s="15"/>
       <c r="AS50" s="15"/>
@@ -7575,46 +7575,46 @@
         <v>2</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26"/>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="36"/>
+      <c r="AK51" s="36"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="36"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
       <c r="AQ51" s="16"/>
       <c r="AR51" s="15"/>
       <c r="AS51" s="15"/>
@@ -7693,54 +7693,54 @@
       <c r="D52" s="19">
         <v>1</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="24" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="25" t="s">
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="31">
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="46">
         <v>44519</v>
       </c>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31">
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46">
         <v>44519</v>
       </c>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="23">
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="47">
         <v>1</v>
       </c>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="39"/>
+      <c r="AO52" s="39"/>
+      <c r="AP52" s="39"/>
       <c r="AQ52" s="16"/>
       <c r="AR52" s="15"/>
       <c r="AS52" s="15"/>
@@ -7819,54 +7819,54 @@
       <c r="D53" s="19">
         <v>2</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="24" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="25" t="s">
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="31">
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="46">
         <v>44522</v>
       </c>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31">
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46">
         <v>44522</v>
       </c>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="23">
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39"/>
+      <c r="AP53" s="39"/>
       <c r="AQ53" s="16"/>
       <c r="AR53" s="15"/>
       <c r="AS53" s="15"/>
@@ -7945,54 +7945,54 @@
       <c r="D54" s="19">
         <v>3</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="24" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="25" t="s">
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="31">
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="46">
         <v>44522</v>
       </c>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31">
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46">
         <v>44524</v>
       </c>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
-      <c r="AG54" s="23">
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="47">
         <v>1</v>
       </c>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="22"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="22"/>
-      <c r="AM54" s="22"/>
-      <c r="AN54" s="22"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="22"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="39"/>
+      <c r="AP54" s="39"/>
       <c r="AQ54" s="16"/>
       <c r="AR54" s="15"/>
       <c r="AS54" s="15"/>
@@ -8071,54 +8071,54 @@
       <c r="D55" s="19">
         <v>4</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="24" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="25" t="s">
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="31">
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="46">
         <v>44524</v>
       </c>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31">
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46">
         <v>44525</v>
       </c>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="23">
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="47">
         <v>1</v>
       </c>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22"/>
-      <c r="AM55" s="22"/>
-      <c r="AN55" s="22"/>
-      <c r="AO55" s="22"/>
-      <c r="AP55" s="22"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39"/>
+      <c r="AP55" s="39"/>
       <c r="AQ55" s="16"/>
       <c r="AR55" s="15"/>
       <c r="AS55" s="15"/>
@@ -8197,54 +8197,54 @@
       <c r="D56" s="19">
         <v>5</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="24" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="25" t="s">
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="31">
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="46">
         <v>44525</v>
       </c>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31">
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46">
         <v>44526</v>
       </c>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="23">
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="47">
         <v>1</v>
       </c>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="39"/>
+      <c r="AP56" s="39"/>
       <c r="AQ56" s="16"/>
       <c r="AR56" s="15"/>
       <c r="AS56" s="15"/>
@@ -8323,54 +8323,54 @@
       <c r="D57" s="19">
         <v>6</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="24" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="25" t="s">
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="31">
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="46">
         <v>44526</v>
       </c>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31">
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46">
         <v>44529</v>
       </c>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="23">
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="47">
         <v>1</v>
       </c>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="22"/>
-      <c r="AO57" s="22"/>
-      <c r="AP57" s="22"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="39"/>
+      <c r="AN57" s="39"/>
+      <c r="AO57" s="39"/>
+      <c r="AP57" s="39"/>
       <c r="AQ57" s="16"/>
       <c r="AR57" s="15"/>
       <c r="AS57" s="15"/>
@@ -8443,44 +8443,44 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="22"/>
-      <c r="AM58" s="22"/>
-      <c r="AN58" s="22"/>
-      <c r="AO58" s="22"/>
-      <c r="AP58" s="22"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="39"/>
+      <c r="AO58" s="39"/>
+      <c r="AP58" s="39"/>
       <c r="AQ58" s="16"/>
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
@@ -8555,46 +8555,46 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="38"/>
+      <c r="AF59" s="38"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38"/>
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="38"/>
       <c r="AQ59" s="16"/>
       <c r="AR59" s="15"/>
       <c r="AS59" s="15"/>
@@ -8671,46 +8671,46 @@
         <v>1</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26"/>
-      <c r="AJ60" s="26"/>
-      <c r="AK60" s="26"/>
-      <c r="AL60" s="26"/>
-      <c r="AM60" s="26"/>
-      <c r="AN60" s="26"/>
-      <c r="AO60" s="26"/>
-      <c r="AP60" s="26"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="36"/>
+      <c r="AK60" s="36"/>
+      <c r="AL60" s="36"/>
+      <c r="AM60" s="36"/>
+      <c r="AN60" s="36"/>
+      <c r="AO60" s="36"/>
+      <c r="AP60" s="36"/>
       <c r="AQ60" s="16"/>
       <c r="AR60" s="15"/>
       <c r="AS60" s="15"/>
@@ -8787,54 +8787,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="24" t="s">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="25" t="s">
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="31">
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="46">
         <v>44539</v>
       </c>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31">
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46">
         <v>44540</v>
       </c>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="23">
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="47">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="23"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="39"/>
+      <c r="AJ61" s="39"/>
+      <c r="AK61" s="39"/>
+      <c r="AL61" s="39"/>
+      <c r="AM61" s="39"/>
+      <c r="AN61" s="39"/>
+      <c r="AO61" s="39"/>
+      <c r="AP61" s="39"/>
       <c r="AQ61" s="16"/>
       <c r="AR61" s="15"/>
       <c r="AS61" s="15"/>
@@ -8911,46 +8911,46 @@
         <v>2</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-      <c r="AJ62" s="26"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="26"/>
-      <c r="AM62" s="26"/>
-      <c r="AN62" s="26"/>
-      <c r="AO62" s="26"/>
-      <c r="AP62" s="26"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="36"/>
+      <c r="AK62" s="36"/>
+      <c r="AL62" s="36"/>
+      <c r="AM62" s="36"/>
+      <c r="AN62" s="36"/>
+      <c r="AO62" s="36"/>
+      <c r="AP62" s="36"/>
       <c r="AQ62" s="16"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
@@ -9027,54 +9027,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="24" t="s">
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="25" t="s">
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="31">
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="46">
         <v>44543</v>
       </c>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31">
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46">
         <v>44543</v>
       </c>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="23">
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="47">
         <v>1</v>
       </c>
-      <c r="AH63" s="23"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="22"/>
-      <c r="AP63" s="22"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="39"/>
+      <c r="AJ63" s="39"/>
+      <c r="AK63" s="39"/>
+      <c r="AL63" s="39"/>
+      <c r="AM63" s="39"/>
+      <c r="AN63" s="39"/>
+      <c r="AO63" s="39"/>
+      <c r="AP63" s="39"/>
       <c r="AQ63" s="16"/>
       <c r="AR63" s="15"/>
       <c r="AS63" s="15"/>
@@ -9147,44 +9147,44 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="39"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="39"/>
+      <c r="AO64" s="39"/>
+      <c r="AP64" s="39"/>
       <c r="AQ64" s="16"/>
       <c r="AR64" s="15"/>
       <c r="AS64" s="15"/>
@@ -9259,46 +9259,46 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AH65" s="27"/>
-      <c r="AI65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="27"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="27"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="38"/>
       <c r="AQ65" s="16"/>
       <c r="AR65" s="15"/>
       <c r="AS65" s="15"/>
@@ -9375,48 +9375,48 @@
         <v>1</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="29" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="26"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="26"/>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="26"/>
-      <c r="AP66" s="26"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="36"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="36"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
+      <c r="AP66" s="36"/>
       <c r="AQ66" s="16"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
@@ -9495,50 +9495,50 @@
       <c r="D67" s="19">
         <v>1</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="24" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="25" t="s">
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="23">
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="47">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="23"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="39"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="39"/>
+      <c r="AN67" s="39"/>
+      <c r="AO67" s="39"/>
+      <c r="AP67" s="39"/>
       <c r="AQ67" s="16"/>
       <c r="AR67" s="15"/>
       <c r="AS67" s="15"/>
@@ -9611,44 +9611,44 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
+      <c r="AP68" s="39"/>
       <c r="AQ68" s="16"/>
       <c r="AR68" s="15"/>
       <c r="AS68" s="15"/>
@@ -9721,44 +9721,44 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="39"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="39"/>
+      <c r="AO69" s="39"/>
+      <c r="AP69" s="39"/>
       <c r="AQ69" s="16"/>
       <c r="AR69" s="15"/>
       <c r="AS69" s="15"/>
@@ -9847,22 +9847,699 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -9880,699 +10557,22 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9C140-AB45-4655-AE83-D7EF75AB012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391DC534-B14F-4834-BC07-57EBE38500D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -508,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +688,15 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1061,7 +1070,7 @@
       <pane xSplit="42" ySplit="6" topLeftCell="BS22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI30" sqref="AI30:AJ30"/>
+      <selection pane="bottomRight" activeCell="AK32" sqref="AK32:AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1196,7 @@
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="26">
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="Z2" s="26"/>
       <c r="AA2" s="26"/>
@@ -4121,10 +4130,10 @@
         <v>0.1</v>
       </c>
       <c r="AJ22" s="55"/>
-      <c r="AK22" s="56">
+      <c r="AK22" s="60">
         <v>1</v>
       </c>
-      <c r="AL22" s="56"/>
+      <c r="AL22" s="60"/>
       <c r="AM22" s="53" t="s">
         <v>27</v>
       </c>
@@ -4257,10 +4266,10 @@
         <v>0.2</v>
       </c>
       <c r="AJ23" s="55"/>
-      <c r="AK23" s="56">
+      <c r="AK23" s="60">
         <v>1</v>
       </c>
-      <c r="AL23" s="56"/>
+      <c r="AL23" s="60"/>
       <c r="AM23" s="53" t="s">
         <v>27</v>
       </c>
@@ -4371,8 +4380,8 @@
       <c r="AH24" s="46"/>
       <c r="AI24" s="47"/>
       <c r="AJ24" s="47"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
       <c r="AM24" s="47"/>
       <c r="AN24" s="47"/>
       <c r="AO24" s="47"/>
@@ -4485,8 +4494,8 @@
       <c r="AH25" s="43"/>
       <c r="AI25" s="44"/>
       <c r="AJ25" s="44"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
@@ -4601,8 +4610,8 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="40"/>
       <c r="AJ26" s="40"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
       <c r="AO26" s="40"/>
@@ -4733,10 +4742,10 @@
         <v>3.3</v>
       </c>
       <c r="AJ27" s="55"/>
-      <c r="AK27" s="56">
+      <c r="AK27" s="60">
         <v>1</v>
       </c>
-      <c r="AL27" s="56"/>
+      <c r="AL27" s="60"/>
       <c r="AM27" s="53" t="s">
         <v>27</v>
       </c>
@@ -4870,7 +4879,7 @@
       <c r="AK28" s="58">
         <v>0.9</v>
       </c>
-      <c r="AL28" s="46"/>
+      <c r="AL28" s="58"/>
       <c r="AM28" s="47" t="s">
         <v>60</v>
       </c>
@@ -4998,13 +5007,13 @@
       </c>
       <c r="AH29" s="55"/>
       <c r="AI29" s="47">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ29" s="47"/>
       <c r="AK29" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="AL29" s="46"/>
+        <v>0.9</v>
+      </c>
+      <c r="AL29" s="58"/>
       <c r="AM29" s="47" t="s">
         <v>60</v>
       </c>
@@ -5050,7 +5059,7 @@
       <c r="CA29" s="14"/>
       <c r="CB29" s="14"/>
       <c r="CC29" s="17"/>
-      <c r="CD29" s="15"/>
+      <c r="CD29" s="17"/>
       <c r="CE29" s="15"/>
       <c r="CF29" s="15"/>
       <c r="CG29" s="15"/>
@@ -5119,7 +5128,9 @@
       </c>
       <c r="Y30" s="54"/>
       <c r="Z30" s="54"/>
-      <c r="AA30" s="47"/>
+      <c r="AA30" s="57">
+        <v>44537</v>
+      </c>
       <c r="AB30" s="47"/>
       <c r="AC30" s="47"/>
       <c r="AD30" s="47"/>
@@ -5129,11 +5140,17 @@
         <v>1.5</v>
       </c>
       <c r="AH30" s="55"/>
-      <c r="AI30" s="47"/>
+      <c r="AI30" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AJ30" s="47"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="47"/>
+      <c r="AK30" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="AN30" s="47"/>
       <c r="AO30" s="47"/>
       <c r="AP30" s="47"/>
@@ -5176,7 +5193,7 @@
       <c r="CA30" s="14"/>
       <c r="CB30" s="14"/>
       <c r="CC30" s="15"/>
-      <c r="CD30" s="15"/>
+      <c r="CD30" s="17"/>
       <c r="CE30" s="15"/>
       <c r="CF30" s="15"/>
       <c r="CG30" s="15"/>
@@ -5257,8 +5274,8 @@
       <c r="AH31" s="55"/>
       <c r="AI31" s="47"/>
       <c r="AJ31" s="47"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
+      <c r="AK31" s="58"/>
+      <c r="AL31" s="58"/>
       <c r="AM31" s="47"/>
       <c r="AN31" s="47"/>
       <c r="AO31" s="47"/>
@@ -5383,8 +5400,8 @@
       <c r="AH32" s="55"/>
       <c r="AI32" s="47"/>
       <c r="AJ32" s="47"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
+      <c r="AK32" s="58"/>
+      <c r="AL32" s="58"/>
       <c r="AM32" s="47"/>
       <c r="AN32" s="47"/>
       <c r="AO32" s="47"/>
@@ -5493,8 +5510,8 @@
       <c r="AH33" s="46"/>
       <c r="AI33" s="47"/>
       <c r="AJ33" s="47"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="58"/>
       <c r="AM33" s="47"/>
       <c r="AN33" s="47"/>
       <c r="AO33" s="47"/>
@@ -5607,8 +5624,8 @@
       <c r="AH34" s="43"/>
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
       <c r="AM34" s="44"/>
       <c r="AN34" s="44"/>
       <c r="AO34" s="44"/>
@@ -5723,8 +5740,8 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="40"/>
       <c r="AJ35" s="40"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="62"/>
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
       <c r="AO35" s="40"/>
@@ -5849,8 +5866,8 @@
       <c r="AH36" s="55"/>
       <c r="AI36" s="47"/>
       <c r="AJ36" s="47"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
+      <c r="AK36" s="58"/>
+      <c r="AL36" s="58"/>
       <c r="AM36" s="47"/>
       <c r="AN36" s="47"/>
       <c r="AO36" s="47"/>
@@ -5975,8 +5992,8 @@
       <c r="AH37" s="55"/>
       <c r="AI37" s="47"/>
       <c r="AJ37" s="47"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AK37" s="58"/>
+      <c r="AL37" s="58"/>
       <c r="AM37" s="47"/>
       <c r="AN37" s="47"/>
       <c r="AO37" s="47"/>
@@ -6101,8 +6118,8 @@
       <c r="AH38" s="55"/>
       <c r="AI38" s="47"/>
       <c r="AJ38" s="47"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
       <c r="AM38" s="47"/>
       <c r="AN38" s="47"/>
       <c r="AO38" s="47"/>
@@ -6227,8 +6244,8 @@
       <c r="AH39" s="55"/>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="46"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
       <c r="AM39" s="47"/>
       <c r="AN39" s="47"/>
       <c r="AO39" s="47"/>
@@ -6353,8 +6370,8 @@
       <c r="AH40" s="55"/>
       <c r="AI40" s="47"/>
       <c r="AJ40" s="47"/>
-      <c r="AK40" s="46"/>
-      <c r="AL40" s="46"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="58"/>
       <c r="AM40" s="47"/>
       <c r="AN40" s="47"/>
       <c r="AO40" s="47"/>
@@ -6479,8 +6496,8 @@
       <c r="AH41" s="55"/>
       <c r="AI41" s="47"/>
       <c r="AJ41" s="47"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="46"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
       <c r="AM41" s="47"/>
       <c r="AN41" s="47"/>
       <c r="AO41" s="47"/>
@@ -6589,8 +6606,8 @@
       <c r="AH42" s="46"/>
       <c r="AI42" s="47"/>
       <c r="AJ42" s="47"/>
-      <c r="AK42" s="46"/>
-      <c r="AL42" s="46"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
       <c r="AM42" s="47"/>
       <c r="AN42" s="47"/>
       <c r="AO42" s="47"/>
@@ -6703,8 +6720,8 @@
       <c r="AH43" s="43"/>
       <c r="AI43" s="44"/>
       <c r="AJ43" s="44"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
       <c r="AM43" s="44"/>
       <c r="AN43" s="44"/>
       <c r="AO43" s="44"/>
@@ -6819,8 +6836,8 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="40"/>
       <c r="AJ44" s="40"/>
-      <c r="AK44" s="39"/>
-      <c r="AL44" s="39"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="62"/>
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
       <c r="AO44" s="40"/>
@@ -6945,8 +6962,8 @@
       <c r="AH45" s="55"/>
       <c r="AI45" s="47"/>
       <c r="AJ45" s="47"/>
-      <c r="AK45" s="46"/>
-      <c r="AL45" s="46"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
       <c r="AM45" s="47"/>
       <c r="AN45" s="47"/>
       <c r="AO45" s="47"/>
@@ -7071,8 +7088,8 @@
       <c r="AH46" s="55"/>
       <c r="AI46" s="47"/>
       <c r="AJ46" s="47"/>
-      <c r="AK46" s="46"/>
-      <c r="AL46" s="46"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
       <c r="AM46" s="47"/>
       <c r="AN46" s="47"/>
       <c r="AO46" s="47"/>
@@ -7197,8 +7214,8 @@
       <c r="AH47" s="55"/>
       <c r="AI47" s="47"/>
       <c r="AJ47" s="47"/>
-      <c r="AK47" s="46"/>
-      <c r="AL47" s="46"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
       <c r="AM47" s="47"/>
       <c r="AN47" s="47"/>
       <c r="AO47" s="47"/>
@@ -7323,8 +7340,8 @@
       <c r="AH48" s="55"/>
       <c r="AI48" s="47"/>
       <c r="AJ48" s="47"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
       <c r="AM48" s="47"/>
       <c r="AN48" s="47"/>
       <c r="AO48" s="47"/>
@@ -7449,8 +7466,8 @@
       <c r="AH49" s="55"/>
       <c r="AI49" s="47"/>
       <c r="AJ49" s="47"/>
-      <c r="AK49" s="46"/>
-      <c r="AL49" s="46"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="58"/>
       <c r="AM49" s="47"/>
       <c r="AN49" s="47"/>
       <c r="AO49" s="47"/>
@@ -7575,8 +7592,8 @@
       <c r="AH50" s="55"/>
       <c r="AI50" s="47"/>
       <c r="AJ50" s="47"/>
-      <c r="AK50" s="46"/>
-      <c r="AL50" s="46"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
       <c r="AM50" s="47"/>
       <c r="AN50" s="47"/>
       <c r="AO50" s="47"/>
@@ -7691,8 +7708,8 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="40"/>
       <c r="AJ51" s="40"/>
-      <c r="AK51" s="39"/>
-      <c r="AL51" s="39"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="62"/>
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
       <c r="AO51" s="40"/>
@@ -7817,8 +7834,8 @@
       <c r="AH52" s="55"/>
       <c r="AI52" s="47"/>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="46"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
       <c r="AM52" s="47"/>
       <c r="AN52" s="47"/>
       <c r="AO52" s="47"/>
@@ -7943,8 +7960,8 @@
       <c r="AH53" s="55"/>
       <c r="AI53" s="47"/>
       <c r="AJ53" s="47"/>
-      <c r="AK53" s="46"/>
-      <c r="AL53" s="46"/>
+      <c r="AK53" s="58"/>
+      <c r="AL53" s="58"/>
       <c r="AM53" s="47"/>
       <c r="AN53" s="47"/>
       <c r="AO53" s="47"/>
@@ -8069,8 +8086,8 @@
       <c r="AH54" s="55"/>
       <c r="AI54" s="47"/>
       <c r="AJ54" s="47"/>
-      <c r="AK54" s="46"/>
-      <c r="AL54" s="46"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="58"/>
       <c r="AM54" s="47"/>
       <c r="AN54" s="47"/>
       <c r="AO54" s="47"/>
@@ -8195,8 +8212,8 @@
       <c r="AH55" s="55"/>
       <c r="AI55" s="47"/>
       <c r="AJ55" s="47"/>
-      <c r="AK55" s="46"/>
-      <c r="AL55" s="46"/>
+      <c r="AK55" s="58"/>
+      <c r="AL55" s="58"/>
       <c r="AM55" s="47"/>
       <c r="AN55" s="47"/>
       <c r="AO55" s="47"/>
@@ -8321,8 +8338,8 @@
       <c r="AH56" s="55"/>
       <c r="AI56" s="47"/>
       <c r="AJ56" s="47"/>
-      <c r="AK56" s="46"/>
-      <c r="AL56" s="46"/>
+      <c r="AK56" s="58"/>
+      <c r="AL56" s="58"/>
       <c r="AM56" s="47"/>
       <c r="AN56" s="47"/>
       <c r="AO56" s="47"/>
@@ -8447,8 +8464,8 @@
       <c r="AH57" s="55"/>
       <c r="AI57" s="47"/>
       <c r="AJ57" s="47"/>
-      <c r="AK57" s="46"/>
-      <c r="AL57" s="46"/>
+      <c r="AK57" s="58"/>
+      <c r="AL57" s="58"/>
       <c r="AM57" s="47"/>
       <c r="AN57" s="47"/>
       <c r="AO57" s="47"/>
@@ -8557,8 +8574,8 @@
       <c r="AH58" s="46"/>
       <c r="AI58" s="47"/>
       <c r="AJ58" s="47"/>
-      <c r="AK58" s="46"/>
-      <c r="AL58" s="46"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="58"/>
       <c r="AM58" s="47"/>
       <c r="AN58" s="47"/>
       <c r="AO58" s="47"/>
@@ -8671,8 +8688,8 @@
       <c r="AH59" s="43"/>
       <c r="AI59" s="44"/>
       <c r="AJ59" s="44"/>
-      <c r="AK59" s="43"/>
-      <c r="AL59" s="43"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
       <c r="AM59" s="44"/>
       <c r="AN59" s="44"/>
       <c r="AO59" s="44"/>
@@ -8787,8 +8804,8 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="40"/>
       <c r="AJ60" s="40"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
+      <c r="AK60" s="62"/>
+      <c r="AL60" s="62"/>
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
       <c r="AO60" s="40"/>
@@ -8911,8 +8928,8 @@
       <c r="AH61" s="55"/>
       <c r="AI61" s="47"/>
       <c r="AJ61" s="47"/>
-      <c r="AK61" s="46"/>
-      <c r="AL61" s="46"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="58"/>
       <c r="AM61" s="47"/>
       <c r="AN61" s="47"/>
       <c r="AO61" s="47"/>
@@ -9027,8 +9044,8 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="40"/>
       <c r="AJ62" s="40"/>
-      <c r="AK62" s="39"/>
-      <c r="AL62" s="39"/>
+      <c r="AK62" s="62"/>
+      <c r="AL62" s="62"/>
       <c r="AM62" s="40"/>
       <c r="AN62" s="40"/>
       <c r="AO62" s="40"/>
@@ -9151,8 +9168,8 @@
       <c r="AH63" s="55"/>
       <c r="AI63" s="47"/>
       <c r="AJ63" s="47"/>
-      <c r="AK63" s="46"/>
-      <c r="AL63" s="46"/>
+      <c r="AK63" s="58"/>
+      <c r="AL63" s="58"/>
       <c r="AM63" s="47"/>
       <c r="AN63" s="47"/>
       <c r="AO63" s="47"/>
@@ -9261,8 +9278,8 @@
       <c r="AH64" s="46"/>
       <c r="AI64" s="47"/>
       <c r="AJ64" s="47"/>
-      <c r="AK64" s="46"/>
-      <c r="AL64" s="46"/>
+      <c r="AK64" s="58"/>
+      <c r="AL64" s="58"/>
       <c r="AM64" s="47"/>
       <c r="AN64" s="47"/>
       <c r="AO64" s="47"/>
@@ -9375,8 +9392,8 @@
       <c r="AH65" s="43"/>
       <c r="AI65" s="44"/>
       <c r="AJ65" s="44"/>
-      <c r="AK65" s="43"/>
-      <c r="AL65" s="43"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
       <c r="AM65" s="44"/>
       <c r="AN65" s="44"/>
       <c r="AO65" s="44"/>
@@ -9493,8 +9510,8 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="40"/>
       <c r="AJ66" s="40"/>
-      <c r="AK66" s="39"/>
-      <c r="AL66" s="39"/>
+      <c r="AK66" s="62"/>
+      <c r="AL66" s="62"/>
       <c r="AM66" s="40"/>
       <c r="AN66" s="40"/>
       <c r="AO66" s="40"/>
@@ -9615,8 +9632,8 @@
         <v>3.5</v>
       </c>
       <c r="AJ67" s="55"/>
-      <c r="AK67" s="46"/>
-      <c r="AL67" s="46"/>
+      <c r="AK67" s="58"/>
+      <c r="AL67" s="58"/>
       <c r="AM67" s="47"/>
       <c r="AN67" s="47"/>
       <c r="AO67" s="47"/>
@@ -9725,8 +9742,8 @@
       <c r="AH68" s="46"/>
       <c r="AI68" s="47"/>
       <c r="AJ68" s="47"/>
-      <c r="AK68" s="46"/>
-      <c r="AL68" s="46"/>
+      <c r="AK68" s="58"/>
+      <c r="AL68" s="58"/>
       <c r="AM68" s="47"/>
       <c r="AN68" s="47"/>
       <c r="AO68" s="47"/>
@@ -9835,8 +9852,8 @@
       <c r="AH69" s="46"/>
       <c r="AI69" s="47"/>
       <c r="AJ69" s="47"/>
-      <c r="AK69" s="46"/>
-      <c r="AL69" s="46"/>
+      <c r="AK69" s="58"/>
+      <c r="AL69" s="58"/>
       <c r="AM69" s="47"/>
       <c r="AN69" s="47"/>
       <c r="AO69" s="47"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391DC534-B14F-4834-BC07-57EBE38500D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C77E9-3B99-454E-9F27-95A1523DEC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -581,6 +581,99 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,99 +696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,10 +1067,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BS22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BV13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AK32" sqref="AK32:AL32"/>
+      <selection pane="bottomRight" activeCell="BY32" sqref="BY32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1093,221 +1093,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="24" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="26">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="57">
         <v>44498</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="27">
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="58">
         <v>44498</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BD1" s="29" t="s">
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BD1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="26">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="57">
         <v>44537</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="24" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="28" t="s">
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BD2" s="31" t="s">
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BD2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="34" t="s">
+      <c r="BD3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33" t="s">
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33" t="s">
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="32" t="s">
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
       <c r="AQ4" s="2">
         <f>AU1</f>
         <v>44498</v>
@@ -1568,60 +1568,60 @@
       <c r="DD4" s="6"/>
     </row>
     <row r="5" spans="1:108" s="9" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33" t="s">
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33" t="s">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33" t="s">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33" t="s">
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
       <c r="AQ5" s="7">
         <f>AU1</f>
         <v>44498</v>
@@ -1880,48 +1880,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
       <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2188,46 +2188,46 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
@@ -2319,31 +2319,31 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="14"/>
       <c r="AS8" s="14"/>
@@ -2422,64 +2422,64 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="48" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="50">
+      <c r="U9" s="46">
         <v>44498</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46">
         <v>44498</v>
       </c>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50">
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46">
         <v>44498</v>
       </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50">
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46">
         <v>44498</v>
       </c>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51">
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="47">
         <v>1</v>
       </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51">
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47">
         <v>1</v>
       </c>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="52">
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="48">
         <v>1</v>
       </c>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="53" t="s">
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="14"/>
       <c r="AS9" s="14"/>
@@ -2552,44 +2552,44 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
@@ -2664,46 +2664,46 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
@@ -2795,31 +2795,31 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
@@ -2898,64 +2898,64 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="48" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="53" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54">
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="42">
         <v>44501</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42">
         <v>44501</v>
       </c>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42">
         <v>44501</v>
       </c>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54">
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42">
         <v>44518</v>
       </c>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55">
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28">
         <v>2</v>
       </c>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56">
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="45">
         <v>1</v>
       </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="53" t="s">
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -3034,64 +3034,64 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="48" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="53" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54">
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="42">
         <v>44501</v>
       </c>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54">
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42">
         <v>44501</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54">
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42">
         <v>44501</v>
       </c>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54">
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42">
         <v>44525</v>
       </c>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="55">
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55">
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="56">
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="45">
         <v>1</v>
       </c>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -3183,31 +3183,31 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
@@ -3286,64 +3286,64 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="48" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="53" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54">
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="42">
         <v>44502</v>
       </c>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54">
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42">
         <v>44502</v>
       </c>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42">
         <v>44501</v>
       </c>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54">
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42">
         <v>44531</v>
       </c>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="55">
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55">
-        <v>11.1</v>
-      </c>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="56">
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28">
+        <v>11.4</v>
+      </c>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="45">
         <v>1</v>
       </c>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="53" t="s">
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -3384,7 +3384,7 @@
       <c r="CB16" s="14"/>
       <c r="CC16" s="15"/>
       <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
+      <c r="CE16" s="17"/>
       <c r="CF16" s="15"/>
       <c r="CG16" s="15"/>
       <c r="CH16" s="14"/>
@@ -3435,31 +3435,31 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
@@ -3538,64 +3538,64 @@
       <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="48" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="53" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54">
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="42">
         <v>44501</v>
       </c>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54">
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42">
         <v>44504</v>
       </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54">
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42">
         <v>44504</v>
       </c>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="57">
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43">
         <v>44525</v>
       </c>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="55">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55">
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="56">
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="45">
         <v>1</v>
       </c>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="53" t="s">
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
@@ -3674,64 +3674,64 @@
       <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="48" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="53" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54">
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="42">
         <v>44504</v>
       </c>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54">
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42">
         <v>44504</v>
       </c>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54">
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42">
         <v>44504</v>
       </c>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="57">
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43">
         <v>44525</v>
       </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="55">
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55">
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56">
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="45">
         <v>1</v>
       </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3810,64 +3810,64 @@
       <c r="D20" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="48" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="53" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54">
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="42">
         <v>44504</v>
       </c>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54">
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42">
         <v>44505</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54">
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42">
         <v>44505</v>
       </c>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="57">
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43">
         <v>44525</v>
       </c>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="55">
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55">
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="56">
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="45">
         <v>1</v>
       </c>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="53" t="s">
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
@@ -3946,64 +3946,64 @@
       <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="48" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="53" t="s">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54">
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="42">
         <v>44504</v>
       </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54">
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42">
         <v>44505</v>
       </c>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54">
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42">
         <v>44505</v>
       </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="57">
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43">
         <v>44528</v>
       </c>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="55">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55">
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56">
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="45">
         <v>1</v>
       </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="15"/>
       <c r="AR21" s="14"/>
       <c r="AS21" s="14"/>
@@ -4082,64 +4082,64 @@
       <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="48" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="53" t="s">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="42">
         <v>44504</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54">
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42">
         <v>44505</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54">
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42">
         <v>44505</v>
       </c>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="57">
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43">
         <v>44528</v>
       </c>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="55">
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55">
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="60">
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="44">
         <v>1</v>
       </c>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="53" t="s">
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
@@ -4218,64 +4218,64 @@
       <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="48" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="53" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54">
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="42">
         <v>44504</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54">
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42">
         <v>44504</v>
       </c>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54">
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42">
         <v>44504</v>
       </c>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="57">
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43">
         <v>44529</v>
       </c>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="55">
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55">
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="60">
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="44">
         <v>1</v>
       </c>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="53" t="s">
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
@@ -4348,44 +4348,44 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
       <c r="AQ24" s="15"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -4460,46 +4460,46 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
@@ -4591,31 +4591,31 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
@@ -4694,64 +4694,64 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="48" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="53" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54">
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="42">
         <v>44505</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54">
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42">
         <v>44505</v>
       </c>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="57">
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43">
         <v>44508</v>
       </c>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="57">
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="43">
         <v>44533</v>
       </c>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="55">
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="28">
         <v>1</v>
       </c>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55">
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="60">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="44">
         <v>1</v>
       </c>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="53" t="s">
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
@@ -4830,62 +4830,62 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="48" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="53" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="42">
         <v>44505</v>
       </c>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54">
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42">
         <v>44505</v>
       </c>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="57">
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="43">
         <v>44536</v>
       </c>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="55">
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="47">
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="24">
         <v>0.4</v>
       </c>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="58">
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="26">
         <v>0.9</v>
       </c>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="47" t="s">
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
       <c r="AQ28" s="15"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
@@ -4964,62 +4964,62 @@
       <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="48" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="53" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54">
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="42">
         <v>44508</v>
       </c>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54">
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42">
         <v>44508</v>
       </c>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="57">
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="43">
         <v>44536</v>
       </c>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="55">
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="58">
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="26">
         <v>0.9</v>
       </c>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="47" t="s">
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
       <c r="AQ29" s="15"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
@@ -5060,7 +5060,7 @@
       <c r="CB29" s="14"/>
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
-      <c r="CE29" s="15"/>
+      <c r="CE29" s="17"/>
       <c r="CF29" s="15"/>
       <c r="CG29" s="15"/>
       <c r="CH29" s="14"/>
@@ -5098,62 +5098,62 @@
       <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="48" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="53" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="42">
         <v>44508</v>
       </c>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54">
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42">
         <v>44508</v>
       </c>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="57">
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="43">
         <v>44537</v>
       </c>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="55">
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="47" t="s">
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
       <c r="AQ30" s="15"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
@@ -5194,7 +5194,7 @@
       <c r="CB30" s="14"/>
       <c r="CC30" s="15"/>
       <c r="CD30" s="17"/>
-      <c r="CE30" s="15"/>
+      <c r="CE30" s="17"/>
       <c r="CF30" s="15"/>
       <c r="CG30" s="15"/>
       <c r="CH30" s="14"/>
@@ -5232,54 +5232,60 @@
       <c r="D31" s="20">
         <v>5</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="48" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="53" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54">
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="42">
         <v>44509</v>
       </c>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54">
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42">
         <v>44509</v>
       </c>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="55">
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
       <c r="AQ31" s="15"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
@@ -5320,7 +5326,7 @@
       <c r="CB31" s="14"/>
       <c r="CC31" s="15"/>
       <c r="CD31" s="15"/>
-      <c r="CE31" s="15"/>
+      <c r="CE31" s="17"/>
       <c r="CF31" s="15"/>
       <c r="CG31" s="15"/>
       <c r="CH31" s="14"/>
@@ -5358,54 +5364,54 @@
       <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="48" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="53" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54">
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="42">
         <v>44509</v>
       </c>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54">
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42">
         <v>44509</v>
       </c>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="55">
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -5478,44 +5484,44 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
       <c r="AQ33" s="15"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5590,46 +5596,46 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="14"/>
@@ -5721,31 +5727,31 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
@@ -5824,54 +5830,54 @@
       <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="48" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="53" t="s">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="54">
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="42">
         <v>44510</v>
       </c>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54">
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42">
         <v>44510</v>
       </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="55">
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="28">
         <v>1</v>
       </c>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="58"/>
-      <c r="AL36" s="58"/>
-      <c r="AM36" s="47"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
       <c r="AQ36" s="15"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="14"/>
@@ -5950,54 +5956,54 @@
       <c r="D37" s="20">
         <v>2</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="48" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="53" t="s">
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="54">
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="42">
         <v>44511</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54">
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42">
         <v>44511</v>
       </c>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="55">
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="58"/>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="14"/>
       <c r="AS37" s="14"/>
@@ -6076,54 +6082,54 @@
       <c r="D38" s="20">
         <v>3</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="48" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="53" t="s">
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54">
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="42">
         <v>44511</v>
       </c>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54">
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42">
         <v>44512</v>
       </c>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="55">
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="28">
         <v>1</v>
       </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
       <c r="AQ38" s="15"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
@@ -6202,54 +6208,54 @@
       <c r="D39" s="20">
         <v>4</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="48" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="53" t="s">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="54">
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="42">
         <v>44512</v>
       </c>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54">
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42">
         <v>44515</v>
       </c>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="55">
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="28">
         <v>1</v>
       </c>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="15"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -6328,54 +6334,54 @@
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="48" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="53" t="s">
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="54">
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="42">
         <v>44515</v>
       </c>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54">
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42">
         <v>44516</v>
       </c>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="55">
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="28">
         <v>1</v>
       </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
       <c r="AQ40" s="15"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6454,54 +6460,54 @@
       <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="48" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="53" t="s">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54">
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="42">
         <v>44516</v>
       </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54">
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42">
         <v>44517</v>
       </c>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="55">
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="28">
         <v>1</v>
       </c>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
@@ -6574,44 +6580,44 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
       <c r="AQ42" s="15"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
@@ -6686,46 +6692,46 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -6817,31 +6823,31 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="40"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="33"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="14"/>
@@ -6920,54 +6926,54 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="48" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="53" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="54">
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="42">
         <v>44517</v>
       </c>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54">
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42">
         <v>44517</v>
       </c>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="55">
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="47"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7046,54 +7052,54 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="48" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="53" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="54">
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="42">
         <v>44517</v>
       </c>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54">
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42">
         <v>44517</v>
       </c>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="55">
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="47"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="47"/>
-      <c r="AO46" s="47"/>
-      <c r="AP46" s="47"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7172,54 +7178,54 @@
       <c r="D47" s="20">
         <v>3</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="48" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="53" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="54">
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="42">
         <v>44517</v>
       </c>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54">
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42">
         <v>44517</v>
       </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="55">
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="47"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="58"/>
-      <c r="AL47" s="58"/>
-      <c r="AM47" s="47"/>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="47"/>
-      <c r="AP47" s="47"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7298,54 +7304,54 @@
       <c r="D48" s="20">
         <v>4</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="48" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="53" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="54">
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="42">
         <v>44518</v>
       </c>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54">
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42">
         <v>44518</v>
       </c>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="55">
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="58"/>
-      <c r="AL48" s="58"/>
-      <c r="AM48" s="47"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7424,54 +7430,54 @@
       <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="48" t="s">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="53" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54">
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="42">
         <v>44518</v>
       </c>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54">
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42">
         <v>44518</v>
       </c>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="55">
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="24"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7550,54 +7556,54 @@
       <c r="D50" s="20">
         <v>6</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="48" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="53" t="s">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="54">
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="42">
         <v>44518</v>
       </c>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54">
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42">
         <v>44518</v>
       </c>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="47"/>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-      <c r="AG50" s="55">
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="47"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="47"/>
-      <c r="AN50" s="47"/>
-      <c r="AO50" s="47"/>
-      <c r="AP50" s="47"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="24"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -7689,31 +7695,31 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="62"/>
-      <c r="AM51" s="40"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="40"/>
-      <c r="AP51" s="40"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
@@ -7792,54 +7798,54 @@
       <c r="D52" s="20">
         <v>1</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="48" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="53" t="s">
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="54">
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="42">
         <v>44519</v>
       </c>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54">
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42">
         <v>44519</v>
       </c>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="55">
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="28">
         <v>1</v>
       </c>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="58"/>
-      <c r="AM52" s="47"/>
-      <c r="AN52" s="47"/>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="47"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="26"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
       <c r="AQ52" s="15"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
@@ -7918,54 +7924,54 @@
       <c r="D53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="48" t="s">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="53" t="s">
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="54">
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="42">
         <v>44522</v>
       </c>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54">
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42">
         <v>44522</v>
       </c>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="47"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="55">
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="47"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="26"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
       <c r="AQ53" s="15"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -8044,54 +8050,54 @@
       <c r="D54" s="20">
         <v>3</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="48" t="s">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="53" t="s">
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="54">
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="42">
         <v>44522</v>
       </c>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54">
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42">
         <v>44524</v>
       </c>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="55">
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="28">
         <v>1</v>
       </c>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="58"/>
-      <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="47"/>
-      <c r="AP54" s="47"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
       <c r="AQ54" s="15"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
@@ -8170,54 +8176,54 @@
       <c r="D55" s="20">
         <v>4</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="48" t="s">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="53" t="s">
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="54">
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="42">
         <v>44524</v>
       </c>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54">
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42">
         <v>44525</v>
       </c>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="55">
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="28">
         <v>1</v>
       </c>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="58"/>
-      <c r="AL55" s="58"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
       <c r="AQ55" s="15"/>
       <c r="AR55" s="14"/>
       <c r="AS55" s="14"/>
@@ -8296,54 +8302,54 @@
       <c r="D56" s="20">
         <v>5</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="48" t="s">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="53" t="s">
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="54">
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="42">
         <v>44525</v>
       </c>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54">
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42">
         <v>44526</v>
       </c>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="55">
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="28">
         <v>1</v>
       </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="58"/>
-      <c r="AL56" s="58"/>
-      <c r="AM56" s="47"/>
-      <c r="AN56" s="47"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="14"/>
       <c r="AS56" s="14"/>
@@ -8422,54 +8428,54 @@
       <c r="D57" s="20">
         <v>6</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="48" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="53" t="s">
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="54">
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="42">
         <v>44526</v>
       </c>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54">
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42">
         <v>44529</v>
       </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="47"/>
-      <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="55">
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="28">
         <v>1</v>
       </c>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="47"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="58"/>
-      <c r="AL57" s="58"/>
-      <c r="AM57" s="47"/>
-      <c r="AN57" s="47"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="24"/>
+      <c r="AJ57" s="24"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="24"/>
+      <c r="AN57" s="24"/>
+      <c r="AO57" s="24"/>
+      <c r="AP57" s="24"/>
       <c r="AQ57" s="15"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="14"/>
@@ -8542,44 +8548,44 @@
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="46"/>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="46"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="47"/>
-      <c r="AD58" s="47"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="46"/>
-      <c r="AH58" s="46"/>
-      <c r="AI58" s="47"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="58"/>
-      <c r="AL58" s="58"/>
-      <c r="AM58" s="47"/>
-      <c r="AN58" s="47"/>
-      <c r="AO58" s="47"/>
-      <c r="AP58" s="47"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="24"/>
+      <c r="AJ58" s="24"/>
+      <c r="AK58" s="26"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="24"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="24"/>
       <c r="AQ58" s="15"/>
       <c r="AR58" s="14"/>
       <c r="AS58" s="14"/>
@@ -8654,46 +8660,46 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="44"/>
-      <c r="AD59" s="44"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="44"/>
-      <c r="AG59" s="43"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="44"/>
-      <c r="AJ59" s="44"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="44"/>
-      <c r="AN59" s="44"/>
-      <c r="AO59" s="44"/>
-      <c r="AP59" s="44"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="34"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="36"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="34"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
       <c r="AQ59" s="15"/>
       <c r="AR59" s="14"/>
       <c r="AS59" s="14"/>
@@ -8785,31 +8791,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-      <c r="AC60" s="40"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="62"/>
-      <c r="AL60" s="62"/>
-      <c r="AM60" s="40"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="40"/>
-      <c r="AP60" s="40"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
+      <c r="AE60" s="31"/>
+      <c r="AF60" s="31"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="31"/>
+      <c r="AJ60" s="31"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="31"/>
+      <c r="AN60" s="31"/>
+      <c r="AO60" s="31"/>
+      <c r="AP60" s="31"/>
       <c r="AQ60" s="15"/>
       <c r="AR60" s="14"/>
       <c r="AS60" s="14"/>
@@ -8886,54 +8892,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="48" t="s">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="53" t="s">
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="54">
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="42">
         <v>44539</v>
       </c>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54">
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42">
         <v>44540</v>
       </c>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="47"/>
-      <c r="AC61" s="47"/>
-      <c r="AD61" s="47"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="55">
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="47"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="58"/>
-      <c r="AL61" s="58"/>
-      <c r="AM61" s="47"/>
-      <c r="AN61" s="47"/>
-      <c r="AO61" s="47"/>
-      <c r="AP61" s="47"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="24"/>
+      <c r="AK61" s="26"/>
+      <c r="AL61" s="26"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="24"/>
+      <c r="AP61" s="24"/>
       <c r="AQ61" s="15"/>
       <c r="AR61" s="14"/>
       <c r="AS61" s="14"/>
@@ -9025,31 +9031,31 @@
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="62"/>
-      <c r="AL62" s="62"/>
-      <c r="AM62" s="40"/>
-      <c r="AN62" s="40"/>
-      <c r="AO62" s="40"/>
-      <c r="AP62" s="40"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="31"/>
+      <c r="AC62" s="31"/>
+      <c r="AD62" s="31"/>
+      <c r="AE62" s="31"/>
+      <c r="AF62" s="31"/>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="31"/>
+      <c r="AJ62" s="31"/>
+      <c r="AK62" s="33"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="31"/>
+      <c r="AN62" s="31"/>
+      <c r="AO62" s="31"/>
+      <c r="AP62" s="31"/>
       <c r="AQ62" s="15"/>
       <c r="AR62" s="14"/>
       <c r="AS62" s="14"/>
@@ -9126,54 +9132,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="48" t="s">
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="53" t="s">
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="54">
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="42">
         <v>44543</v>
       </c>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54">
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42">
         <v>44543</v>
       </c>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="47"/>
-      <c r="AC63" s="47"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="55">
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="28">
         <v>1</v>
       </c>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="47"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="58"/>
-      <c r="AM63" s="47"/>
-      <c r="AN63" s="47"/>
-      <c r="AO63" s="47"/>
-      <c r="AP63" s="47"/>
+      <c r="AH63" s="28"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
       <c r="AQ63" s="15"/>
       <c r="AR63" s="14"/>
       <c r="AS63" s="14"/>
@@ -9246,44 +9252,44 @@
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
-      <c r="AD64" s="47"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="46"/>
-      <c r="AH64" s="46"/>
-      <c r="AI64" s="47"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="58"/>
-      <c r="AL64" s="58"/>
-      <c r="AM64" s="47"/>
-      <c r="AN64" s="47"/>
-      <c r="AO64" s="47"/>
-      <c r="AP64" s="47"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="24"/>
+      <c r="AJ64" s="24"/>
+      <c r="AK64" s="26"/>
+      <c r="AL64" s="26"/>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="24"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
       <c r="AQ64" s="15"/>
       <c r="AR64" s="14"/>
       <c r="AS64" s="14"/>
@@ -9358,46 +9364,46 @@
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="43"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="61"/>
-      <c r="AL65" s="61"/>
-      <c r="AM65" s="44"/>
-      <c r="AN65" s="44"/>
-      <c r="AO65" s="44"/>
-      <c r="AP65" s="44"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="36"/>
+      <c r="AL65" s="36"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
       <c r="AQ65" s="15"/>
       <c r="AR65" s="14"/>
       <c r="AS65" s="14"/>
@@ -9489,33 +9495,33 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="59" t="s">
+      <c r="R66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="40"/>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="39"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="62"/>
-      <c r="AL66" s="62"/>
-      <c r="AM66" s="40"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="40"/>
-      <c r="AP66" s="40"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="31"/>
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="32"/>
+      <c r="AI66" s="31"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33"/>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="31"/>
       <c r="AQ66" s="15"/>
       <c r="AR66" s="14"/>
       <c r="AS66" s="14"/>
@@ -9594,50 +9600,50 @@
       <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="48" t="s">
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="53" t="s">
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="46"/>
-      <c r="AH67" s="46"/>
-      <c r="AI67" s="55">
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="28">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="55"/>
-      <c r="AK67" s="58"/>
-      <c r="AL67" s="58"/>
-      <c r="AM67" s="47"/>
-      <c r="AN67" s="47"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
       <c r="AQ67" s="15"/>
       <c r="AR67" s="14"/>
       <c r="AS67" s="14"/>
@@ -9710,44 +9716,44 @@
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="46"/>
-      <c r="Y68" s="46"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="46"/>
-      <c r="AH68" s="46"/>
-      <c r="AI68" s="47"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="58"/>
-      <c r="AL68" s="58"/>
-      <c r="AM68" s="47"/>
-      <c r="AN68" s="47"/>
-      <c r="AO68" s="47"/>
-      <c r="AP68" s="47"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="25"/>
+      <c r="AH68" s="25"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="26"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="24"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="14"/>
       <c r="AS68" s="14"/>
@@ -9820,44 +9826,44 @@
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
-      <c r="X69" s="46"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="46"/>
-      <c r="AH69" s="46"/>
-      <c r="AI69" s="47"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="58"/>
-      <c r="AL69" s="58"/>
-      <c r="AM69" s="47"/>
-      <c r="AN69" s="47"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="26"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
       <c r="AQ69" s="15"/>
       <c r="AR69" s="14"/>
       <c r="AS69" s="14"/>
@@ -9946,699 +9952,22 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -10656,22 +9985,699 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C77E9-3B99-454E-9F27-95A1523DEC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F968E-E749-4032-A208-2D8E8033D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -581,99 +581,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,6 +604,99 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1067,10 +1067,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BV13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="BV16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BY32" sqref="BY32"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1093,221 +1093,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="55" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="57">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="26">
         <v>44498</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="58" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="59" t="s">
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="58">
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="27">
         <v>44498</v>
       </c>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BD1" s="60" t="s">
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BD1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="55" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="57">
-        <v>44537</v>
-      </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="55" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="26">
+        <v>44539</v>
+      </c>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="59" t="s">
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BD2" s="62" t="s">
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BD2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="52" t="s">
+      <c r="BD3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51" t="s">
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51" t="s">
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="54" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="50" t="s">
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
       <c r="AQ4" s="2">
         <f>AU1</f>
         <v>44498</v>
@@ -1568,60 +1568,60 @@
       <c r="DD4" s="6"/>
     </row>
     <row r="5" spans="1:108" s="9" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51" t="s">
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51" t="s">
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51" t="s">
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51" t="s">
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
       <c r="AQ5" s="7">
         <f>AU1</f>
         <v>44498</v>
@@ -1880,48 +1880,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
       <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2188,46 +2188,46 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
@@ -2319,31 +2319,31 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="14"/>
       <c r="AS8" s="14"/>
@@ -2422,64 +2422,64 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="46">
+      <c r="U9" s="50">
         <v>44498</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46">
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50">
         <v>44498</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46">
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50">
         <v>44498</v>
       </c>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46">
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50">
         <v>44498</v>
       </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="47">
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51">
         <v>1</v>
       </c>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47">
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51">
         <v>1</v>
       </c>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="48">
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="52">
         <v>1</v>
       </c>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="14"/>
       <c r="AS9" s="14"/>
@@ -2552,44 +2552,44 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
@@ -2664,46 +2664,46 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
@@ -2795,31 +2795,31 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
@@ -2898,64 +2898,64 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="42">
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54">
         <v>44501</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42">
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54">
         <v>44501</v>
       </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42">
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54">
         <v>44501</v>
       </c>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42">
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54">
         <v>44518</v>
       </c>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="28">
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28">
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55">
         <v>2</v>
       </c>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="45">
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56">
         <v>1</v>
       </c>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="30" t="s">
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -3034,64 +3034,64 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="29" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="42">
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54">
         <v>44501</v>
       </c>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42">
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54">
         <v>44501</v>
       </c>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42">
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54">
         <v>44501</v>
       </c>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42">
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54">
         <v>44525</v>
       </c>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="28">
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28">
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="45">
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="56">
         <v>1</v>
       </c>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="30" t="s">
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -3183,31 +3183,31 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
@@ -3286,64 +3286,64 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="42">
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54">
         <v>44502</v>
       </c>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42">
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54">
         <v>44502</v>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42">
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54">
         <v>44501</v>
       </c>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42">
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54">
         <v>44531</v>
       </c>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="28">
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28">
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55">
         <v>11.4</v>
       </c>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="45">
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="56">
         <v>1</v>
       </c>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="30" t="s">
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -3435,31 +3435,31 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
@@ -3538,64 +3538,64 @@
       <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="42">
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54">
         <v>44501</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42">
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54">
         <v>44504</v>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42">
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54">
         <v>44504</v>
       </c>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="43">
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="57">
         <v>44525</v>
       </c>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="28">
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28">
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="45">
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="56">
         <v>1</v>
       </c>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="30" t="s">
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
@@ -3674,64 +3674,64 @@
       <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="42">
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54">
         <v>44504</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42">
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54">
         <v>44504</v>
       </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42">
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54">
         <v>44504</v>
       </c>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43">
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="57">
         <v>44525</v>
       </c>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="28">
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28">
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="45">
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56">
         <v>1</v>
       </c>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="30" t="s">
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3810,64 +3810,64 @@
       <c r="D20" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="42">
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="54">
         <v>44504</v>
       </c>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42">
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54">
         <v>44505</v>
       </c>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42">
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54">
         <v>44505</v>
       </c>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43">
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="57">
         <v>44525</v>
       </c>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="28">
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28">
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="45">
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="56">
         <v>1</v>
       </c>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="30" t="s">
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
@@ -3946,64 +3946,64 @@
       <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="42">
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54">
         <v>44504</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42">
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54">
         <v>44505</v>
       </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42">
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54">
         <v>44505</v>
       </c>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43">
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="57">
         <v>44528</v>
       </c>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="28">
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28">
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="45">
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="56">
         <v>1</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="30" t="s">
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
       <c r="AQ21" s="15"/>
       <c r="AR21" s="14"/>
       <c r="AS21" s="14"/>
@@ -4082,64 +4082,64 @@
       <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="42">
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54">
         <v>44504</v>
       </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42">
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54">
         <v>44505</v>
       </c>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42">
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54">
         <v>44505</v>
       </c>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43">
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="57">
         <v>44528</v>
       </c>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="28">
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28">
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="44">
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="58">
         <v>1</v>
       </c>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="30" t="s">
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
@@ -4218,64 +4218,64 @@
       <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30" t="s">
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="42">
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54">
         <v>44504</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42">
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54">
         <v>44504</v>
       </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42">
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54">
         <v>44504</v>
       </c>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43">
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="57">
         <v>44529</v>
       </c>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="28">
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28">
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="44">
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="58">
         <v>1</v>
       </c>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="30" t="s">
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
@@ -4348,44 +4348,44 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
       <c r="AQ24" s="15"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -4460,46 +4460,46 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
@@ -4591,31 +4591,31 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
@@ -4694,64 +4694,64 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="29" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30" t="s">
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="42">
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54">
         <v>44505</v>
       </c>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42">
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54">
         <v>44505</v>
       </c>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43">
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="57">
         <v>44508</v>
       </c>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="43">
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="57">
         <v>44533</v>
       </c>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="28">
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="55">
         <v>1</v>
       </c>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28">
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55">
         <v>3.3</v>
       </c>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="44">
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="58">
         <v>1</v>
       </c>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="30" t="s">
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
@@ -4830,62 +4830,62 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30" t="s">
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="42">
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="54">
         <v>44505</v>
       </c>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42">
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54">
         <v>44505</v>
       </c>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="43">
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="57">
         <v>44536</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="28">
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="24">
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="47">
         <v>0.4</v>
       </c>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="26">
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="59">
         <v>0.9</v>
       </c>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="24" t="s">
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
       <c r="AQ28" s="15"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
@@ -4964,62 +4964,62 @@
       <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="29" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30" t="s">
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="42">
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54">
         <v>44508</v>
       </c>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42">
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54">
         <v>44508</v>
       </c>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="43">
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="57">
         <v>44536</v>
       </c>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="28">
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="24">
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="47">
         <v>1.3</v>
       </c>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="26">
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="59">
         <v>0.9</v>
       </c>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="24" t="s">
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
       <c r="AQ29" s="15"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
@@ -5098,62 +5098,62 @@
       <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="42">
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54">
         <v>44508</v>
       </c>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42">
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54">
         <v>44508</v>
       </c>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="43">
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="57">
         <v>44537</v>
       </c>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="28">
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="24">
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="47">
         <v>0.9</v>
       </c>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="26">
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="59">
         <v>0.9</v>
       </c>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="24" t="s">
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
       <c r="AQ30" s="15"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
@@ -5232,60 +5232,62 @@
       <c r="D31" s="20">
         <v>5</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="42">
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="54">
         <v>44509</v>
       </c>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42">
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54">
         <v>44509</v>
       </c>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="28">
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="57">
+        <v>44538</v>
+      </c>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="24" t="s">
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
       <c r="AQ31" s="15"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
@@ -5364,54 +5366,62 @@
       <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30" t="s">
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="42">
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="54">
         <v>44509</v>
       </c>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42">
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54">
         <v>44509</v>
       </c>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="28">
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="57">
+        <v>44539</v>
+      </c>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -5453,7 +5463,7 @@
       <c r="CC32" s="15"/>
       <c r="CD32" s="15"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="15"/>
+      <c r="CF32" s="17"/>
       <c r="CG32" s="15"/>
       <c r="CH32" s="14"/>
       <c r="CI32" s="14"/>
@@ -5484,44 +5494,44 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
       <c r="AQ33" s="15"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5563,7 +5573,7 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="15"/>
+      <c r="CF33" s="17"/>
       <c r="CG33" s="15"/>
       <c r="CH33" s="14"/>
       <c r="CI33" s="14"/>
@@ -5596,46 +5606,46 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="14"/>
@@ -5727,31 +5737,31 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
@@ -5830,54 +5840,54 @@
       <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="29" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30" t="s">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="42">
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="54">
         <v>44510</v>
       </c>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42">
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54">
         <v>44510</v>
       </c>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="28">
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="55">
         <v>1</v>
       </c>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="15"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="14"/>
@@ -5956,54 +5966,54 @@
       <c r="D37" s="20">
         <v>2</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="29" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="42">
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="54">
         <v>44511</v>
       </c>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42">
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54">
         <v>44511</v>
       </c>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="28">
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="14"/>
       <c r="AS37" s="14"/>
@@ -6082,54 +6092,54 @@
       <c r="D38" s="20">
         <v>3</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="29" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30" t="s">
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="42">
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="54">
         <v>44511</v>
       </c>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42">
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54">
         <v>44512</v>
       </c>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="28">
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="55">
         <v>1</v>
       </c>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
       <c r="AQ38" s="15"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
@@ -6208,54 +6218,54 @@
       <c r="D39" s="20">
         <v>4</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="29" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="30" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="42">
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="54">
         <v>44512</v>
       </c>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42">
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54">
         <v>44515</v>
       </c>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="28">
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="55">
         <v>1</v>
       </c>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
       <c r="AQ39" s="15"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -6334,54 +6344,54 @@
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30" t="s">
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="42">
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="54">
         <v>44515</v>
       </c>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42">
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54">
         <v>44516</v>
       </c>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="28">
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="55">
         <v>1</v>
       </c>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
       <c r="AQ40" s="15"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6460,54 +6470,54 @@
       <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="30" t="s">
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="42">
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54">
         <v>44516</v>
       </c>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42">
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54">
         <v>44517</v>
       </c>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="28">
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="55">
         <v>1</v>
       </c>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
@@ -6580,44 +6590,44 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
       <c r="AQ42" s="15"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
@@ -6692,46 +6702,46 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
-      <c r="AP43" s="34"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -6823,31 +6833,31 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="40"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="40"/>
+      <c r="AP44" s="40"/>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="14"/>
@@ -6926,54 +6936,54 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="29" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="30" t="s">
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="42">
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="54">
         <v>44517</v>
       </c>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42">
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54">
         <v>44517</v>
       </c>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="28">
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="59"/>
+      <c r="AL45" s="59"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7052,54 +7062,54 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="29" t="s">
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30" t="s">
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="42">
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="54">
         <v>44517</v>
       </c>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42">
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54">
         <v>44517</v>
       </c>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="28">
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="59"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7178,54 +7188,54 @@
       <c r="D47" s="20">
         <v>3</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="29" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="30" t="s">
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="42">
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="54">
         <v>44517</v>
       </c>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42">
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54">
         <v>44517</v>
       </c>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="28">
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="59"/>
+      <c r="AL47" s="59"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7304,54 +7314,54 @@
       <c r="D48" s="20">
         <v>4</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="29" t="s">
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30" t="s">
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="42">
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="54">
         <v>44518</v>
       </c>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42">
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54">
         <v>44518</v>
       </c>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="28">
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="24"/>
-      <c r="AJ48" s="24"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="59"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7430,54 +7440,54 @@
       <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="29" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="30" t="s">
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="42">
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54">
         <v>44518</v>
       </c>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42">
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54">
         <v>44518</v>
       </c>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="28">
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="59"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7556,54 +7566,54 @@
       <c r="D50" s="20">
         <v>6</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="29" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30" t="s">
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="42">
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="54">
         <v>44518</v>
       </c>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42">
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54">
         <v>44518</v>
       </c>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="28">
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -7695,31 +7705,31 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="40"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="40"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="40"/>
+      <c r="AP51" s="40"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
@@ -7798,54 +7808,54 @@
       <c r="D52" s="20">
         <v>1</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="29" t="s">
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30" t="s">
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="42">
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="54">
         <v>44519</v>
       </c>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42">
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54">
         <v>44519</v>
       </c>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="24"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="28">
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="55">
         <v>1</v>
       </c>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="26"/>
-      <c r="AL52" s="26"/>
-      <c r="AM52" s="24"/>
-      <c r="AN52" s="24"/>
-      <c r="AO52" s="24"/>
-      <c r="AP52" s="24"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
       <c r="AQ52" s="15"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
@@ -7924,54 +7934,54 @@
       <c r="D53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="29" t="s">
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="30" t="s">
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="42">
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="54">
         <v>44522</v>
       </c>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42">
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54">
         <v>44522</v>
       </c>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="28">
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="26"/>
-      <c r="AL53" s="26"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="24"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
       <c r="AQ53" s="15"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -8050,54 +8060,54 @@
       <c r="D54" s="20">
         <v>3</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="29" t="s">
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="30" t="s">
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="42">
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="54">
         <v>44522</v>
       </c>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42">
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54">
         <v>44524</v>
       </c>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="28">
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="55">
         <v>1</v>
       </c>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="24"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="47"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
       <c r="AQ54" s="15"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
@@ -8176,54 +8186,54 @@
       <c r="D55" s="20">
         <v>4</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="29" t="s">
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="30" t="s">
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="42">
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="54">
         <v>44524</v>
       </c>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42">
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54">
         <v>44525</v>
       </c>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="24"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="28">
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="55">
         <v>1</v>
       </c>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="26"/>
-      <c r="AL55" s="26"/>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="24"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
       <c r="AQ55" s="15"/>
       <c r="AR55" s="14"/>
       <c r="AS55" s="14"/>
@@ -8302,54 +8312,54 @@
       <c r="D56" s="20">
         <v>5</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="29" t="s">
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="30" t="s">
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="42">
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="54">
         <v>44525</v>
       </c>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42">
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54">
         <v>44526</v>
       </c>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="28">
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="55">
         <v>1</v>
       </c>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="24"/>
-      <c r="AN56" s="24"/>
-      <c r="AO56" s="24"/>
-      <c r="AP56" s="24"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="47"/>
+      <c r="AN56" s="47"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="14"/>
       <c r="AS56" s="14"/>
@@ -8428,54 +8438,54 @@
       <c r="D57" s="20">
         <v>6</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="29" t="s">
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="30" t="s">
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="42">
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54">
         <v>44526</v>
       </c>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42">
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54">
         <v>44529</v>
       </c>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="24"/>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="24"/>
-      <c r="AE57" s="24"/>
-      <c r="AF57" s="24"/>
-      <c r="AG57" s="28">
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="55">
         <v>1</v>
       </c>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="24"/>
-      <c r="AJ57" s="24"/>
-      <c r="AK57" s="26"/>
-      <c r="AL57" s="26"/>
-      <c r="AM57" s="24"/>
-      <c r="AN57" s="24"/>
-      <c r="AO57" s="24"/>
-      <c r="AP57" s="24"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="47"/>
+      <c r="AN57" s="47"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="47"/>
       <c r="AQ57" s="15"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="14"/>
@@ -8548,44 +8558,44 @@
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="25"/>
-      <c r="AH58" s="25"/>
-      <c r="AI58" s="24"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="26"/>
-      <c r="AL58" s="26"/>
-      <c r="AM58" s="24"/>
-      <c r="AN58" s="24"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="24"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="47"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
       <c r="AQ58" s="15"/>
       <c r="AR58" s="14"/>
       <c r="AS58" s="14"/>
@@ -8660,46 +8670,46 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
-      <c r="AD59" s="34"/>
-      <c r="AE59" s="34"/>
-      <c r="AF59" s="34"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="34"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="34"/>
-      <c r="AN59" s="34"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="34"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44"/>
+      <c r="AO59" s="44"/>
+      <c r="AP59" s="44"/>
       <c r="AQ59" s="15"/>
       <c r="AR59" s="14"/>
       <c r="AS59" s="14"/>
@@ -8791,31 +8801,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="31"/>
-      <c r="AF60" s="31"/>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="31"/>
-      <c r="AJ60" s="31"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="31"/>
-      <c r="AO60" s="31"/>
-      <c r="AP60" s="31"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
       <c r="AQ60" s="15"/>
       <c r="AR60" s="14"/>
       <c r="AS60" s="14"/>
@@ -8892,54 +8902,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="29" t="s">
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="30" t="s">
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="42">
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="54">
         <v>44539</v>
       </c>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42">
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54">
         <v>44540</v>
       </c>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="28">
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="24"/>
-      <c r="AJ61" s="24"/>
-      <c r="AK61" s="26"/>
-      <c r="AL61" s="26"/>
-      <c r="AM61" s="24"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="24"/>
-      <c r="AP61" s="24"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="47"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="59"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="47"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
       <c r="AQ61" s="15"/>
       <c r="AR61" s="14"/>
       <c r="AS61" s="14"/>
@@ -9031,31 +9041,31 @@
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="31"/>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="31"/>
-      <c r="AF62" s="31"/>
-      <c r="AG62" s="32"/>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="31"/>
-      <c r="AJ62" s="31"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="33"/>
-      <c r="AM62" s="31"/>
-      <c r="AN62" s="31"/>
-      <c r="AO62" s="31"/>
-      <c r="AP62" s="31"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="40"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="39"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="40"/>
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="40"/>
+      <c r="AP62" s="40"/>
       <c r="AQ62" s="15"/>
       <c r="AR62" s="14"/>
       <c r="AS62" s="14"/>
@@ -9132,54 +9142,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="29" t="s">
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="30" t="s">
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="42">
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="54">
         <v>44543</v>
       </c>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42">
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54">
         <v>44543</v>
       </c>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="28">
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="47"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="55">
         <v>1</v>
       </c>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="26"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="47"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="59"/>
+      <c r="AM63" s="47"/>
+      <c r="AN63" s="47"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
       <c r="AQ63" s="15"/>
       <c r="AR63" s="14"/>
       <c r="AS63" s="14"/>
@@ -9252,44 +9262,44 @@
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="25"/>
-      <c r="AH64" s="25"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="26"/>
-      <c r="AL64" s="26"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="47"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="59"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="47"/>
+      <c r="AN64" s="47"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
       <c r="AQ64" s="15"/>
       <c r="AR64" s="14"/>
       <c r="AS64" s="14"/>
@@ -9364,46 +9374,46 @@
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="34"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="34"/>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="36"/>
-      <c r="AL65" s="36"/>
-      <c r="AM65" s="34"/>
-      <c r="AN65" s="34"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="34"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
+      <c r="AM65" s="44"/>
+      <c r="AN65" s="44"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="44"/>
       <c r="AQ65" s="15"/>
       <c r="AR65" s="14"/>
       <c r="AS65" s="14"/>
@@ -9495,33 +9505,33 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="39" t="s">
+      <c r="R66" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-      <c r="AD66" s="31"/>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="31"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="33"/>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="31"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="40"/>
+      <c r="AD66" s="40"/>
+      <c r="AE66" s="40"/>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="60"/>
+      <c r="AM66" s="40"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="40"/>
+      <c r="AP66" s="40"/>
       <c r="AQ66" s="15"/>
       <c r="AR66" s="14"/>
       <c r="AS66" s="14"/>
@@ -9600,50 +9610,50 @@
       <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="29" t="s">
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="30" t="s">
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="25"/>
-      <c r="AH67" s="25"/>
-      <c r="AI67" s="28">
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="55">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="28"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="26"/>
-      <c r="AM67" s="24"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="24"/>
-      <c r="AP67" s="24"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="59"/>
+      <c r="AL67" s="59"/>
+      <c r="AM67" s="47"/>
+      <c r="AN67" s="47"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
       <c r="AQ67" s="15"/>
       <c r="AR67" s="14"/>
       <c r="AS67" s="14"/>
@@ -9716,44 +9726,44 @@
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="25"/>
-      <c r="AH68" s="25"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="24"/>
-      <c r="AK68" s="26"/>
-      <c r="AL68" s="26"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="24"/>
-      <c r="AO68" s="24"/>
-      <c r="AP68" s="24"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="47"/>
+      <c r="AN68" s="47"/>
+      <c r="AO68" s="47"/>
+      <c r="AP68" s="47"/>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="14"/>
       <c r="AS68" s="14"/>
@@ -9826,44 +9836,44 @@
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="25"/>
-      <c r="AH69" s="25"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="26"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="24"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="59"/>
+      <c r="AL69" s="59"/>
+      <c r="AM69" s="47"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
       <c r="AQ69" s="15"/>
       <c r="AR69" s="14"/>
       <c r="AS69" s="14"/>
@@ -9952,22 +9962,699 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -9985,699 +10672,22 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F968E-E749-4032-A208-2D8E8033D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70FE79-9593-4100-A830-255A6F2C5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -581,6 +581,99 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,99 +697,6 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="BV16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="CB25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
@@ -1093,221 +1093,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="24" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="26">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="57">
         <v>44498</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="27">
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="58">
         <v>44498</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BD1" s="29" t="s">
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BD1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="26">
-        <v>44539</v>
-      </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="24" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="57">
+        <v>44540</v>
+      </c>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="28" t="s">
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BD2" s="31" t="s">
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BD2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="34" t="s">
+      <c r="BD3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33" t="s">
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33" t="s">
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="32" t="s">
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
       <c r="AQ4" s="2">
         <f>AU1</f>
         <v>44498</v>
@@ -1568,60 +1568,60 @@
       <c r="DD4" s="6"/>
     </row>
     <row r="5" spans="1:108" s="9" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33" t="s">
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33" t="s">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33" t="s">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33" t="s">
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
       <c r="AQ5" s="7">
         <f>AU1</f>
         <v>44498</v>
@@ -1880,48 +1880,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
       <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2188,46 +2188,46 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
@@ -2319,31 +2319,31 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="14"/>
       <c r="AS8" s="14"/>
@@ -2422,64 +2422,64 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="48" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="50">
+      <c r="U9" s="46">
         <v>44498</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46">
         <v>44498</v>
       </c>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50">
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46">
         <v>44498</v>
       </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50">
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46">
         <v>44498</v>
       </c>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51">
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="47">
         <v>1</v>
       </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51">
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47">
         <v>1</v>
       </c>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="52">
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="48">
         <v>1</v>
       </c>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="53" t="s">
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="14"/>
       <c r="AS9" s="14"/>
@@ -2552,44 +2552,44 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
@@ -2664,46 +2664,46 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
@@ -2795,31 +2795,31 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
@@ -2898,64 +2898,64 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="48" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="53" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54">
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="42">
         <v>44501</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42">
         <v>44501</v>
       </c>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42">
         <v>44501</v>
       </c>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54">
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42">
         <v>44518</v>
       </c>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55">
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28">
         <v>2</v>
       </c>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56">
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="45">
         <v>1</v>
       </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="53" t="s">
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -3034,64 +3034,64 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="48" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="53" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54">
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="42">
         <v>44501</v>
       </c>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54">
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42">
         <v>44501</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54">
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42">
         <v>44501</v>
       </c>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54">
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42">
         <v>44525</v>
       </c>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="55">
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55">
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="56">
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="45">
         <v>1</v>
       </c>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -3183,31 +3183,31 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
@@ -3286,64 +3286,64 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="48" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="53" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54">
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="42">
         <v>44502</v>
       </c>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54">
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42">
         <v>44502</v>
       </c>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42">
         <v>44501</v>
       </c>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54">
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42">
         <v>44531</v>
       </c>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="55">
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55">
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28">
         <v>11.4</v>
       </c>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="56">
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="45">
         <v>1</v>
       </c>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="53" t="s">
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -3435,31 +3435,31 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
@@ -3538,64 +3538,64 @@
       <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="48" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="53" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54">
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="42">
         <v>44501</v>
       </c>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54">
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42">
         <v>44504</v>
       </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54">
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42">
         <v>44504</v>
       </c>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="57">
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43">
         <v>44525</v>
       </c>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="55">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55">
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="56">
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="45">
         <v>1</v>
       </c>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="53" t="s">
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
@@ -3674,64 +3674,64 @@
       <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="48" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="53" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54">
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="42">
         <v>44504</v>
       </c>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54">
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42">
         <v>44504</v>
       </c>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54">
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42">
         <v>44504</v>
       </c>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="57">
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43">
         <v>44525</v>
       </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="55">
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55">
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56">
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="45">
         <v>1</v>
       </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3810,64 +3810,64 @@
       <c r="D20" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="48" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="53" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54">
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="42">
         <v>44504</v>
       </c>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54">
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42">
         <v>44505</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54">
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42">
         <v>44505</v>
       </c>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="57">
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43">
         <v>44525</v>
       </c>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="55">
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55">
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="56">
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="45">
         <v>1</v>
       </c>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="53" t="s">
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
@@ -3946,64 +3946,64 @@
       <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="48" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="53" t="s">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54">
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="42">
         <v>44504</v>
       </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54">
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42">
         <v>44505</v>
       </c>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54">
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42">
         <v>44505</v>
       </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="57">
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43">
         <v>44528</v>
       </c>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="55">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55">
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56">
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="45">
         <v>1</v>
       </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="15"/>
       <c r="AR21" s="14"/>
       <c r="AS21" s="14"/>
@@ -4082,64 +4082,64 @@
       <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="48" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="53" t="s">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="42">
         <v>44504</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54">
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42">
         <v>44505</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54">
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42">
         <v>44505</v>
       </c>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="57">
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43">
         <v>44528</v>
       </c>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="55">
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55">
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="58">
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="44">
         <v>1</v>
       </c>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="53" t="s">
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
@@ -4218,64 +4218,64 @@
       <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="48" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="53" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54">
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="42">
         <v>44504</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54">
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42">
         <v>44504</v>
       </c>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54">
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42">
         <v>44504</v>
       </c>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="57">
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43">
         <v>44529</v>
       </c>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="55">
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55">
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="58">
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="44">
         <v>1</v>
       </c>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="53" t="s">
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
@@ -4348,44 +4348,44 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
       <c r="AQ24" s="15"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -4460,46 +4460,46 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
@@ -4591,31 +4591,31 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
@@ -4694,64 +4694,64 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="48" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="53" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54">
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="42">
         <v>44505</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54">
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42">
         <v>44505</v>
       </c>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="57">
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43">
         <v>44508</v>
       </c>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="57">
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="43">
         <v>44533</v>
       </c>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="55">
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="28">
         <v>1</v>
       </c>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55">
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="58">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="44">
         <v>1</v>
       </c>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="53" t="s">
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
@@ -4830,62 +4830,64 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="48" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="53" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="42">
         <v>44505</v>
       </c>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54">
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42">
         <v>44505</v>
       </c>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="57">
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="43">
         <v>44536</v>
       </c>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="55">
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="47">
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="24">
         <v>0.4</v>
       </c>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
       <c r="AQ28" s="15"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
@@ -4964,62 +4966,64 @@
       <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="48" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="53" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54">
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="42">
         <v>44508</v>
       </c>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54">
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42">
         <v>44508</v>
       </c>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="57">
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="43">
         <v>44536</v>
       </c>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="55">
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="47">
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="24">
         <v>1.3</v>
       </c>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="30"/>
       <c r="AQ29" s="15"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
@@ -5098,62 +5102,64 @@
       <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="48" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="53" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="42">
         <v>44508</v>
       </c>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54">
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42">
         <v>44508</v>
       </c>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="57">
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="43">
         <v>44537</v>
       </c>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="55">
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="47">
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="24">
         <v>0.9</v>
       </c>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
       <c r="AQ30" s="15"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
@@ -5232,62 +5238,64 @@
       <c r="D31" s="20">
         <v>5</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="48" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="53" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54">
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="42">
         <v>44509</v>
       </c>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54">
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42">
         <v>44509</v>
       </c>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="57">
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="43">
         <v>44538</v>
       </c>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="55">
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="47">
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="24">
         <v>0.8</v>
       </c>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
       <c r="AQ31" s="15"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
@@ -5329,7 +5337,7 @@
       <c r="CC31" s="15"/>
       <c r="CD31" s="15"/>
       <c r="CE31" s="17"/>
-      <c r="CF31" s="15"/>
+      <c r="CF31" s="17"/>
       <c r="CG31" s="15"/>
       <c r="CH31" s="14"/>
       <c r="CI31" s="14"/>
@@ -5366,62 +5374,64 @@
       <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="48" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="53" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54">
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="42">
         <v>44509</v>
       </c>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54">
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42">
         <v>44509</v>
       </c>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="57">
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="43">
         <v>44539</v>
       </c>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="55">
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="59">
-        <v>0.4</v>
-      </c>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -5464,7 +5474,7 @@
       <c r="CD32" s="15"/>
       <c r="CE32" s="15"/>
       <c r="CF32" s="17"/>
-      <c r="CG32" s="15"/>
+      <c r="CG32" s="17"/>
       <c r="CH32" s="14"/>
       <c r="CI32" s="14"/>
       <c r="CJ32" s="15"/>
@@ -5494,44 +5504,44 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
       <c r="AQ33" s="15"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5573,7 +5583,7 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="17"/>
+      <c r="CF33" s="15"/>
       <c r="CG33" s="15"/>
       <c r="CH33" s="14"/>
       <c r="CI33" s="14"/>
@@ -5606,46 +5616,46 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="14"/>
@@ -5737,31 +5747,31 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
@@ -5840,54 +5850,54 @@
       <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="48" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="53" t="s">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="54">
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="42">
         <v>44510</v>
       </c>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54">
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42">
         <v>44510</v>
       </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="55">
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="28">
         <v>1</v>
       </c>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="47"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
       <c r="AQ36" s="15"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="14"/>
@@ -5966,54 +5976,54 @@
       <c r="D37" s="20">
         <v>2</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="48" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="53" t="s">
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="54">
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="42">
         <v>44511</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54">
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42">
         <v>44511</v>
       </c>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="55">
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="14"/>
       <c r="AS37" s="14"/>
@@ -6092,54 +6102,54 @@
       <c r="D38" s="20">
         <v>3</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="48" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="53" t="s">
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54">
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="42">
         <v>44511</v>
       </c>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54">
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42">
         <v>44512</v>
       </c>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="55">
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="28">
         <v>1</v>
       </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
       <c r="AQ38" s="15"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
@@ -6218,54 +6228,54 @@
       <c r="D39" s="20">
         <v>4</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="48" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="53" t="s">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="54">
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="42">
         <v>44512</v>
       </c>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54">
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42">
         <v>44515</v>
       </c>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="55">
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="28">
         <v>1</v>
       </c>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="15"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -6344,54 +6354,54 @@
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="48" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="53" t="s">
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="54">
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="42">
         <v>44515</v>
       </c>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54">
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42">
         <v>44516</v>
       </c>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="55">
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="28">
         <v>1</v>
       </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
       <c r="AQ40" s="15"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6470,54 +6480,54 @@
       <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="48" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="53" t="s">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54">
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="42">
         <v>44516</v>
       </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54">
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42">
         <v>44517</v>
       </c>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="55">
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="28">
         <v>1</v>
       </c>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
@@ -6590,44 +6600,44 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="59"/>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
       <c r="AQ42" s="15"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
@@ -6702,46 +6712,46 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -6833,31 +6843,31 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="40"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="33"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="14"/>
@@ -6936,54 +6946,62 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="48" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="53" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="54">
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="42">
         <v>44517</v>
       </c>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54">
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42">
         <v>44517</v>
       </c>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="55">
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="43">
+        <v>44540</v>
+      </c>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="47"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="59"/>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7026,7 +7044,7 @@
       <c r="CD45" s="15"/>
       <c r="CE45" s="15"/>
       <c r="CF45" s="15"/>
-      <c r="CG45" s="15"/>
+      <c r="CG45" s="17"/>
       <c r="CH45" s="14"/>
       <c r="CI45" s="14"/>
       <c r="CJ45" s="15"/>
@@ -7062,54 +7080,54 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="48" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="53" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="54">
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="42">
         <v>44517</v>
       </c>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54">
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42">
         <v>44517</v>
       </c>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="55">
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="47"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="59"/>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="47"/>
-      <c r="AO46" s="47"/>
-      <c r="AP46" s="47"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7188,54 +7206,54 @@
       <c r="D47" s="20">
         <v>3</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="48" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="53" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="54">
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="42">
         <v>44517</v>
       </c>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54">
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42">
         <v>44517</v>
       </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="55">
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="47"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="59"/>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="47"/>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="47"/>
-      <c r="AP47" s="47"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7314,54 +7332,54 @@
       <c r="D48" s="20">
         <v>4</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="48" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="53" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="54">
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="42">
         <v>44518</v>
       </c>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54">
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42">
         <v>44518</v>
       </c>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="55">
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="59"/>
-      <c r="AL48" s="59"/>
-      <c r="AM48" s="47"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7440,54 +7458,54 @@
       <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="48" t="s">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="53" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54">
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="42">
         <v>44518</v>
       </c>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54">
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42">
         <v>44518</v>
       </c>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="55">
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="59"/>
-      <c r="AL49" s="59"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="24"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7566,54 +7584,54 @@
       <c r="D50" s="20">
         <v>6</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="48" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="53" t="s">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="54">
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="42">
         <v>44518</v>
       </c>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54">
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42">
         <v>44518</v>
       </c>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="47"/>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-      <c r="AG50" s="55">
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="47"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="59"/>
-      <c r="AL50" s="59"/>
-      <c r="AM50" s="47"/>
-      <c r="AN50" s="47"/>
-      <c r="AO50" s="47"/>
-      <c r="AP50" s="47"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="24"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -7705,31 +7723,31 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="40"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="40"/>
-      <c r="AP51" s="40"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
@@ -7808,54 +7826,54 @@
       <c r="D52" s="20">
         <v>1</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="48" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="53" t="s">
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="54">
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="42">
         <v>44519</v>
       </c>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54">
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42">
         <v>44519</v>
       </c>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="55">
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="28">
         <v>1</v>
       </c>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="47"/>
-      <c r="AN52" s="47"/>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="47"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="26"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
       <c r="AQ52" s="15"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
@@ -7934,54 +7952,54 @@
       <c r="D53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="48" t="s">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="53" t="s">
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="54">
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="42">
         <v>44522</v>
       </c>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54">
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42">
         <v>44522</v>
       </c>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="47"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="55">
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="59"/>
-      <c r="AL53" s="59"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="47"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="26"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
       <c r="AQ53" s="15"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -8060,54 +8078,54 @@
       <c r="D54" s="20">
         <v>3</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="48" t="s">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="53" t="s">
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="54">
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="42">
         <v>44522</v>
       </c>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54">
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42">
         <v>44524</v>
       </c>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="55">
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="28">
         <v>1</v>
       </c>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="59"/>
-      <c r="AL54" s="59"/>
-      <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="47"/>
-      <c r="AP54" s="47"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
       <c r="AQ54" s="15"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
@@ -8186,54 +8204,54 @@
       <c r="D55" s="20">
         <v>4</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="48" t="s">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="53" t="s">
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="54">
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="42">
         <v>44524</v>
       </c>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54">
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42">
         <v>44525</v>
       </c>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="55">
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="28">
         <v>1</v>
       </c>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="59"/>
-      <c r="AL55" s="59"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
       <c r="AQ55" s="15"/>
       <c r="AR55" s="14"/>
       <c r="AS55" s="14"/>
@@ -8312,54 +8330,54 @@
       <c r="D56" s="20">
         <v>5</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="48" t="s">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="53" t="s">
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="54">
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="42">
         <v>44525</v>
       </c>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54">
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42">
         <v>44526</v>
       </c>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="55">
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="28">
         <v>1</v>
       </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="47"/>
-      <c r="AN56" s="47"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="14"/>
       <c r="AS56" s="14"/>
@@ -8438,54 +8456,54 @@
       <c r="D57" s="20">
         <v>6</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="48" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="53" t="s">
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="54">
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="42">
         <v>44526</v>
       </c>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54">
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42">
         <v>44529</v>
       </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="47"/>
-      <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="55">
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="28">
         <v>1</v>
       </c>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="47"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="59"/>
-      <c r="AL57" s="59"/>
-      <c r="AM57" s="47"/>
-      <c r="AN57" s="47"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="24"/>
+      <c r="AJ57" s="24"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="24"/>
+      <c r="AN57" s="24"/>
+      <c r="AO57" s="24"/>
+      <c r="AP57" s="24"/>
       <c r="AQ57" s="15"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="14"/>
@@ -8558,44 +8576,44 @@
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="46"/>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="46"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="47"/>
-      <c r="AD58" s="47"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="46"/>
-      <c r="AH58" s="46"/>
-      <c r="AI58" s="47"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="59"/>
-      <c r="AL58" s="59"/>
-      <c r="AM58" s="47"/>
-      <c r="AN58" s="47"/>
-      <c r="AO58" s="47"/>
-      <c r="AP58" s="47"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="24"/>
+      <c r="AJ58" s="24"/>
+      <c r="AK58" s="26"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="24"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="24"/>
       <c r="AQ58" s="15"/>
       <c r="AR58" s="14"/>
       <c r="AS58" s="14"/>
@@ -8670,46 +8688,46 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="44"/>
-      <c r="AD59" s="44"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="44"/>
-      <c r="AG59" s="43"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="44"/>
-      <c r="AJ59" s="44"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="44"/>
-      <c r="AN59" s="44"/>
-      <c r="AO59" s="44"/>
-      <c r="AP59" s="44"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="34"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="36"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="34"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
       <c r="AQ59" s="15"/>
       <c r="AR59" s="14"/>
       <c r="AS59" s="14"/>
@@ -8801,31 +8819,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-      <c r="AC60" s="40"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="60"/>
-      <c r="AM60" s="40"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="40"/>
-      <c r="AP60" s="40"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
+      <c r="AE60" s="31"/>
+      <c r="AF60" s="31"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="31"/>
+      <c r="AJ60" s="31"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="31"/>
+      <c r="AN60" s="31"/>
+      <c r="AO60" s="31"/>
+      <c r="AP60" s="31"/>
       <c r="AQ60" s="15"/>
       <c r="AR60" s="14"/>
       <c r="AS60" s="14"/>
@@ -8902,54 +8920,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="48" t="s">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="53" t="s">
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="54">
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="42">
         <v>44539</v>
       </c>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54">
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42">
         <v>44540</v>
       </c>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="47"/>
-      <c r="AC61" s="47"/>
-      <c r="AD61" s="47"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="55">
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="47"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="59"/>
-      <c r="AL61" s="59"/>
-      <c r="AM61" s="47"/>
-      <c r="AN61" s="47"/>
-      <c r="AO61" s="47"/>
-      <c r="AP61" s="47"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="24"/>
+      <c r="AK61" s="26"/>
+      <c r="AL61" s="26"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="24"/>
+      <c r="AP61" s="24"/>
       <c r="AQ61" s="15"/>
       <c r="AR61" s="14"/>
       <c r="AS61" s="14"/>
@@ -9041,31 +9059,31 @@
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="60"/>
-      <c r="AL62" s="60"/>
-      <c r="AM62" s="40"/>
-      <c r="AN62" s="40"/>
-      <c r="AO62" s="40"/>
-      <c r="AP62" s="40"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="31"/>
+      <c r="AC62" s="31"/>
+      <c r="AD62" s="31"/>
+      <c r="AE62" s="31"/>
+      <c r="AF62" s="31"/>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="31"/>
+      <c r="AJ62" s="31"/>
+      <c r="AK62" s="33"/>
+      <c r="AL62" s="33"/>
+      <c r="AM62" s="31"/>
+      <c r="AN62" s="31"/>
+      <c r="AO62" s="31"/>
+      <c r="AP62" s="31"/>
       <c r="AQ62" s="15"/>
       <c r="AR62" s="14"/>
       <c r="AS62" s="14"/>
@@ -9142,54 +9160,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="48" t="s">
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="53" t="s">
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="54">
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="42">
         <v>44543</v>
       </c>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54">
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42">
         <v>44543</v>
       </c>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="47"/>
-      <c r="AC63" s="47"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="55">
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="28">
         <v>1</v>
       </c>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="47"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="59"/>
-      <c r="AM63" s="47"/>
-      <c r="AN63" s="47"/>
-      <c r="AO63" s="47"/>
-      <c r="AP63" s="47"/>
+      <c r="AH63" s="28"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
       <c r="AQ63" s="15"/>
       <c r="AR63" s="14"/>
       <c r="AS63" s="14"/>
@@ -9262,44 +9280,44 @@
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
-      <c r="AD64" s="47"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="46"/>
-      <c r="AH64" s="46"/>
-      <c r="AI64" s="47"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="59"/>
-      <c r="AL64" s="59"/>
-      <c r="AM64" s="47"/>
-      <c r="AN64" s="47"/>
-      <c r="AO64" s="47"/>
-      <c r="AP64" s="47"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="24"/>
+      <c r="AJ64" s="24"/>
+      <c r="AK64" s="26"/>
+      <c r="AL64" s="26"/>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="24"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
       <c r="AQ64" s="15"/>
       <c r="AR64" s="14"/>
       <c r="AS64" s="14"/>
@@ -9374,46 +9392,46 @@
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="43"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="61"/>
-      <c r="AL65" s="61"/>
-      <c r="AM65" s="44"/>
-      <c r="AN65" s="44"/>
-      <c r="AO65" s="44"/>
-      <c r="AP65" s="44"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="36"/>
+      <c r="AL65" s="36"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
       <c r="AQ65" s="15"/>
       <c r="AR65" s="14"/>
       <c r="AS65" s="14"/>
@@ -9505,33 +9523,33 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="62" t="s">
+      <c r="R66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="40"/>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="39"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="60"/>
-      <c r="AL66" s="60"/>
-      <c r="AM66" s="40"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="40"/>
-      <c r="AP66" s="40"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="31"/>
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="32"/>
+      <c r="AI66" s="31"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33"/>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="31"/>
       <c r="AQ66" s="15"/>
       <c r="AR66" s="14"/>
       <c r="AS66" s="14"/>
@@ -9610,50 +9628,50 @@
       <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="48" t="s">
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="53" t="s">
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="46"/>
-      <c r="AH67" s="46"/>
-      <c r="AI67" s="55">
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="28">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="55"/>
-      <c r="AK67" s="59"/>
-      <c r="AL67" s="59"/>
-      <c r="AM67" s="47"/>
-      <c r="AN67" s="47"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
       <c r="AQ67" s="15"/>
       <c r="AR67" s="14"/>
       <c r="AS67" s="14"/>
@@ -9726,44 +9744,44 @@
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="46"/>
-      <c r="Y68" s="46"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="46"/>
-      <c r="AH68" s="46"/>
-      <c r="AI68" s="47"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="59"/>
-      <c r="AL68" s="59"/>
-      <c r="AM68" s="47"/>
-      <c r="AN68" s="47"/>
-      <c r="AO68" s="47"/>
-      <c r="AP68" s="47"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="25"/>
+      <c r="AH68" s="25"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="26"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="24"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="14"/>
       <c r="AS68" s="14"/>
@@ -9836,44 +9854,44 @@
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
-      <c r="X69" s="46"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="46"/>
-      <c r="AH69" s="46"/>
-      <c r="AI69" s="47"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="59"/>
-      <c r="AL69" s="59"/>
-      <c r="AM69" s="47"/>
-      <c r="AN69" s="47"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="26"/>
+      <c r="AL69" s="26"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
       <c r="AQ69" s="15"/>
       <c r="AR69" s="14"/>
       <c r="AS69" s="14"/>
@@ -9962,699 +9980,22 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -10672,22 +10013,699 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70FE79-9593-4100-A830-255A6F2C5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67758DEC-E62E-4B98-A186-9D3AB6F9DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -581,99 +581,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,6 +604,99 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1067,10 +1067,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="CB25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="CB34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomRight" activeCell="AK43" sqref="AK43:AL43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1093,221 +1093,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="55" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="57">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="26">
         <v>44498</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="58" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="59" t="s">
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="58">
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="27">
         <v>44498</v>
       </c>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BD1" s="60" t="s">
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BD1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="55" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="57">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="26">
         <v>44540</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="55" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="58" t="s">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="59" t="s">
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BD2" s="62" t="s">
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BD2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="52" t="s">
+      <c r="BD3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51" t="s">
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51" t="s">
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="54" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="50" t="s">
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
       <c r="AQ4" s="2">
         <f>AU1</f>
         <v>44498</v>
@@ -1568,60 +1568,60 @@
       <c r="DD4" s="6"/>
     </row>
     <row r="5" spans="1:108" s="9" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51" t="s">
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51" t="s">
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51" t="s">
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51" t="s">
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
       <c r="AQ5" s="7">
         <f>AU1</f>
         <v>44498</v>
@@ -1880,48 +1880,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
       <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2188,46 +2188,46 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
@@ -2319,31 +2319,31 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="14"/>
       <c r="AS8" s="14"/>
@@ -2422,64 +2422,64 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="46">
+      <c r="U9" s="50">
         <v>44498</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46">
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50">
         <v>44498</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46">
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50">
         <v>44498</v>
       </c>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46">
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50">
         <v>44498</v>
       </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="47">
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51">
         <v>1</v>
       </c>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47">
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51">
         <v>1</v>
       </c>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="48">
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="52">
         <v>1</v>
       </c>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="14"/>
       <c r="AS9" s="14"/>
@@ -2552,44 +2552,44 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
@@ -2664,46 +2664,46 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
@@ -2795,31 +2795,31 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
@@ -2898,64 +2898,64 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="42">
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54">
         <v>44501</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42">
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54">
         <v>44501</v>
       </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42">
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54">
         <v>44501</v>
       </c>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42">
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54">
         <v>44518</v>
       </c>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="28">
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28">
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55">
         <v>2</v>
       </c>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="45">
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56">
         <v>1</v>
       </c>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="30" t="s">
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -3034,64 +3034,64 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="29" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="42">
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54">
         <v>44501</v>
       </c>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42">
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54">
         <v>44501</v>
       </c>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42">
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54">
         <v>44501</v>
       </c>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42">
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54">
         <v>44525</v>
       </c>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="28">
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28">
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="45">
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="56">
         <v>1</v>
       </c>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="30" t="s">
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -3183,31 +3183,31 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
@@ -3286,64 +3286,64 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="42">
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54">
         <v>44502</v>
       </c>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42">
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54">
         <v>44502</v>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42">
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54">
         <v>44501</v>
       </c>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42">
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54">
         <v>44531</v>
       </c>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="28">
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28">
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55">
         <v>11.4</v>
       </c>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="45">
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="56">
         <v>1</v>
       </c>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="30" t="s">
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -3435,31 +3435,31 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
@@ -3538,64 +3538,64 @@
       <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="42">
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54">
         <v>44501</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42">
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54">
         <v>44504</v>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42">
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54">
         <v>44504</v>
       </c>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="43">
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="57">
         <v>44525</v>
       </c>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="28">
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28">
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="45">
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="56">
         <v>1</v>
       </c>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="30" t="s">
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
@@ -3674,64 +3674,64 @@
       <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="42">
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54">
         <v>44504</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42">
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54">
         <v>44504</v>
       </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42">
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54">
         <v>44504</v>
       </c>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43">
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="57">
         <v>44525</v>
       </c>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="28">
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28">
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="45">
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56">
         <v>1</v>
       </c>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="30" t="s">
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3810,64 +3810,64 @@
       <c r="D20" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="42">
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="54">
         <v>44504</v>
       </c>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42">
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54">
         <v>44505</v>
       </c>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42">
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54">
         <v>44505</v>
       </c>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43">
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="57">
         <v>44525</v>
       </c>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="28">
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28">
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="45">
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="56">
         <v>1</v>
       </c>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="30" t="s">
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
@@ -3946,64 +3946,64 @@
       <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="42">
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54">
         <v>44504</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42">
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54">
         <v>44505</v>
       </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42">
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54">
         <v>44505</v>
       </c>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43">
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="57">
         <v>44528</v>
       </c>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="28">
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28">
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="45">
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="56">
         <v>1</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="30" t="s">
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
       <c r="AQ21" s="15"/>
       <c r="AR21" s="14"/>
       <c r="AS21" s="14"/>
@@ -4082,64 +4082,64 @@
       <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="42">
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54">
         <v>44504</v>
       </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42">
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54">
         <v>44505</v>
       </c>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42">
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54">
         <v>44505</v>
       </c>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43">
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="57">
         <v>44528</v>
       </c>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="28">
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28">
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="44">
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="58">
         <v>1</v>
       </c>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="30" t="s">
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
@@ -4218,64 +4218,64 @@
       <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30" t="s">
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="42">
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54">
         <v>44504</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42">
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54">
         <v>44504</v>
       </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42">
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54">
         <v>44504</v>
       </c>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43">
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="57">
         <v>44529</v>
       </c>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="28">
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="55">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28">
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="44">
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="58">
         <v>1</v>
       </c>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="30" t="s">
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
@@ -4348,44 +4348,44 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
       <c r="AQ24" s="15"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -4460,46 +4460,46 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
@@ -4591,31 +4591,31 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
@@ -4694,64 +4694,64 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="29" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30" t="s">
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="42">
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54">
         <v>44505</v>
       </c>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42">
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54">
         <v>44505</v>
       </c>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43">
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="57">
         <v>44508</v>
       </c>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="43">
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="57">
         <v>44533</v>
       </c>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="28">
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="55">
         <v>1</v>
       </c>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28">
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55">
         <v>3.3</v>
       </c>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="44">
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="58">
         <v>1</v>
       </c>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="30" t="s">
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
@@ -4830,64 +4830,64 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30" t="s">
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="42">
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="54">
         <v>44505</v>
       </c>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42">
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54">
         <v>44505</v>
       </c>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="43">
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="57">
         <v>44536</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="43">
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="57">
         <v>44540</v>
       </c>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="28">
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="24">
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="47">
         <v>0.4</v>
       </c>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="26">
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="59">
         <v>1</v>
       </c>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="30" t="s">
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
       <c r="AQ28" s="15"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
@@ -4966,64 +4966,64 @@
       <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="29" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30" t="s">
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="42">
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54">
         <v>44508</v>
       </c>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42">
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54">
         <v>44508</v>
       </c>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="43">
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="57">
         <v>44536</v>
       </c>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="43">
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="57">
         <v>44540</v>
       </c>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="28">
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="24">
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="47">
         <v>1.3</v>
       </c>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="26">
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="59">
         <v>1</v>
       </c>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="30" t="s">
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
       <c r="AQ29" s="15"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
@@ -5102,64 +5102,64 @@
       <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="42">
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54">
         <v>44508</v>
       </c>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42">
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54">
         <v>44508</v>
       </c>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="43">
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="57">
         <v>44537</v>
       </c>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="43">
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="57">
         <v>44540</v>
       </c>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="28">
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="24">
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="47">
         <v>0.9</v>
       </c>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="26">
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="59">
         <v>1</v>
       </c>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="30" t="s">
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
       <c r="AQ30" s="15"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
@@ -5238,64 +5238,64 @@
       <c r="D31" s="20">
         <v>5</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="42">
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="54">
         <v>44509</v>
       </c>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42">
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54">
         <v>44509</v>
       </c>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="43">
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="57">
         <v>44538</v>
       </c>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="43">
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="57">
         <v>44540</v>
       </c>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="28">
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="24">
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="47">
         <v>0.8</v>
       </c>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="26">
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="59">
         <v>1</v>
       </c>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="30" t="s">
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
       <c r="AQ31" s="15"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
@@ -5374,64 +5374,64 @@
       <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30" t="s">
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="42">
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="54">
         <v>44509</v>
       </c>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42">
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54">
         <v>44509</v>
       </c>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="43">
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="57">
         <v>44539</v>
       </c>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="43">
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="57">
         <v>44540</v>
       </c>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="28">
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="55">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="24">
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="47">
         <v>0.7</v>
       </c>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="26">
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="59">
         <v>1</v>
       </c>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="30" t="s">
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="53"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -5504,44 +5504,44 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
       <c r="AQ33" s="15"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5616,46 +5616,46 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="14"/>
@@ -5747,31 +5747,31 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
@@ -5850,54 +5850,54 @@
       <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="29" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30" t="s">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="42">
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="54">
         <v>44510</v>
       </c>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42">
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54">
         <v>44510</v>
       </c>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="28">
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="55">
         <v>1</v>
       </c>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="15"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="14"/>
@@ -5976,54 +5976,54 @@
       <c r="D37" s="20">
         <v>2</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="29" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="42">
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="54">
         <v>44511</v>
       </c>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42">
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54">
         <v>44511</v>
       </c>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="28">
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="14"/>
       <c r="AS37" s="14"/>
@@ -6102,54 +6102,54 @@
       <c r="D38" s="20">
         <v>3</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="29" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30" t="s">
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="42">
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="54">
         <v>44511</v>
       </c>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42">
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54">
         <v>44512</v>
       </c>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="28">
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="55">
         <v>1</v>
       </c>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
       <c r="AQ38" s="15"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
@@ -6228,54 +6228,54 @@
       <c r="D39" s="20">
         <v>4</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="29" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="30" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="42">
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="54">
         <v>44512</v>
       </c>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42">
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54">
         <v>44515</v>
       </c>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="28">
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="55">
         <v>1</v>
       </c>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
       <c r="AQ39" s="15"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -6354,54 +6354,54 @@
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30" t="s">
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="42">
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="54">
         <v>44515</v>
       </c>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42">
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54">
         <v>44516</v>
       </c>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="28">
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="55">
         <v>1</v>
       </c>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
       <c r="AQ40" s="15"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6480,54 +6480,54 @@
       <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="30" t="s">
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="42">
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54">
         <v>44516</v>
       </c>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42">
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54">
         <v>44517</v>
       </c>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="28">
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="55">
         <v>1</v>
       </c>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
@@ -6600,44 +6600,44 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
       <c r="AQ42" s="15"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
@@ -6712,46 +6712,46 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
-      <c r="AP43" s="34"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -6843,31 +6843,31 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="40"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="40"/>
+      <c r="AP44" s="40"/>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="14"/>
@@ -6946,62 +6946,62 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="29" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="30" t="s">
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="42">
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="54">
         <v>44517</v>
       </c>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42">
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54">
         <v>44517</v>
       </c>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="43">
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="57">
         <v>44540</v>
       </c>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="28">
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="26">
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="59">
         <v>0.9</v>
       </c>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="24" t="s">
+      <c r="AL45" s="59"/>
+      <c r="AM45" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7047,7 +7047,7 @@
       <c r="CG45" s="17"/>
       <c r="CH45" s="14"/>
       <c r="CI45" s="14"/>
-      <c r="CJ45" s="15"/>
+      <c r="CJ45" s="17"/>
       <c r="CK45" s="15"/>
       <c r="CL45" s="15"/>
       <c r="CM45" s="15"/>
@@ -7080,54 +7080,62 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="29" t="s">
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30" t="s">
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="42">
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="54">
         <v>44517</v>
       </c>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42">
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54">
         <v>44517</v>
       </c>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="28">
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="57">
+        <v>44543</v>
+      </c>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7173,7 +7181,7 @@
       <c r="CG46" s="15"/>
       <c r="CH46" s="14"/>
       <c r="CI46" s="14"/>
-      <c r="CJ46" s="15"/>
+      <c r="CJ46" s="17"/>
       <c r="CK46" s="15"/>
       <c r="CL46" s="15"/>
       <c r="CM46" s="15"/>
@@ -7206,54 +7214,62 @@
       <c r="D47" s="20">
         <v>3</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="29" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="30" t="s">
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="42">
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="54">
         <v>44517</v>
       </c>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42">
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54">
         <v>44517</v>
       </c>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="28">
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="57">
+        <v>44543</v>
+      </c>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="AL47" s="59"/>
+      <c r="AM47" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7299,7 +7315,7 @@
       <c r="CG47" s="15"/>
       <c r="CH47" s="14"/>
       <c r="CI47" s="14"/>
-      <c r="CJ47" s="15"/>
+      <c r="CJ47" s="17"/>
       <c r="CK47" s="15"/>
       <c r="CL47" s="15"/>
       <c r="CM47" s="15"/>
@@ -7332,54 +7348,54 @@
       <c r="D48" s="20">
         <v>4</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="29" t="s">
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30" t="s">
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="42">
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="54">
         <v>44518</v>
       </c>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42">
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54">
         <v>44518</v>
       </c>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="28">
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="24"/>
-      <c r="AJ48" s="24"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="59"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7458,54 +7474,54 @@
       <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="29" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="30" t="s">
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="42">
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54">
         <v>44518</v>
       </c>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42">
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54">
         <v>44518</v>
       </c>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="28">
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="59"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7584,54 +7600,54 @@
       <c r="D50" s="20">
         <v>6</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="29" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30" t="s">
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="42">
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="54">
         <v>44518</v>
       </c>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42">
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54">
         <v>44518</v>
       </c>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="28">
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="55">
         <v>0.3</v>
       </c>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -7723,31 +7739,31 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="40"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="40"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="40"/>
+      <c r="AP51" s="40"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
@@ -7826,54 +7842,54 @@
       <c r="D52" s="20">
         <v>1</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="29" t="s">
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30" t="s">
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="42">
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="54">
         <v>44519</v>
       </c>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42">
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54">
         <v>44519</v>
       </c>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="24"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="28">
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="55">
         <v>1</v>
       </c>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="26"/>
-      <c r="AL52" s="26"/>
-      <c r="AM52" s="24"/>
-      <c r="AN52" s="24"/>
-      <c r="AO52" s="24"/>
-      <c r="AP52" s="24"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
       <c r="AQ52" s="15"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
@@ -7952,54 +7968,54 @@
       <c r="D53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="29" t="s">
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="30" t="s">
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="42">
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="54">
         <v>44522</v>
       </c>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42">
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54">
         <v>44522</v>
       </c>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="28">
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="26"/>
-      <c r="AL53" s="26"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="24"/>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
       <c r="AQ53" s="15"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -8078,54 +8094,54 @@
       <c r="D54" s="20">
         <v>3</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="29" t="s">
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="30" t="s">
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="42">
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="54">
         <v>44522</v>
       </c>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42">
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54">
         <v>44524</v>
       </c>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="28">
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="55">
         <v>1</v>
       </c>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="24"/>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="47"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
       <c r="AQ54" s="15"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
@@ -8204,54 +8220,54 @@
       <c r="D55" s="20">
         <v>4</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="29" t="s">
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="30" t="s">
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="42">
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="54">
         <v>44524</v>
       </c>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42">
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54">
         <v>44525</v>
       </c>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="24"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="28">
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="55">
         <v>1</v>
       </c>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="26"/>
-      <c r="AL55" s="26"/>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="24"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
       <c r="AQ55" s="15"/>
       <c r="AR55" s="14"/>
       <c r="AS55" s="14"/>
@@ -8330,54 +8346,54 @@
       <c r="D56" s="20">
         <v>5</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="29" t="s">
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="30" t="s">
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="42">
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="54">
         <v>44525</v>
       </c>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42">
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54">
         <v>44526</v>
       </c>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="28">
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="55">
         <v>1</v>
       </c>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="24"/>
-      <c r="AN56" s="24"/>
-      <c r="AO56" s="24"/>
-      <c r="AP56" s="24"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="47"/>
+      <c r="AN56" s="47"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="14"/>
       <c r="AS56" s="14"/>
@@ -8456,54 +8472,54 @@
       <c r="D57" s="20">
         <v>6</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="29" t="s">
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="30" t="s">
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="42">
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54">
         <v>44526</v>
       </c>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42">
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54">
         <v>44529</v>
       </c>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="24"/>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="24"/>
-      <c r="AE57" s="24"/>
-      <c r="AF57" s="24"/>
-      <c r="AG57" s="28">
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="55">
         <v>1</v>
       </c>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="24"/>
-      <c r="AJ57" s="24"/>
-      <c r="AK57" s="26"/>
-      <c r="AL57" s="26"/>
-      <c r="AM57" s="24"/>
-      <c r="AN57" s="24"/>
-      <c r="AO57" s="24"/>
-      <c r="AP57" s="24"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="47"/>
+      <c r="AN57" s="47"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="47"/>
       <c r="AQ57" s="15"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="14"/>
@@ -8576,44 +8592,44 @@
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="25"/>
-      <c r="AH58" s="25"/>
-      <c r="AI58" s="24"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="26"/>
-      <c r="AL58" s="26"/>
-      <c r="AM58" s="24"/>
-      <c r="AN58" s="24"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="24"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="47"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
       <c r="AQ58" s="15"/>
       <c r="AR58" s="14"/>
       <c r="AS58" s="14"/>
@@ -8688,46 +8704,46 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
-      <c r="AD59" s="34"/>
-      <c r="AE59" s="34"/>
-      <c r="AF59" s="34"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="34"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="34"/>
-      <c r="AN59" s="34"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="34"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44"/>
+      <c r="AO59" s="44"/>
+      <c r="AP59" s="44"/>
       <c r="AQ59" s="15"/>
       <c r="AR59" s="14"/>
       <c r="AS59" s="14"/>
@@ -8819,31 +8835,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="31"/>
-      <c r="AF60" s="31"/>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="31"/>
-      <c r="AJ60" s="31"/>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="31"/>
-      <c r="AO60" s="31"/>
-      <c r="AP60" s="31"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
       <c r="AQ60" s="15"/>
       <c r="AR60" s="14"/>
       <c r="AS60" s="14"/>
@@ -8920,54 +8936,54 @@
         <v>1</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="29" t="s">
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="30" t="s">
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="42">
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="54">
         <v>44539</v>
       </c>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42">
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54">
         <v>44540</v>
       </c>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="28">
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="55">
         <v>0.5</v>
       </c>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="24"/>
-      <c r="AJ61" s="24"/>
-      <c r="AK61" s="26"/>
-      <c r="AL61" s="26"/>
-      <c r="AM61" s="24"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="24"/>
-      <c r="AP61" s="24"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="47"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="59"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="47"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
       <c r="AQ61" s="15"/>
       <c r="AR61" s="14"/>
       <c r="AS61" s="14"/>
@@ -9059,31 +9075,31 @@
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="31"/>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="31"/>
-      <c r="AF62" s="31"/>
-      <c r="AG62" s="32"/>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="31"/>
-      <c r="AJ62" s="31"/>
-      <c r="AK62" s="33"/>
-      <c r="AL62" s="33"/>
-      <c r="AM62" s="31"/>
-      <c r="AN62" s="31"/>
-      <c r="AO62" s="31"/>
-      <c r="AP62" s="31"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="40"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="39"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="40"/>
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="40"/>
+      <c r="AP62" s="40"/>
       <c r="AQ62" s="15"/>
       <c r="AR62" s="14"/>
       <c r="AS62" s="14"/>
@@ -9160,54 +9176,54 @@
         <v>2</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="29" t="s">
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="30" t="s">
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="42">
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="54">
         <v>44543</v>
       </c>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42">
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54">
         <v>44543</v>
       </c>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="28">
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="47"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="55">
         <v>1</v>
       </c>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="26"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="47"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="59"/>
+      <c r="AM63" s="47"/>
+      <c r="AN63" s="47"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
       <c r="AQ63" s="15"/>
       <c r="AR63" s="14"/>
       <c r="AS63" s="14"/>
@@ -9280,44 +9296,44 @@
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="25"/>
-      <c r="AH64" s="25"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="26"/>
-      <c r="AL64" s="26"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="47"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="59"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="47"/>
+      <c r="AN64" s="47"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
       <c r="AQ64" s="15"/>
       <c r="AR64" s="14"/>
       <c r="AS64" s="14"/>
@@ -9392,46 +9408,46 @@
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="34"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="34"/>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="36"/>
-      <c r="AL65" s="36"/>
-      <c r="AM65" s="34"/>
-      <c r="AN65" s="34"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="34"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
+      <c r="AM65" s="44"/>
+      <c r="AN65" s="44"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="44"/>
       <c r="AQ65" s="15"/>
       <c r="AR65" s="14"/>
       <c r="AS65" s="14"/>
@@ -9523,33 +9539,33 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="39" t="s">
+      <c r="R66" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-      <c r="AD66" s="31"/>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="31"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="33"/>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="31"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="40"/>
+      <c r="AD66" s="40"/>
+      <c r="AE66" s="40"/>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="60"/>
+      <c r="AM66" s="40"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="40"/>
+      <c r="AP66" s="40"/>
       <c r="AQ66" s="15"/>
       <c r="AR66" s="14"/>
       <c r="AS66" s="14"/>
@@ -9628,50 +9644,50 @@
       <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="29" t="s">
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="30" t="s">
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="25"/>
-      <c r="AH67" s="25"/>
-      <c r="AI67" s="28">
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="55">
         <v>3.5</v>
       </c>
-      <c r="AJ67" s="28"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="26"/>
-      <c r="AM67" s="24"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="24"/>
-      <c r="AP67" s="24"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="59"/>
+      <c r="AL67" s="59"/>
+      <c r="AM67" s="47"/>
+      <c r="AN67" s="47"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
       <c r="AQ67" s="15"/>
       <c r="AR67" s="14"/>
       <c r="AS67" s="14"/>
@@ -9744,44 +9760,44 @@
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="25"/>
-      <c r="AH68" s="25"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="24"/>
-      <c r="AK68" s="26"/>
-      <c r="AL68" s="26"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="24"/>
-      <c r="AO68" s="24"/>
-      <c r="AP68" s="24"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="47"/>
+      <c r="AN68" s="47"/>
+      <c r="AO68" s="47"/>
+      <c r="AP68" s="47"/>
       <c r="AQ68" s="15"/>
       <c r="AR68" s="14"/>
       <c r="AS68" s="14"/>
@@ -9854,44 +9870,44 @@
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="25"/>
-      <c r="AH69" s="25"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="26"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="24"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="59"/>
+      <c r="AL69" s="59"/>
+      <c r="AM69" s="47"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
       <c r="AQ69" s="15"/>
       <c r="AR69" s="14"/>
       <c r="AS69" s="14"/>
@@ -9980,22 +9996,699 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="726">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AH69"/>
+    <mergeCell ref="AI69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AP69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="AM68:AP68"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AI67:AJ67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AP67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA66:AC66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AP66"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AP57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AP56"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AM54:AP54"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AP53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AP52"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AP51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AP49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AP48"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AP40"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AP37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="AM4:AP6"/>
     <mergeCell ref="U5:W6"/>
     <mergeCell ref="X5:Z6"/>
@@ -10013,699 +10706,22 @@
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AK4:AL6"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AP36"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AP37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AP48"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AP50"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AP49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AP52"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AP51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AM54:AP54"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AP53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AP56"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AP57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="J62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="J61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U64:W64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:Z66"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="AA66:AC66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AP66"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="J68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="AM68:AP68"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AP67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="AA69:AC69"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="AQ4:DB4">

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67758DEC-E62E-4B98-A186-9D3AB6F9DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A30A13-278A-4941-8001-144231803740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -1067,10 +1067,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="CB34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="CB40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AK43" sqref="AK43:AL43"/>
+      <selection pane="bottomRight" activeCell="AI48" sqref="AI48:AJ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7253,15 +7253,15 @@
       <c r="AE47" s="47"/>
       <c r="AF47" s="47"/>
       <c r="AG47" s="55">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="47">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AJ47" s="47"/>
       <c r="AK47" s="59">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AL47" s="59"/>
       <c r="AM47" s="47" t="s">
@@ -7316,7 +7316,7 @@
       <c r="CH47" s="14"/>
       <c r="CI47" s="14"/>
       <c r="CJ47" s="17"/>
-      <c r="CK47" s="15"/>
+      <c r="CK47" s="17"/>
       <c r="CL47" s="15"/>
       <c r="CM47" s="15"/>
       <c r="CN47" s="15"/>
@@ -7378,21 +7378,29 @@
       </c>
       <c r="Y48" s="54"/>
       <c r="Z48" s="54"/>
-      <c r="AA48" s="47"/>
+      <c r="AA48" s="57">
+        <v>44544</v>
+      </c>
       <c r="AB48" s="47"/>
       <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
       <c r="AE48" s="47"/>
       <c r="AF48" s="47"/>
       <c r="AG48" s="55">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH48" s="55"/>
-      <c r="AI48" s="47"/>
+      <c r="AI48" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AJ48" s="47"/>
-      <c r="AK48" s="59"/>
+      <c r="AK48" s="59">
+        <v>0.9</v>
+      </c>
       <c r="AL48" s="59"/>
-      <c r="AM48" s="47"/>
+      <c r="AM48" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="AN48" s="47"/>
       <c r="AO48" s="47"/>
       <c r="AP48" s="47"/>
@@ -7442,7 +7450,7 @@
       <c r="CH48" s="14"/>
       <c r="CI48" s="14"/>
       <c r="CJ48" s="15"/>
-      <c r="CK48" s="15"/>
+      <c r="CK48" s="17"/>
       <c r="CL48" s="15"/>
       <c r="CM48" s="15"/>
       <c r="CN48" s="15"/>
@@ -7504,21 +7512,29 @@
       </c>
       <c r="Y49" s="54"/>
       <c r="Z49" s="54"/>
-      <c r="AA49" s="47"/>
+      <c r="AA49" s="57">
+        <v>44544</v>
+      </c>
       <c r="AB49" s="47"/>
       <c r="AC49" s="47"/>
       <c r="AD49" s="47"/>
       <c r="AE49" s="47"/>
       <c r="AF49" s="47"/>
       <c r="AG49" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="47">
         <v>0.3</v>
       </c>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="47"/>
       <c r="AJ49" s="47"/>
-      <c r="AK49" s="59"/>
+      <c r="AK49" s="59">
+        <v>0.9</v>
+      </c>
       <c r="AL49" s="59"/>
-      <c r="AM49" s="47"/>
+      <c r="AM49" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="AN49" s="47"/>
       <c r="AO49" s="47"/>
       <c r="AP49" s="47"/>
@@ -7568,7 +7584,7 @@
       <c r="CH49" s="14"/>
       <c r="CI49" s="14"/>
       <c r="CJ49" s="15"/>
-      <c r="CK49" s="15"/>
+      <c r="CK49" s="17"/>
       <c r="CL49" s="15"/>
       <c r="CM49" s="15"/>
       <c r="CN49" s="15"/>
@@ -7637,7 +7653,7 @@
       <c r="AE50" s="47"/>
       <c r="AF50" s="47"/>
       <c r="AG50" s="55">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH50" s="55"/>
       <c r="AI50" s="47"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A30A13-278A-4941-8001-144231803740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9281F-6A1B-4BC9-A316-B5B3A63F4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="0" windowWidth="17475" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -475,6 +475,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +731,15 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,10 +1113,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="CB40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="CB32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI48" sqref="AI48:AJ48"/>
+      <selection pane="bottomRight" activeCell="AD37" sqref="AD37:AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5409,11 +5455,11 @@
       </c>
       <c r="AB32" s="47"/>
       <c r="AC32" s="47"/>
-      <c r="AD32" s="57">
+      <c r="AD32" s="62">
         <v>44540</v>
       </c>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="64"/>
       <c r="AG32" s="55">
         <v>1.5</v>
       </c>
@@ -5880,7 +5926,9 @@
       </c>
       <c r="Y36" s="54"/>
       <c r="Z36" s="54"/>
-      <c r="AA36" s="47"/>
+      <c r="AA36" s="57">
+        <v>44545</v>
+      </c>
       <c r="AB36" s="47"/>
       <c r="AC36" s="47"/>
       <c r="AD36" s="47"/>
@@ -5890,11 +5938,17 @@
         <v>1</v>
       </c>
       <c r="AH36" s="55"/>
-      <c r="AI36" s="47"/>
+      <c r="AI36" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AJ36" s="47"/>
-      <c r="AK36" s="59"/>
+      <c r="AK36" s="59">
+        <v>0.1</v>
+      </c>
       <c r="AL36" s="59"/>
-      <c r="AM36" s="47"/>
+      <c r="AM36" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="AN36" s="47"/>
       <c r="AO36" s="47"/>
       <c r="AP36" s="47"/>
@@ -5945,7 +5999,7 @@
       <c r="CI36" s="14"/>
       <c r="CJ36" s="15"/>
       <c r="CK36" s="15"/>
-      <c r="CL36" s="15"/>
+      <c r="CL36" s="17"/>
       <c r="CM36" s="15"/>
       <c r="CN36" s="15"/>
       <c r="CO36" s="14"/>
@@ -6981,7 +7035,9 @@
       </c>
       <c r="AB45" s="47"/>
       <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
+      <c r="AD45" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE45" s="47"/>
       <c r="AF45" s="47"/>
       <c r="AG45" s="55">
@@ -6993,15 +7049,15 @@
       </c>
       <c r="AJ45" s="47"/>
       <c r="AK45" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="59"/>
-      <c r="AM45" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
+      <c r="AM45" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7115,7 +7171,9 @@
       </c>
       <c r="AB46" s="47"/>
       <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
+      <c r="AD46" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE46" s="47"/>
       <c r="AF46" s="47"/>
       <c r="AG46" s="55">
@@ -7127,15 +7185,15 @@
       </c>
       <c r="AJ46" s="47"/>
       <c r="AK46" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="59"/>
-      <c r="AM46" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN46" s="47"/>
-      <c r="AO46" s="47"/>
-      <c r="AP46" s="47"/>
+      <c r="AM46" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN46" s="53"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="53"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7249,7 +7307,9 @@
       </c>
       <c r="AB47" s="47"/>
       <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
+      <c r="AD47" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE47" s="47"/>
       <c r="AF47" s="47"/>
       <c r="AG47" s="55">
@@ -7261,15 +7321,15 @@
       </c>
       <c r="AJ47" s="47"/>
       <c r="AK47" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="59"/>
-      <c r="AM47" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="47"/>
-      <c r="AP47" s="47"/>
+      <c r="AM47" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7383,7 +7443,9 @@
       </c>
       <c r="AB48" s="47"/>
       <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
+      <c r="AD48" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE48" s="47"/>
       <c r="AF48" s="47"/>
       <c r="AG48" s="55">
@@ -7395,15 +7457,15 @@
       </c>
       <c r="AJ48" s="47"/>
       <c r="AK48" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="59"/>
-      <c r="AM48" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47"/>
+      <c r="AM48" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="53"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7517,7 +7579,9 @@
       </c>
       <c r="AB49" s="47"/>
       <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
+      <c r="AD49" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE49" s="47"/>
       <c r="AF49" s="47"/>
       <c r="AG49" s="55">
@@ -7529,15 +7593,15 @@
       </c>
       <c r="AJ49" s="47"/>
       <c r="AK49" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="59"/>
-      <c r="AM49" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
+      <c r="AM49" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="53"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7585,7 +7649,7 @@
       <c r="CI49" s="14"/>
       <c r="CJ49" s="15"/>
       <c r="CK49" s="17"/>
-      <c r="CL49" s="15"/>
+      <c r="CL49" s="17"/>
       <c r="CM49" s="15"/>
       <c r="CN49" s="15"/>
       <c r="CO49" s="14"/>
@@ -7646,24 +7710,34 @@
       </c>
       <c r="Y50" s="54"/>
       <c r="Z50" s="54"/>
-      <c r="AA50" s="47"/>
+      <c r="AA50" s="57">
+        <v>44544</v>
+      </c>
       <c r="AB50" s="47"/>
       <c r="AC50" s="47"/>
-      <c r="AD50" s="47"/>
+      <c r="AD50" s="57">
+        <v>44545</v>
+      </c>
       <c r="AE50" s="47"/>
       <c r="AF50" s="47"/>
       <c r="AG50" s="55">
         <v>0.5</v>
       </c>
       <c r="AH50" s="55"/>
-      <c r="AI50" s="47"/>
+      <c r="AI50" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AJ50" s="47"/>
-      <c r="AK50" s="59"/>
+      <c r="AK50" s="59">
+        <v>1</v>
+      </c>
       <c r="AL50" s="59"/>
-      <c r="AM50" s="47"/>
-      <c r="AN50" s="47"/>
-      <c r="AO50" s="47"/>
-      <c r="AP50" s="47"/>
+      <c r="AM50" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53"/>
+      <c r="AP50" s="53"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -9555,11 +9629,11 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="62" t="s">
+      <c r="R66" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
       <c r="W66" s="40"/>

--- a/WBS_2回目山城課題.xlsx
+++ b/WBS_2回目山城課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9281F-6A1B-4BC9-A316-B5B3A63F4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCAC0C-766A-490C-B99F-C2D44662C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="0" windowWidth="17475" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -618,6 +618,108 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,108 +743,6 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1113,10 +1113,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="42" ySplit="6" topLeftCell="CB32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="6" topLeftCell="CB29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD37" sqref="AD37:AF37"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1139,221 +1139,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="24" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="26">
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="60">
         <v>44498</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="27">
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="61">
         <v>44498</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BD1" s="29" t="s">
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BD1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
     </row>
     <row r="2" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="26">
-        <v>44540</v>
-      </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="24" t="s">
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="60">
+        <v>44546</v>
+      </c>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="28" t="s">
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BD2" s="31" t="s">
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BD2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
     </row>
     <row r="3" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD3" s="34" t="s">
+      <c r="BD3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
     </row>
     <row r="4" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33" t="s">
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33" t="s">
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="32" t="s">
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="36" t="s">
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
       <c r="AQ4" s="2">
         <f>AU1</f>
         <v>44498</v>
@@ -1614,60 +1614,60 @@
       <c r="DD4" s="6"/>
     </row>
     <row r="5" spans="1:108" s="9" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33" t="s">
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33" t="s">
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33" t="s">
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33" t="s">
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
       <c r="AQ5" s="7">
         <f>AU1</f>
         <v>44498</v>
@@ -1926,48 +1926,48 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
       <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6:BV6" si="4">TEXT(AQ5,"aaa")</f>
         <v>金</v>
@@ -2234,46 +2234,46 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
@@ -2365,31 +2365,31 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="14"/>
       <c r="AS8" s="14"/>
@@ -2468,64 +2468,64 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="48" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50">
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="49">
         <v>44498</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50">
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49">
         <v>44498</v>
       </c>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50">
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49">
         <v>44498</v>
       </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50">
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49">
         <v>44498</v>
       </c>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51">
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50">
         <v>1</v>
       </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51">
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50">
         <v>1</v>
       </c>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="52">
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="51">
         <v>1</v>
       </c>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="53" t="s">
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="14"/>
       <c r="AS9" s="14"/>
@@ -2598,44 +2598,44 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
@@ -2710,46 +2710,46 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
@@ -2841,31 +2841,31 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
@@ -2944,64 +2944,64 @@
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="48" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="53" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54">
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="42">
         <v>44501</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42">
         <v>44501</v>
       </c>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42">
         <v>44501</v>
       </c>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54">
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42">
         <v>44518</v>
       </c>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55">
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28">
         <v>2</v>
       </c>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56">
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="48">
         <v>1</v>
       </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="53" t="s">
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
       <c r="AQ13" s="15"/>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -3080,64 +3080,64 @@
       <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="48" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="53" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54">
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="42">
         <v>44501</v>
       </c>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54">
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42">
         <v>44501</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54">
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42">
         <v>44501</v>
       </c>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54">
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42">
         <v>44525</v>
       </c>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="55">
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55">
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28">
         <v>4.7</v>
       </c>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="56">
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="48">
         <v>1</v>
       </c>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="15"/>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
@@ -3229,31 +3229,31 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="15"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
@@ -3332,64 +3332,64 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="48" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="53" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54">
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="42">
         <v>44502</v>
       </c>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54">
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42">
         <v>44502</v>
       </c>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42">
         <v>44501</v>
       </c>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54">
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42">
         <v>44531</v>
       </c>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="55">
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55">
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28">
         <v>11.4</v>
       </c>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="56">
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="48">
         <v>1</v>
       </c>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="53" t="s">
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
@@ -3481,31 +3481,31 @@
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
@@ -3584,64 +3584,64 @@
       <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="48" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="53" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54">
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="42">
         <v>44501</v>
       </c>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54">
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42">
         <v>44504</v>
       </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54">
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42">
         <v>44504</v>
       </c>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="57">
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43">
         <v>44525</v>
       </c>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="55">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55">
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="56">
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="48">
         <v>1</v>
       </c>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="53" t="s">
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
       <c r="AQ18" s="15"/>
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
@@ -3720,64 +3720,64 @@
       <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="48" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="53" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54">
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="42">
         <v>44504</v>
       </c>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54">
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42">
         <v>44504</v>
       </c>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54">
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42">
         <v>44504</v>
       </c>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="57">
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43">
         <v>44525</v>
       </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="55">
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55">
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56">
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="48">
         <v>1</v>
       </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
       <c r="AQ19" s="15"/>
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
@@ -3856,64 +3856,64 @@
       <c r="D20" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="48" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="53" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54">
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="42">
         <v>44504</v>
       </c>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54">
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42">
         <v>44505</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54">
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42">
         <v>44505</v>
       </c>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="57">
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43">
         <v>44525</v>
       </c>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="55">
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55">
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="56">
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="48">
         <v>1</v>
       </c>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="53" t="s">
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="14"/>
       <c r="AS20" s="14"/>
@@ -3992,64 +3992,64 @@
       <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="48" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="53" t="s">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54">
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="42">
         <v>44504</v>
       </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54">
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42">
         <v>44505</v>
       </c>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54">
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42">
         <v>44505</v>
       </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="57">
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43">
         <v>44528</v>
       </c>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="55">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55">
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56">
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="48">
         <v>1</v>
       </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="15"/>
       <c r="AR21" s="14"/>
       <c r="AS21" s="14"/>
@@ -4128,64 +4128,64 @@
       <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="48" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="53" t="s">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="42">
         <v>44504</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54">
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42">
         <v>44505</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54">
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42">
         <v>44505</v>
       </c>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="57">
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43">
         <v>44528</v>
       </c>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="55">
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55">
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28">
         <v>0.1</v>
       </c>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="58">
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="47">
         <v>1</v>
       </c>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="53" t="s">
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
       <c r="AQ22" s="15"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
@@ -4264,64 +4264,64 @@
       <c r="D23" s="20">
         <v>6</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="48" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="53" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54">
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="42">
         <v>44504</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54">
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42">
         <v>44504</v>
       </c>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54">
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42">
         <v>44504</v>
       </c>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="57">
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43">
         <v>44529</v>
       </c>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="55">
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55">
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="58">
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="47">
         <v>1</v>
       </c>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="53" t="s">
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
       <c r="AQ23" s="15"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
@@ -4394,44 +4394,44 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
       <c r="AQ24" s="15"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -4506,46 +4506,46 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
@@ -4637,31 +4637,31 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="14"/>
       <c r="AS26" s="14"/>
@@ -4740,64 +4740,64 @@
       <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="48" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="53" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54">
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="42">
         <v>44505</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54">
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42">
         <v>44505</v>
       </c>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="57">
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43">
         <v>44508</v>
       </c>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="57">
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="43">
         <v>44533</v>
       </c>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="55">
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="28">
         <v>1</v>
       </c>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55">
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28">
         <v>3.3</v>
       </c>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="58">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="47">
         <v>1</v>
       </c>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="53" t="s">
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
       <c r="AQ27" s="15"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
@@ -4876,64 +4876,64 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="48" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="53" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="42">
         <v>44505</v>
       </c>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54">
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42">
         <v>44505</v>
       </c>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="57">
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="43">
         <v>44536</v>
       </c>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="57">
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="43">
         <v>44540</v>
       </c>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="55">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="47">
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="24">
         <v>0.4</v>
       </c>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="59">
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="26">
         <v>1</v>
       </c>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="53" t="s">
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
       <c r="AQ28" s="15"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
@@ -5012,64 +5012,64 @@
       <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="48" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="53" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54">
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="42">
         <v>44508</v>
       </c>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54">
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42">
         <v>44508</v>
       </c>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="57">
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="43">
         <v>44536</v>
       </c>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="57">
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="43">
         <v>44540</v>
       </c>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="55">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="47">
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="24">
         <v>1.3</v>
       </c>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="59">
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="26">
         <v>1</v>
       </c>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="53" t="s">
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="30"/>
       <c r="AQ29" s="15"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
@@ -5148,64 +5148,64 @@
       <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="48" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="53" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="42">
         <v>44508</v>
       </c>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54">
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42">
         <v>44508</v>
       </c>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="57">
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="43">
         <v>44537</v>
       </c>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="57">
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="43">
         <v>44540</v>
       </c>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="55">
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="47">
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="24">
         <v>0.9</v>
       </c>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="59">
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="26">
         <v>1</v>
       </c>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="53" t="s">
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
       <c r="AQ30" s="15"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
@@ -5284,64 +5284,64 @@
       <c r="D31" s="20">
         <v>5</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="48" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="53" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="54">
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="42">
         <v>44509</v>
       </c>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54">
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42">
         <v>44509</v>
       </c>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="57">
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="43">
         <v>44538</v>
       </c>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="57">
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="43">
         <v>44540</v>
       </c>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="55">
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="47">
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="24">
         <v>0.8</v>
       </c>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="59">
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="26">
         <v>1</v>
       </c>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="53" t="s">
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
       <c r="AQ31" s="15"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
@@ -5420,64 +5420,64 @@
       <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="48" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="53" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54">
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="42">
         <v>44509</v>
       </c>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54">
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42">
         <v>44509</v>
       </c>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="57">
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="43">
         <v>44539</v>
       </c>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="62">
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="44">
         <v>44540</v>
       </c>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="55">
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="28">
         <v>1.5</v>
       </c>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="47">
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="24">
         <v>0.7</v>
       </c>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="59">
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="26">
         <v>1</v>
       </c>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="53" t="s">
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="53"/>
-      <c r="AP32" s="53"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -5550,44 +5550,44 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
       <c r="AQ33" s="15"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5662,46 +5662,46 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="14"/>
       <c r="AS34" s="14"/>
@@ -5793,31 +5793,31 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
@@ -5896,62 +5896,62 @@
       <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="48" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="53" t="s">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="54">
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="42">
         <v>44510</v>
       </c>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54">
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42">
         <v>44510</v>
       </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="57">
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="43">
         <v>44545</v>
       </c>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="55">
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="28">
         <v>1</v>
       </c>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="47">
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="26">
         <v>0.5</v>
       </c>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="47" t="s">
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
       <c r="AQ36" s="15"/>
       <c r="AR36" s="14"/>
       <c r="AS36" s="14"/>
@@ -6000,7 +6000,7 @@
       <c r="CJ36" s="15"/>
       <c r="CK36" s="15"/>
       <c r="CL36" s="17"/>
-      <c r="CM36" s="15"/>
+      <c r="CM36" s="17"/>
       <c r="CN36" s="15"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -6030,54 +6030,62 @@
       <c r="D37" s="20">
         <v>2</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="48" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="53" t="s">
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="54">
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="42">
         <v>44511</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54">
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42">
         <v>44511</v>
       </c>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="55">
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="43">
+        <v>44546</v>
+      </c>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="14"/>
       <c r="AS37" s="14"/>
@@ -6126,7 +6134,7 @@
       <c r="CJ37" s="15"/>
       <c r="CK37" s="15"/>
       <c r="CL37" s="15"/>
-      <c r="CM37" s="15"/>
+      <c r="CM37" s="17"/>
       <c r="CN37" s="15"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -6156,54 +6164,62 @@
       <c r="D38" s="20">
         <v>3</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="48" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="53" t="s">
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="54">
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="42">
         <v>44511</v>
       </c>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54">
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42">
         <v>44512</v>
       </c>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="55">
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="43">
+        <v>44546</v>
+      </c>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="28">
         <v>1</v>
       </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
       <c r="AQ38" s="15"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
@@ -6252,7 +6268,7 @@
       <c r="CJ38" s="15"/>
       <c r="CK38" s="15"/>
       <c r="CL38" s="15"/>
-      <c r="CM38" s="15"/>
+      <c r="CM38" s="17"/>
       <c r="CN38" s="15"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -6282,54 +6298,54 @@
       <c r="D39" s="20">
         <v>4</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="48" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="53" t="s">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="54">
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="42">
         <v>44512</v>
       </c>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54">
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42">
         <v>44515</v>
       </c>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="55">
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="28">
         <v>1</v>
       </c>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="15"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
@@ -6408,54 +6424,54 @@
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="48" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="53" t="s">
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="54">
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="42">
         <v>44515</v>
       </c>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54">
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42">
         <v>44516</v>
       </c>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="55">
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="28">
         <v>1</v>
       </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
       <c r="AQ40" s="15"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6534,54 +6550,54 @@
       <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="48" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="53" t="s">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54">
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="42">
         <v>44516</v>
       </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54">
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42">
         <v>44517</v>
       </c>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="55">
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="28">
         <v>1</v>
       </c>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
@@ -6654,44 +6670,44 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="59"/>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
       <c r="AQ42" s="15"/>
       <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
@@ -6766,46 +6782,46 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="14"/>
       <c r="AS43" s="14"/>
@@ -6897,31 +6913,31 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="40"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="33"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="14"/>
       <c r="AS44" s="14"/>
@@ -7000,64 +7016,64 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="48" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="53" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="54">
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="42">
         <v>44517</v>
       </c>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54">
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42">
         <v>44517</v>
       </c>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="57">
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="43">
         <v>44540</v>
       </c>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="57">
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="43">
         <v>44545</v>
       </c>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="55">
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="47">
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="59">
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="26">
         <v>1</v>
       </c>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="53" t="s">
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="53"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
       <c r="AQ45" s="15"/>
       <c r="AR45" s="14"/>
       <c r="AS45" s="14"/>
@@ -7136,64 +7152,64 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="48" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="53" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="54">
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="42">
         <v>44517</v>
       </c>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54">
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42">
         <v>44517</v>
       </c>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="57">
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="43">
         <v>44543</v>
       </c>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="57">
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="43">
         <v>44545</v>
       </c>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="55">
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="28">
         <v>0.3</v>
       </c>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="47">
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="24">
         <v>0.2</v>
       </c>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="59">
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="26">
         <v>1</v>
       </c>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="53" t="s">
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="53"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
       <c r="AQ46" s="15"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
@@ -7272,64 +7288,64 @@
       <c r="D47" s="20">
         <v>3</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="48" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="53" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="54">
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="42">
         <v>44517</v>
       </c>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54">
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42">
         <v>44517</v>
       </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="57">
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="43">
         <v>44543</v>
       </c>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="57">
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="43">
         <v>44545</v>
       </c>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="55">
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="47">
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="24">
         <v>0.4</v>
       </c>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="59">
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="26">
         <v>1</v>
       </c>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="53" t="s">
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
       <c r="AQ47" s="15"/>
       <c r="AR47" s="14"/>
       <c r="AS47" s="14"/>
@@ -7408,64 +7424,64 @@
       <c r="D48" s="20">
         <v>4</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="48" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="53" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="54">
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="42">
         <v>44518</v>
       </c>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54">
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42">
         <v>44518</v>
       </c>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="57">
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="43">
         <v>44544</v>
       </c>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="57">
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="43">
         <v>44545</v>
       </c>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="55">
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="47">
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="24">
         <v>0.5</v>
       </c>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="59">
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="26">
         <v>1</v>
       </c>
-      <c r="AL48" s="59"/>
-      <c r="AM48" s="53" t="s">
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
       <c r="AQ48" s="15"/>
       <c r="AR48" s="14"/>
       <c r="AS48" s="14"/>
@@ -7544,64 +7560,64 @@
       <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="48" t="s">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="53" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54">
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="42">
         <v>44518</v>
       </c>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54">
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42">
         <v>44518</v>
       </c>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="57">
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="43">
         <v>44544</v>
       </c>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="57">
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="43">
         <v>44545</v>
       </c>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="55">
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="47">
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="24">
         <v>0.3</v>
       </c>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="59">
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="26">
         <v>1</v>
       </c>
-      <c r="AL49" s="59"/>
-      <c r="AM49" s="53" t="s">
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN49" s="53"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="53"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
       <c r="AQ49" s="15"/>
       <c r="AR49" s="14"/>
       <c r="AS49" s="14"/>
@@ -7680,64 +7696,64 @@
       <c r="D50" s="20">
         <v>6</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="48" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="53" t="s">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="54">
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="42">
         <v>44518</v>
       </c>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54">
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42">
         <v>44518</v>
       </c>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="57">
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="43">
         <v>44544</v>
       </c>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="57">
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="43">
         <v>44545</v>
       </c>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-      <c r="AG50" s="55">
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="47">
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="24">
         <v>0.5</v>
       </c>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="59">
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="26">
         <v>1</v>
       </c>
-      <c r="AL50" s="59"/>
-      <c r="AM50" s="53" t="s">
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53"/>
-      <c r="AP50" s="53"/>
+      <c r="AN50" s="30"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="30"/>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -7829,31 +7845,31 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="40"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="40"/>
-      <c r="AP51" s="40"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="14"/>
       <c r="AS51" s="14"/>
@@ -7932,54 +7948,54 @@
       <c r="D52" s="20">
         <v>1</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="48" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="53" t="s">
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="54">
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="42">
         <v>44519</v>
       </c>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54">
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42">
         <v>44519</v>
       </c>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="55">
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="28">
         <v>1</v>
       </c>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="47"/>
-      <c r="AN52" s="47"/>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="47"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="26"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
       <c r="AQ52" s="15"/>
       <c r="AR52" s="14"/>
       <c r="AS52" s="14"/>
@@ -8058,54 +8074,54 @@
       <c r="D53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="48" t="s">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="53" t="s">
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="54">
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="42">
         <v>44522</v>
       </c>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54">
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42">
         <v>44522</v>
       </c>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="47"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-      <c r="AG53" s="55">
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="28">
         <v>0.5</v>
       </c>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="59"/>
-      <c r="AL53" s="59"/>
-      <c r="AM53" s="47"/>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="47"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="26"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
       <c r="AQ53" s="15"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -8184,54 +8200,54 @@
       <c r="D54" s="20">
         <v>3</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="48" t="s">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="53" t="s">
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="54">
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="42">
         <v>44522</v>
       </c>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54">
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42">
         <v>44524</v>
       </c>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="55">
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="28">
         <v>1</v>
       </c>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="59"/>
-      <c r="AL54" s="59"/>
-      <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="47"/>
-      <c r="AP54" s="47"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
       <c r="AQ54" s="15"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
@@ -8310,54 +8326,54 @@
       <c r="D55" s="20">
         <v>4</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="48" t="s">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="53" t="s">
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="54">
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="42">
         <v>44524</v>
       </c>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54">
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42">
         <v>44525</v>
       </c>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="55">
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="28">
         <v>1</v>
       </c>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="59"/>
-      <c r="AL55" s="59"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
       <c r="AQ55" s="15"/>
       <c r="AR55" s="14"/>
       <c r="AS55" s="14"/>
@@ -8436,54 +8452,54 @@
       <c r="D56" s="20">
         <v>5</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="48" t="s">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="53" t="s">
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="54">
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="42">
         <v>44525</v>
       </c>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54">
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42">
         <v>44526</v>
       </c>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="55">
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="28">
         <v>1</v>
       </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="59"/>
-      <c r="AM56" s="47"/>
-      <c r="AN56" s="47"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="14"/>
       <c r="AS56" s="14"/>
@@ -8562,54 +8578,54 @@
       <c r="D57" s="20">
         <v>6</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="48" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="53" t="s">
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="54">
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="42">
         <v>44526</v>
       </c>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54">
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42">
         <v>44529</v>
       </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="47"/>
-      <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="55">
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="28">
         <v>1</v>
       </c>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="47"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="59"/>
-      <c r="AL57" s="59"/>
-      <c r="AM57" s="47"/>
-      <c r="AN57" s="47"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
+      <c r="AH57" s